--- a/BRFSS_Field_Map.xlsx
+++ b/BRFSS_Field_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresaszoke/Desktop/Classwork/diabetes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A0756D-C3F5-1240-BC34-C6BDADDF7176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EB7D2-213F-AF48-A036-B72EC244184D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58200" yWindow="-14160" windowWidth="30540" windowHeight="29800" activeTab="1" xr2:uid="{2BEC7167-3A60-5747-B803-1B5800393B56}"/>
+    <workbookView xWindow="4140" yWindow="740" windowWidth="29400" windowHeight="17260" activeTab="1" xr2:uid="{2BEC7167-3A60-5747-B803-1B5800393B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Analysis" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="669">
   <si>
     <t>TOLDHI2</t>
   </si>
@@ -1864,12 +1864,6 @@
     <t>Is your annual household income from all sources: (If respondent refuses at any income level, code "Refused.")</t>
   </si>
   <si>
-    <t>About how much do you weigh without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions up.]</t>
-  </si>
-  <si>
-    <t>About how tall are you without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions down.]</t>
-  </si>
-  <si>
     <t>To your knowledge, are you now pregnant?</t>
   </si>
   <si>
@@ -2048,6 +2042,12 @@
   </si>
   <si>
     <t>Annual Sequence Number</t>
+  </si>
+  <si>
+    <t>About how much do you weigh without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions up.]. NOTE - we will use the field htm4 instead.</t>
+  </si>
+  <si>
+    <t>About how tall are you without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions down.] NOTE: we will use the field wtkg3 instead.</t>
   </si>
 </sst>
 </file>
@@ -2103,11 +2103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2126,7 +2127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2414,7 +2415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2424,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAFC5EA-9B3F-6E44-BC4E-3F13A83D01D0}">
   <dimension ref="A1:I455"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A67" sqref="A66:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(A2,F:F,1,0)</f>
+        <f t="shared" ref="B2:B47" si="0">VLOOKUP(A2,F:F,1,0)</f>
         <v>_STATE</v>
       </c>
       <c r="C2" t="s">
@@ -2482,7 +2483,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(F2,A:A,1,0)</f>
+        <f t="shared" ref="G2:G45" si="1">VLOOKUP(F2,A:A,1,0)</f>
         <v>_STATE</v>
       </c>
       <c r="H2" t="str">
@@ -2499,7 +2500,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(A3,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>FMONTH</v>
       </c>
       <c r="D3" t="s">
@@ -2509,7 +2510,7 @@
         <v>334</v>
       </c>
       <c r="G3" t="e">
-        <f>VLOOKUP(F3,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I3" t="s">
@@ -2521,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(A4,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>IDATE</v>
       </c>
       <c r="D4" t="s">
@@ -2531,7 +2532,7 @@
         <v>335</v>
       </c>
       <c r="G4" t="e">
-        <f>VLOOKUP(F4,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I4" t="s">
@@ -2543,7 +2544,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="str">
-        <f>VLOOKUP(A5,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>IMONTH</v>
       </c>
       <c r="D5" t="s">
@@ -2553,7 +2554,7 @@
         <v>336</v>
       </c>
       <c r="G5" t="e">
-        <f>VLOOKUP(F5,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I5" t="s">
@@ -2565,7 +2566,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="str">
-        <f>VLOOKUP(A6,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>IDAY</v>
       </c>
       <c r="D6" t="s">
@@ -2575,7 +2576,7 @@
         <v>337</v>
       </c>
       <c r="G6" t="e">
-        <f>VLOOKUP(F6,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I6" t="s">
@@ -2587,11 +2588,11 @@
         <v>28</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(A7,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>IYEAR</v>
       </c>
       <c r="C7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D7" t="s">
         <v>565</v>
@@ -2600,7 +2601,7 @@
         <v>338</v>
       </c>
       <c r="G7" t="e">
-        <f>VLOOKUP(F7,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I7" t="s">
@@ -2612,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(A8,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>DISPCODE</v>
       </c>
       <c r="C8" t="s">
@@ -2625,7 +2626,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>FMONTH</v>
       </c>
       <c r="H8">
@@ -2642,7 +2643,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="str">
-        <f>VLOOKUP(A9,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>SEQNO</v>
       </c>
       <c r="D9" t="s">
@@ -2652,7 +2653,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>IDATE</v>
       </c>
       <c r="H9">
@@ -2669,7 +2670,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="str">
-        <f>VLOOKUP(A10,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>_PSU</v>
       </c>
       <c r="D10" t="s">
@@ -2679,7 +2680,7 @@
         <v>26</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(F10,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>IMONTH</v>
       </c>
       <c r="H10">
@@ -2696,7 +2697,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="str">
-        <f>VLOOKUP(A11,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CTELENUM</v>
       </c>
       <c r="D11" t="s">
@@ -2706,7 +2707,7 @@
         <v>27</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(F11,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>IDAY</v>
       </c>
       <c r="H11">
@@ -2723,7 +2724,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="e">
-        <f>VLOOKUP(A12,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D12" t="s">
@@ -2733,7 +2734,7 @@
         <v>28</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(F12,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>IYEAR</v>
       </c>
       <c r="H12" t="str">
@@ -2750,7 +2751,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="e">
-        <f>VLOOKUP(A13,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D13" t="s">
@@ -2760,7 +2761,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="e">
-        <f>VLOOKUP(F13,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I13" t="s">
@@ -2772,7 +2773,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="e">
-        <f>VLOOKUP(A14,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D14" t="s">
@@ -2782,7 +2783,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>DISPCODE</v>
       </c>
       <c r="H14" t="str">
@@ -2799,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="e">
-        <f>VLOOKUP(A15,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D15" t="s">
@@ -2809,7 +2810,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>SEQNO</v>
       </c>
       <c r="H15">
@@ -2826,7 +2827,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="e">
-        <f>VLOOKUP(A16,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D16" t="s">
@@ -2836,7 +2837,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>_PSU</v>
       </c>
       <c r="H16">
@@ -2853,7 +2854,7 @@
         <v>38</v>
       </c>
       <c r="B17" t="str">
-        <f>VLOOKUP(A17,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>NUMADULT</v>
       </c>
       <c r="D17" t="s">
@@ -2863,7 +2864,7 @@
         <v>340</v>
       </c>
       <c r="G17" t="e">
-        <f>VLOOKUP(F17,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I17" t="s">
@@ -2875,7 +2876,7 @@
         <v>39</v>
       </c>
       <c r="B18" t="str">
-        <f>VLOOKUP(A18,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>NUMMEN</v>
       </c>
       <c r="D18" t="s">
@@ -2885,7 +2886,7 @@
         <v>341</v>
       </c>
       <c r="G18" t="e">
-        <f>VLOOKUP(F18,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I18" t="s">
@@ -2897,7 +2898,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="str">
-        <f>VLOOKUP(A19,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>NUMWOMEN</v>
       </c>
       <c r="D19" t="s">
@@ -2907,7 +2908,7 @@
         <v>342</v>
       </c>
       <c r="G19" t="e">
-        <f>VLOOKUP(F19,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I19" t="s">
@@ -2919,7 +2920,7 @@
         <v>41</v>
       </c>
       <c r="B20" t="str">
-        <f>VLOOKUP(A20,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CTELNUM1</v>
       </c>
       <c r="D20" t="s">
@@ -2929,7 +2930,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(F20,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>CTELENUM</v>
       </c>
       <c r="H20">
@@ -2946,7 +2947,7 @@
         <v>42</v>
       </c>
       <c r="B21" t="str">
-        <f>VLOOKUP(A21,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CELLFON2</v>
       </c>
       <c r="D21" t="s">
@@ -2956,7 +2957,7 @@
         <v>343</v>
       </c>
       <c r="G21" t="e">
-        <f>VLOOKUP(F21,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I21" t="s">
@@ -2968,7 +2969,7 @@
         <v>43</v>
       </c>
       <c r="B22" t="str">
-        <f>VLOOKUP(A22,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CADULT</v>
       </c>
       <c r="D22" t="s">
@@ -2978,7 +2979,7 @@
         <v>344</v>
       </c>
       <c r="G22" t="e">
-        <f>VLOOKUP(F22,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I22" t="s">
@@ -2990,7 +2991,7 @@
         <v>44</v>
       </c>
       <c r="B23" t="str">
-        <f>VLOOKUP(A23,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>PVTRESD2</v>
       </c>
       <c r="D23" t="s">
@@ -3000,15 +3001,15 @@
         <v>38</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(F23,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>NUMADULT</v>
       </c>
       <c r="H23">
-        <f>VLOOKUP(F23,A:C,3,0)</f>
+        <f t="shared" ref="H23:H45" si="2">VLOOKUP(F23,A:C,3,0)</f>
         <v>0</v>
       </c>
       <c r="I23" t="str">
-        <f>VLOOKUP(F23,A:D,4,0)</f>
+        <f t="shared" ref="I23:I45" si="3">VLOOKUP(F23,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -3017,7 +3018,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="e">
-        <f>VLOOKUP(A24,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D24" t="s">
@@ -3027,15 +3028,15 @@
         <v>39</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>NUMMEN</v>
       </c>
       <c r="H24">
-        <f>VLOOKUP(F24,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" t="str">
-        <f>VLOOKUP(F24,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>drop</v>
       </c>
     </row>
@@ -3044,7 +3045,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="str">
-        <f>VLOOKUP(A25,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CSTATE</v>
       </c>
       <c r="D25" t="s">
@@ -3054,15 +3055,15 @@
         <v>40</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>NUMWOMEN</v>
       </c>
       <c r="H25">
-        <f>VLOOKUP(F25,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" t="str">
-        <f>VLOOKUP(F25,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>drop</v>
       </c>
     </row>
@@ -3071,7 +3072,7 @@
         <v>47</v>
       </c>
       <c r="B26" t="str">
-        <f>VLOOKUP(A26,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>LANDLINE</v>
       </c>
       <c r="D26" t="s">
@@ -3081,15 +3082,15 @@
         <v>13</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>GENHLTH</v>
       </c>
       <c r="H26" t="str">
-        <f>VLOOKUP(F26,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>General Health - Would you say that in general your health is:</v>
       </c>
       <c r="I26" t="str">
-        <f>VLOOKUP(F26,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3098,7 +3099,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="e">
-        <f>VLOOKUP(A27,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D27" t="s">
@@ -3108,15 +3109,15 @@
         <v>15</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>PHYSHLTH</v>
       </c>
       <c r="H27" t="str">
-        <f>VLOOKUP(F27,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?</v>
       </c>
       <c r="I27" t="str">
-        <f>VLOOKUP(F27,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3125,7 +3126,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="str">
-        <f>VLOOKUP(A28,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>GENHLTH</v>
       </c>
       <c r="C28" t="s">
@@ -3138,15 +3139,15 @@
         <v>14</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(F28,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>MENTHLTH</v>
       </c>
       <c r="H28" t="str">
-        <f>VLOOKUP(F28,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Now thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?</v>
       </c>
       <c r="I28" t="str">
-        <f>VLOOKUP(F28,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3155,7 +3156,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="str">
-        <f>VLOOKUP(A29,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>PHYSHLTH</v>
       </c>
       <c r="C29" t="s">
@@ -3168,15 +3169,15 @@
         <v>49</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>POORHLTH</v>
       </c>
       <c r="H29" t="str">
-        <f>VLOOKUP(F29,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>During the past 30 days, for about how many days did poor physical or mental health keep you from doing your usual activities, such as self-care, work, or recreation?</v>
       </c>
       <c r="I29" t="str">
-        <f>VLOOKUP(F29,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3185,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="str">
-        <f>VLOOKUP(A30,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>MENTHLTH</v>
       </c>
       <c r="C30" t="s">
@@ -3198,15 +3199,15 @@
         <v>11</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>HLTHPLN1</v>
       </c>
       <c r="H30" t="str">
-        <f>VLOOKUP(F30,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Do you have any kind of health care coverage, including health insurance, prepaid plans such as HMOs, or government plans such as Medicare, or Indian Health Service?</v>
       </c>
       <c r="I30" t="str">
-        <f>VLOOKUP(F30,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3215,7 +3216,7 @@
         <v>49</v>
       </c>
       <c r="B31" t="str">
-        <f>VLOOKUP(A31,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>POORHLTH</v>
       </c>
       <c r="C31" t="s">
@@ -3228,15 +3229,15 @@
         <v>22</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>PERSDOC2</v>
       </c>
       <c r="H31" t="str">
-        <f>VLOOKUP(F31,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Do you have one person you think of as your personal doctor or health care provider? (If "No" ask "Is there more than one or is there no person who you think of as your personal doctor or health care provider?".)</v>
       </c>
       <c r="I31" t="str">
-        <f>VLOOKUP(F31,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3245,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="str">
-        <f>VLOOKUP(A32,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>HLTHPLN1</v>
       </c>
       <c r="C32" t="s">
@@ -3258,15 +3259,15 @@
         <v>12</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>MEDCOST</v>
       </c>
       <c r="H32" t="str">
-        <f>VLOOKUP(F32,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Was there a time in the past 12 months when you needed to see a doctor but could not because of cost?</v>
       </c>
       <c r="I32" t="str">
-        <f>VLOOKUP(F32,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3275,7 +3276,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="str">
-        <f>VLOOKUP(A33,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>PERSDOC2</v>
       </c>
       <c r="C33" t="s">
@@ -3288,15 +3289,15 @@
         <v>23</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F33,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>CHECKUP1</v>
       </c>
       <c r="H33" t="str">
-        <f>VLOOKUP(F33,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>About how long has it been since you last visited a doctor for a routine checkup? [A routine checkup is a general physical exam, not an exam for a specific injury, illness, or condition.]</v>
       </c>
       <c r="I33" t="str">
-        <f>VLOOKUP(F33,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3305,7 +3306,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="str">
-        <f>VLOOKUP(A34,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>MEDCOST</v>
       </c>
       <c r="C34" t="s">
@@ -3318,15 +3319,15 @@
         <v>50</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>BPHIGH4</v>
       </c>
       <c r="H34" t="str">
-        <f>VLOOKUP(F34,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Have you EVER been told by a doctor, nurse or other health professional that you have high blood pressure? (If "Yes" and respondent is female, ask "Was this only when you were pregnant?".)</v>
       </c>
       <c r="I34" t="str">
-        <f>VLOOKUP(F34,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3335,7 +3336,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="str">
-        <f>VLOOKUP(A35,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CHECKUP1</v>
       </c>
       <c r="C35" t="s">
@@ -3348,15 +3349,15 @@
         <v>51</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>BPMEDS</v>
       </c>
       <c r="H35" t="str">
-        <f>VLOOKUP(F35,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Are you currently taking medicine for your high blood pressure?</v>
       </c>
       <c r="I35" t="str">
-        <f>VLOOKUP(F35,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>drop</v>
       </c>
     </row>
@@ -3365,7 +3366,7 @@
         <v>50</v>
       </c>
       <c r="B36" t="str">
-        <f>VLOOKUP(A36,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>BPHIGH4</v>
       </c>
       <c r="C36" t="s">
@@ -3378,15 +3379,15 @@
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F36,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>BLOODCHO</v>
       </c>
       <c r="H36" t="str">
-        <f>VLOOKUP(F36,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Blood cholesterol is a fatty substance found in the blood. Have you EVER had your blood cholesterol checked?</v>
       </c>
       <c r="I36" t="str">
-        <f>VLOOKUP(F36,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>drop</v>
       </c>
     </row>
@@ -3395,7 +3396,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="str">
-        <f>VLOOKUP(A37,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>BPMEDS</v>
       </c>
       <c r="C37" t="s">
@@ -3408,15 +3409,15 @@
         <v>52</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>CHOLCHK</v>
       </c>
       <c r="H37" t="str">
-        <f>VLOOKUP(F37,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>About how long has it been since you last had your blood cholesterol checked?</v>
       </c>
       <c r="I37" t="str">
-        <f>VLOOKUP(F37,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>drop</v>
       </c>
     </row>
@@ -3425,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <f>VLOOKUP(A38,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>BLOODCHO</v>
       </c>
       <c r="C38" t="s">
@@ -3438,15 +3439,15 @@
         <v>0</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>TOLDHI2</v>
       </c>
       <c r="H38" t="str">
-        <f>VLOOKUP(F38,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Have you EVER been told by a doctor, nurse or other health professional that your blood cholesterol is high?</v>
       </c>
       <c r="I38" t="str">
-        <f>VLOOKUP(F38,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3455,7 +3456,7 @@
         <v>52</v>
       </c>
       <c r="B39" t="str">
-        <f>VLOOKUP(A39,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CHOLCHK</v>
       </c>
       <c r="C39" t="s">
@@ -3468,15 +3469,15 @@
         <v>5</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>CVDINFR4</v>
       </c>
       <c r="H39" t="str">
-        <f>VLOOKUP(F39,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>(Ever told) you had a heart attack, also called a myocardial infarction?</v>
       </c>
       <c r="I39" t="str">
-        <f>VLOOKUP(F39,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3485,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f>VLOOKUP(A40,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>TOLDHI2</v>
       </c>
       <c r="C40" t="s">
@@ -3498,15 +3499,15 @@
         <v>6</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(F40,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>CVDCRHD4</v>
       </c>
       <c r="H40" t="str">
-        <f>VLOOKUP(F40,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>(Ever told) you had angina or coronary heart disease?</v>
       </c>
       <c r="I40" t="str">
-        <f>VLOOKUP(F40,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3515,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="str">
-        <f>VLOOKUP(A41,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CVDINFR4</v>
       </c>
       <c r="C41" t="s">
@@ -3528,15 +3529,15 @@
         <v>4</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>CVDSTRK3</v>
       </c>
       <c r="H41" t="str">
-        <f>VLOOKUP(F41,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>(Ever told) you had a stroke.</v>
       </c>
       <c r="I41" t="str">
-        <f>VLOOKUP(F41,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3545,7 +3546,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="str">
-        <f>VLOOKUP(A42,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CVDCRHD4</v>
       </c>
       <c r="C42" t="s">
@@ -3558,15 +3559,15 @@
         <v>53</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F42,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>ASTHMA3</v>
       </c>
       <c r="H42" t="str">
-        <f>VLOOKUP(F42,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>(Ever told) you had asthma?</v>
       </c>
       <c r="I42" t="str">
-        <f>VLOOKUP(F42,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3575,7 +3576,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="str">
-        <f>VLOOKUP(A43,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CVDSTRK3</v>
       </c>
       <c r="C43" t="s">
@@ -3588,15 +3589,15 @@
         <v>54</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>ASTHNOW</v>
       </c>
       <c r="H43" t="str">
-        <f>VLOOKUP(F43,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>Do you still have asthma?</v>
       </c>
       <c r="I43" t="str">
-        <f>VLOOKUP(F43,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3605,7 +3606,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="str">
-        <f>VLOOKUP(A44,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>ASTHMA3</v>
       </c>
       <c r="C44" t="s">
@@ -3618,15 +3619,15 @@
         <v>55</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>CHCSCNCR</v>
       </c>
       <c r="H44" t="str">
-        <f>VLOOKUP(F44,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>(Ever told) you had skin cancer?</v>
       </c>
       <c r="I44" t="str">
-        <f>VLOOKUP(F44,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>drop</v>
       </c>
     </row>
@@ -3635,7 +3636,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="str">
-        <f>VLOOKUP(A45,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>ASTHNOW</v>
       </c>
       <c r="C45" t="s">
@@ -3648,15 +3649,15 @@
         <v>56</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F45,A:A,1,0)</f>
+        <f t="shared" si="1"/>
         <v>CHCOCNCR</v>
       </c>
       <c r="H45" t="str">
-        <f>VLOOKUP(F45,A:C,3,0)</f>
+        <f t="shared" si="2"/>
         <v>(Ever told) you had any other types of cancer?</v>
       </c>
       <c r="I45" t="str">
-        <f>VLOOKUP(F45,A:D,4,0)</f>
+        <f t="shared" si="3"/>
         <v>drop</v>
       </c>
     </row>
@@ -3665,7 +3666,7 @@
         <v>55</v>
       </c>
       <c r="B46" t="str">
-        <f>VLOOKUP(A46,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CHCSCNCR</v>
       </c>
       <c r="C46" t="s">
@@ -3694,7 +3695,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="str">
-        <f>VLOOKUP(A47,F:F,1,0)</f>
+        <f t="shared" si="0"/>
         <v>CHCOCNCR</v>
       </c>
       <c r="C47" t="s">
@@ -3707,7 +3708,7 @@
         <v>58</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47,A:A,1,0)</f>
+        <f t="shared" ref="G47:G59" si="4">VLOOKUP(F47,A:A,1,0)</f>
         <v>HAVARTH3</v>
       </c>
       <c r="H47" t="str">
@@ -3736,7 +3737,7 @@
         <v>59</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>ADDEPEV2</v>
       </c>
       <c r="H48" t="str">
@@ -3753,7 +3754,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="str">
-        <f>VLOOKUP(A49,F:F,1,0)</f>
+        <f t="shared" ref="B49:B61" si="5">VLOOKUP(A49,F:F,1,0)</f>
         <v>HAVARTH3</v>
       </c>
       <c r="C49" t="s">
@@ -3766,7 +3767,7 @@
         <v>60</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>CHCKIDNY</v>
       </c>
       <c r="H49" t="str">
@@ -3783,7 +3784,7 @@
         <v>59</v>
       </c>
       <c r="B50" t="str">
-        <f>VLOOKUP(A50,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>ADDEPEV2</v>
       </c>
       <c r="C50" t="s">
@@ -3796,7 +3797,7 @@
         <v>346</v>
       </c>
       <c r="G50" t="e">
-        <f>VLOOKUP(F50,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="I50" t="s">
@@ -3808,7 +3809,7 @@
         <v>60</v>
       </c>
       <c r="B51" t="str">
-        <f>VLOOKUP(A51,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>CHCKIDNY</v>
       </c>
       <c r="C51" t="s">
@@ -3821,15 +3822,15 @@
         <v>61</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(F51,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>DIABETE3</v>
       </c>
       <c r="H51" t="str">
-        <f>VLOOKUP(F51,A:C,3,0)</f>
+        <f t="shared" ref="H51:H56" si="6">VLOOKUP(F51,A:C,3,0)</f>
         <v>(Ever told) you have diabetes (If "Yes" and respondent is female, ask "Was this only when you were pregnant?". If Respondent says pre-diabetes or borderline diabetes, use response code 4.)</v>
       </c>
       <c r="I51" t="str">
-        <f>VLOOKUP(F51,A:D,4,0)</f>
+        <f t="shared" ref="I51:I56" si="7">VLOOKUP(F51,A:D,4,0)</f>
         <v>Target</v>
       </c>
     </row>
@@ -3838,7 +3839,7 @@
         <v>61</v>
       </c>
       <c r="B52" t="str">
-        <f>VLOOKUP(A52,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>DIABETE3</v>
       </c>
       <c r="C52" t="s">
@@ -3851,15 +3852,15 @@
         <v>85</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F52,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>SMOKE100</v>
       </c>
       <c r="H52" t="str">
-        <f>VLOOKUP(F52,A:C,3,0)</f>
+        <f t="shared" si="6"/>
         <v>Have you smoked at least 100 cigarettes in your entire life? [Note: 5 packs = 100 cigarettes]</v>
       </c>
       <c r="I52" t="str">
-        <f>VLOOKUP(F52,A:D,4,0)</f>
+        <f t="shared" si="7"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3868,7 +3869,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="str">
-        <f>VLOOKUP(A53,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>DIABAGE2</v>
       </c>
       <c r="C53" t="s">
@@ -3881,15 +3882,15 @@
         <v>86</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(F53,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>SMOKDAY2</v>
       </c>
       <c r="H53" t="str">
-        <f>VLOOKUP(F53,A:C,3,0)</f>
+        <f t="shared" si="6"/>
         <v>Do you now smoke cigarettes every day, some days, or not at all?</v>
       </c>
       <c r="I53" t="str">
-        <f>VLOOKUP(F53,A:D,4,0)</f>
+        <f t="shared" si="7"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3898,7 +3899,7 @@
         <v>63</v>
       </c>
       <c r="B54" t="str">
-        <f>VLOOKUP(A54,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>SEX</v>
       </c>
       <c r="C54" t="s">
@@ -3911,15 +3912,15 @@
         <v>87</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F54,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>STOPSMK2</v>
       </c>
       <c r="H54" t="str">
-        <f>VLOOKUP(F54,A:C,3,0)</f>
+        <f t="shared" si="6"/>
         <v>During the past 12 months, have you stopped smoking for one day or longer because you were trying to quit smoking?</v>
       </c>
       <c r="I54" t="str">
-        <f>VLOOKUP(F54,A:D,4,0)</f>
+        <f t="shared" si="7"/>
         <v>drop</v>
       </c>
     </row>
@@ -3928,7 +3929,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="str">
-        <f>VLOOKUP(A55,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>MARITAL</v>
       </c>
       <c r="C55" t="s">
@@ -3941,15 +3942,15 @@
         <v>88</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(F55,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>LASTSMK2</v>
       </c>
       <c r="H55" t="str">
-        <f>VLOOKUP(F55,A:C,3,0)</f>
+        <f t="shared" si="6"/>
         <v>How long has it been since you last smoked a cigarette, even one or two puffs?</v>
       </c>
       <c r="I55" t="str">
-        <f>VLOOKUP(F55,A:D,4,0)</f>
+        <f t="shared" si="7"/>
         <v>drop</v>
       </c>
     </row>
@@ -3958,7 +3959,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="str">
-        <f>VLOOKUP(A56,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>EDUCA</v>
       </c>
       <c r="C56" t="s">
@@ -3971,15 +3972,15 @@
         <v>89</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(F56,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>USENOW3</v>
       </c>
       <c r="H56" t="str">
-        <f>VLOOKUP(F56,A:C,3,0)</f>
+        <f t="shared" si="6"/>
         <v>Do you currently use chewing tobacco, snuff, or snus every day, some days, or not at all? (Snus (Swedish for snuff) is a moist smokeless tobacco, usually sold in small pouches that are placed under the lip against the gum.)[Snus (rhymes with ´goose´)]</v>
       </c>
       <c r="I56" t="str">
-        <f>VLOOKUP(F56,A:D,4,0)</f>
+        <f t="shared" si="7"/>
         <v>Feature</v>
       </c>
     </row>
@@ -3988,7 +3989,7 @@
         <v>66</v>
       </c>
       <c r="B57" t="str">
-        <f>VLOOKUP(A57,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>RENTHOM1</v>
       </c>
       <c r="C57" t="s">
@@ -4001,7 +4002,7 @@
         <v>17</v>
       </c>
       <c r="G57" t="e">
-        <f>VLOOKUP(F57,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="I57" t="s">
@@ -4013,7 +4014,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="str">
-        <f>VLOOKUP(A58,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>NUMHHOL2</v>
       </c>
       <c r="D58" t="s">
@@ -4023,7 +4024,7 @@
         <v>347</v>
       </c>
       <c r="G58" t="e">
-        <f>VLOOKUP(F58,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="I58" t="s">
@@ -4035,7 +4036,7 @@
         <v>68</v>
       </c>
       <c r="B59" t="str">
-        <f>VLOOKUP(A59,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>NUMPHON2</v>
       </c>
       <c r="D59" t="s">
@@ -4045,7 +4046,7 @@
         <v>348</v>
       </c>
       <c r="G59" t="e">
-        <f>VLOOKUP(F59,A:A,1,0)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="I59" t="s">
@@ -4057,7 +4058,7 @@
         <v>69</v>
       </c>
       <c r="B60" t="str">
-        <f>VLOOKUP(A60,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>CPDEMO1</v>
       </c>
       <c r="D60" t="s">
@@ -4083,7 +4084,7 @@
         <v>70</v>
       </c>
       <c r="B61" t="str">
-        <f>VLOOKUP(A61,F:F,1,0)</f>
+        <f t="shared" si="5"/>
         <v>VETERAN3</v>
       </c>
       <c r="C61" t="s">
@@ -4142,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B63" t="str">
-        <f>VLOOKUP(A63,F:F,1,0)</f>
+        <f t="shared" ref="B63:B94" si="8">VLOOKUP(A63,F:F,1,0)</f>
         <v>CHILDREN</v>
       </c>
       <c r="C63" t="s">
@@ -4172,7 +4173,7 @@
         <v>73</v>
       </c>
       <c r="B64" t="str">
-        <f>VLOOKUP(A64,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>INCOME2</v>
       </c>
       <c r="C64" t="s">
@@ -4202,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="B65" t="e">
-        <f>VLOOKUP(A65,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D65" t="s">
@@ -4224,24 +4225,24 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B66" t="str">
-        <f>VLOOKUP(A66,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>WEIGHT2</v>
       </c>
       <c r="C66" t="s">
-        <v>607</v>
+        <v>667</v>
       </c>
       <c r="D66" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F66" t="s">
         <v>73</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F66,A:A,1,0)</f>
+        <f t="shared" ref="G66:G129" si="9">VLOOKUP(F66,A:A,1,0)</f>
         <v>INCOME2</v>
       </c>
       <c r="H66" t="str">
@@ -4254,33 +4255,33 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B67" t="str">
-        <f>VLOOKUP(A67,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>HEIGHT3</v>
       </c>
       <c r="C67" t="s">
-        <v>608</v>
+        <v>668</v>
       </c>
       <c r="D67" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F67" t="s">
         <v>75</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F67,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>WEIGHT2</v>
       </c>
       <c r="H67" t="str">
         <f>VLOOKUP(F67,A:C,3,0)</f>
-        <v>About how much do you weigh without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions up.]</v>
+        <v>About how much do you weigh without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions up.]. NOTE - we will use the field htm4 instead.</v>
       </c>
       <c r="I67" t="str">
         <f>VLOOKUP(F67,A:D,4,0)</f>
-        <v>Feature</v>
+        <v>drop</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -4288,11 +4289,11 @@
         <v>77</v>
       </c>
       <c r="B68" t="str">
-        <f>VLOOKUP(A68,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>PREGNANT</v>
       </c>
       <c r="C68" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D68" t="s">
         <v>569</v>
@@ -4301,16 +4302,16 @@
         <v>76</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(F68,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>HEIGHT3</v>
       </c>
       <c r="H68" t="str">
         <f>VLOOKUP(F68,A:C,3,0)</f>
-        <v>About how tall are you without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions down.]</v>
+        <v>About how tall are you without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions down.] NOTE: we will use the field wtkg3 instead.</v>
       </c>
       <c r="I68" t="str">
         <f>VLOOKUP(F68,A:D,4,0)</f>
-        <v>Feature</v>
+        <v>drop</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4318,11 +4319,11 @@
         <v>78</v>
       </c>
       <c r="B69" t="str">
-        <f>VLOOKUP(A69,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>QLACTLM2</v>
       </c>
       <c r="C69" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D69" t="s">
         <v>569</v>
@@ -4331,7 +4332,7 @@
         <v>351</v>
       </c>
       <c r="G69" t="e">
-        <f>VLOOKUP(F69,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I69" t="s">
@@ -4343,11 +4344,11 @@
         <v>79</v>
       </c>
       <c r="B70" t="str">
-        <f>VLOOKUP(A70,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>USEEQUIP</v>
       </c>
       <c r="C70" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D70" t="s">
         <v>569</v>
@@ -4356,7 +4357,7 @@
         <v>67</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(F70,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>NUMHHOL2</v>
       </c>
       <c r="H70">
@@ -4373,7 +4374,7 @@
         <v>80</v>
       </c>
       <c r="B71" t="e">
-        <f>VLOOKUP(A71,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D71" t="s">
@@ -4383,7 +4384,7 @@
         <v>68</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F71,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>NUMPHON2</v>
       </c>
       <c r="H71">
@@ -4400,7 +4401,7 @@
         <v>81</v>
       </c>
       <c r="B72" t="e">
-        <f>VLOOKUP(A72,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D72" t="s">
@@ -4410,7 +4411,7 @@
         <v>69</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F72,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>CPDEMO1</v>
       </c>
       <c r="H72">
@@ -4427,7 +4428,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="e">
-        <f>VLOOKUP(A73,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D73" t="s">
@@ -4437,7 +4438,7 @@
         <v>352</v>
       </c>
       <c r="G73" t="e">
-        <f>VLOOKUP(F73,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I73" t="s">
@@ -4449,7 +4450,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="e">
-        <f>VLOOKUP(A74,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D74" t="s">
@@ -4459,7 +4460,7 @@
         <v>353</v>
       </c>
       <c r="G74" t="e">
-        <f>VLOOKUP(F74,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I74" t="s">
@@ -4471,7 +4472,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="e">
-        <f>VLOOKUP(A75,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D75" t="s">
@@ -4481,7 +4482,7 @@
         <v>354</v>
       </c>
       <c r="G75" t="e">
-        <f>VLOOKUP(F75,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I75" t="s">
@@ -4493,11 +4494,11 @@
         <v>85</v>
       </c>
       <c r="B76" t="str">
-        <f>VLOOKUP(A76,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>SMOKE100</v>
       </c>
       <c r="C76" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D76" t="s">
         <v>566</v>
@@ -4506,15 +4507,15 @@
         <v>66</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F76,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>RENTHOM1</v>
       </c>
       <c r="H76" t="str">
-        <f>VLOOKUP(F76,A:C,3,0)</f>
+        <f t="shared" ref="H76:H85" si="10">VLOOKUP(F76,A:C,3,0)</f>
         <v>Do you own or rent your home? (Home is defined as the place where you live most of the time/the majority of the year.)</v>
       </c>
       <c r="I76" t="str">
-        <f>VLOOKUP(F76,A:D,4,0)</f>
+        <f t="shared" ref="I76:I85" si="11">VLOOKUP(F76,A:D,4,0)</f>
         <v>Feature</v>
       </c>
     </row>
@@ -4523,11 +4524,11 @@
         <v>86</v>
       </c>
       <c r="B77" t="str">
-        <f>VLOOKUP(A77,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>SMOKDAY2</v>
       </c>
       <c r="C77" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D77" t="s">
         <v>566</v>
@@ -4536,15 +4537,15 @@
         <v>63</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F77,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>SEX</v>
       </c>
       <c r="H77" t="str">
-        <f>VLOOKUP(F77,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>Indicate sex of respondent. (1 - Male, 2 = Female)</v>
       </c>
       <c r="I77" t="str">
-        <f>VLOOKUP(F77,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>Feature</v>
       </c>
     </row>
@@ -4553,11 +4554,11 @@
         <v>87</v>
       </c>
       <c r="B78" t="str">
-        <f>VLOOKUP(A78,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>STOPSMK2</v>
       </c>
       <c r="C78" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D78" t="s">
         <v>569</v>
@@ -4566,15 +4567,15 @@
         <v>77</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F78,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>PREGNANT</v>
       </c>
       <c r="H78" t="str">
-        <f>VLOOKUP(F78,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>To your knowledge, are you now pregnant?</v>
       </c>
       <c r="I78" t="str">
-        <f>VLOOKUP(F78,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>drop</v>
       </c>
     </row>
@@ -4583,11 +4584,11 @@
         <v>88</v>
       </c>
       <c r="B79" t="str">
-        <f>VLOOKUP(A79,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>LASTSMK2</v>
       </c>
       <c r="C79" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D79" t="s">
         <v>569</v>
@@ -4596,15 +4597,15 @@
         <v>94</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F79,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>FRUITJU1</v>
       </c>
       <c r="H79" t="str">
-        <f>VLOOKUP(F79,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>During the past month, how many times per day, week or month did you drink 100 percent PURE fruit juices? Do not include fruit-flavored drinks with added sugar or fruit juice you made at home and added sugar to. Only include 100 percent juice.</v>
       </c>
       <c r="I79" t="str">
-        <f>VLOOKUP(F79,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>drop</v>
       </c>
     </row>
@@ -4613,11 +4614,11 @@
         <v>89</v>
       </c>
       <c r="B80" t="str">
-        <f>VLOOKUP(A80,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>USENOW3</v>
       </c>
       <c r="C80" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D80" t="s">
         <v>566</v>
@@ -4626,15 +4627,15 @@
         <v>95</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F80,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>FRUIT1</v>
       </c>
       <c r="H80" t="str">
-        <f>VLOOKUP(F80,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>During the past month, not counting juice, how many times per day, week, or month did you eat fruit? Count fresh, frozen, or canned fruit.(Read only if necessary: “Your best guess is fine. Include apples, bananas, applesauce, oranges, grape fruit, fruit salad, watermelon, cantaloupe or musk melon, papaya, lychees, star fruit,)</v>
       </c>
       <c r="I80" t="str">
-        <f>VLOOKUP(F80,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>drop</v>
       </c>
     </row>
@@ -4643,11 +4644,11 @@
         <v>90</v>
       </c>
       <c r="B81" t="str">
-        <f>VLOOKUP(A81,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>ALCDAY5</v>
       </c>
       <c r="C81" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D81" t="s">
         <v>569</v>
@@ -4656,15 +4657,15 @@
         <v>96</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F81,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>FVBEANS</v>
       </c>
       <c r="H81" t="str">
-        <f>VLOOKUP(F81,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>During the past month, how many times per day, week, or month did you eat cooked or canned beans, such as refried, baked, black, garbanzo beans, beans in soup, soybeans, edamame, tofu or lentils. Do NOT include long green beans.(Read only if necessary: “Include round or oval beans or peas such as navy, pinto, split peas, cow peas, garbanzo beans, lentils, soy beans and tofu. Do NOT include long green beans such as string beans, broad or winged beans, or pole beans.”)</v>
       </c>
       <c r="I81" t="str">
-        <f>VLOOKUP(F81,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>drop</v>
       </c>
     </row>
@@ -4673,11 +4674,11 @@
         <v>91</v>
       </c>
       <c r="B82" t="str">
-        <f>VLOOKUP(A82,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>AVEDRNK2</v>
       </c>
       <c r="C82" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D82" t="s">
         <v>566</v>
@@ -4686,15 +4687,15 @@
         <v>97</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F82,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>FVGREEN</v>
       </c>
       <c r="H82" t="str">
-        <f>VLOOKUP(F82,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>During the past month, how many times per day, week, or month did you eat dark green vegetables for example broccoli or dark leafy greens including romaine, chard, collard greens or spinach?</v>
       </c>
       <c r="I82" t="str">
-        <f>VLOOKUP(F82,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>drop</v>
       </c>
     </row>
@@ -4703,11 +4704,11 @@
         <v>92</v>
       </c>
       <c r="B83" t="str">
-        <f>VLOOKUP(A83,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>DRNK3GE5</v>
       </c>
       <c r="C83" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D83" t="s">
         <v>569</v>
@@ -4716,15 +4717,15 @@
         <v>98</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F83,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>FVORANG</v>
       </c>
       <c r="H83" t="str">
-        <f>VLOOKUP(F83,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>During the past month, how many times per day, week, or month did you eat orange-colored vegetables such as sweet potatoes, pumpkin, winter squash, or carrots? (Read only if needed: “Winter squash have hard, thick skins and deep yellow to orange flesh. They include acorn, buttercup, and spaghetti squash.”)</v>
       </c>
       <c r="I83" t="str">
-        <f>VLOOKUP(F83,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>drop</v>
       </c>
     </row>
@@ -4733,11 +4734,11 @@
         <v>93</v>
       </c>
       <c r="B84" t="str">
-        <f>VLOOKUP(A84,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>MAXDRNKS</v>
       </c>
       <c r="C84" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D84" t="s">
         <v>569</v>
@@ -4746,15 +4747,15 @@
         <v>99</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F84,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>VEGETAB1</v>
       </c>
       <c r="H84" t="str">
-        <f>VLOOKUP(F84,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>Not counting what you just told me about, during the past month, about how many times per day, week, or month did you eat OTHER vegetables? Examples of other vegetables include tomatoes, tomato juice or V-8 juice, corn, eggplant, peas, lettuce, cabbage, and white potatoes that are not fried such as baked or mashed potatoes.(Read only if needed: “Do not count vegetables you have already counted and do not include fried potatoes.”)</v>
       </c>
       <c r="I84" t="str">
-        <f>VLOOKUP(F84,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>drop</v>
       </c>
     </row>
@@ -4763,11 +4764,11 @@
         <v>94</v>
       </c>
       <c r="B85" t="str">
-        <f>VLOOKUP(A85,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>FRUITJU1</v>
       </c>
       <c r="C85" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D85" t="s">
         <v>569</v>
@@ -4776,15 +4777,15 @@
         <v>100</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F85,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>EXERANY2</v>
       </c>
       <c r="H85" t="str">
-        <f>VLOOKUP(F85,A:C,3,0)</f>
+        <f t="shared" si="10"/>
         <v>During the past month, other than your regular job, did you participate in any physical activities or exercises such as running, calisthenics, golf, gardening, or walking for exercise?</v>
       </c>
       <c r="I85" t="str">
-        <f>VLOOKUP(F85,A:D,4,0)</f>
+        <f t="shared" si="11"/>
         <v>Feature</v>
       </c>
     </row>
@@ -4793,11 +4794,11 @@
         <v>95</v>
       </c>
       <c r="B86" t="str">
-        <f>VLOOKUP(A86,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>FRUIT1</v>
       </c>
       <c r="C86" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D86" t="s">
         <v>569</v>
@@ -4806,7 +4807,7 @@
         <v>355</v>
       </c>
       <c r="G86" t="e">
-        <f>VLOOKUP(F86,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I86" t="s">
@@ -4818,11 +4819,11 @@
         <v>96</v>
       </c>
       <c r="B87" t="str">
-        <f>VLOOKUP(A87,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>FVBEANS</v>
       </c>
       <c r="C87" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D87" t="s">
         <v>569</v>
@@ -4831,7 +4832,7 @@
         <v>102</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F87,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>EXEROFT1</v>
       </c>
       <c r="H87">
@@ -4848,11 +4849,11 @@
         <v>97</v>
       </c>
       <c r="B88" t="str">
-        <f>VLOOKUP(A88,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>FVGREEN</v>
       </c>
       <c r="C88" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D88" t="s">
         <v>569</v>
@@ -4861,7 +4862,7 @@
         <v>103</v>
       </c>
       <c r="G88" t="str">
-        <f>VLOOKUP(F88,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>EXERHMM1</v>
       </c>
       <c r="H88">
@@ -4878,11 +4879,11 @@
         <v>98</v>
       </c>
       <c r="B89" t="str">
-        <f>VLOOKUP(A89,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>FVORANG</v>
       </c>
       <c r="C89" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D89" t="s">
         <v>569</v>
@@ -4891,7 +4892,7 @@
         <v>356</v>
       </c>
       <c r="G89" t="e">
-        <f>VLOOKUP(F89,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I89" t="s">
@@ -4903,11 +4904,11 @@
         <v>99</v>
       </c>
       <c r="B90" t="str">
-        <f>VLOOKUP(A90,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>VEGETAB1</v>
       </c>
       <c r="C90" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D90" t="s">
         <v>569</v>
@@ -4916,15 +4917,15 @@
         <v>105</v>
       </c>
       <c r="G90" t="str">
-        <f>VLOOKUP(F90,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>EXEROFT2</v>
       </c>
       <c r="H90">
-        <f>VLOOKUP(F90,A:C,3,0)</f>
+        <f t="shared" ref="H90:H99" si="12">VLOOKUP(F90,A:C,3,0)</f>
         <v>0</v>
       </c>
       <c r="I90" t="str">
-        <f>VLOOKUP(F90,A:D,4,0)</f>
+        <f t="shared" ref="I90:I99" si="13">VLOOKUP(F90,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -4933,11 +4934,11 @@
         <v>100</v>
       </c>
       <c r="B91" t="str">
-        <f>VLOOKUP(A91,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>EXERANY2</v>
       </c>
       <c r="C91" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D91" t="s">
         <v>566</v>
@@ -4946,15 +4947,15 @@
         <v>106</v>
       </c>
       <c r="G91" t="str">
-        <f>VLOOKUP(F91,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>EXERHMM2</v>
       </c>
       <c r="H91">
-        <f>VLOOKUP(F91,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I91" t="str">
-        <f>VLOOKUP(F91,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -4963,7 +4964,7 @@
         <v>101</v>
       </c>
       <c r="B92" t="e">
-        <f>VLOOKUP(A92,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="D92" t="s">
@@ -4973,15 +4974,15 @@
         <v>107</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(F92,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>STRENGTH</v>
       </c>
       <c r="H92" t="str">
-        <f>VLOOKUP(F92,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>During the past month, how many times per week or per month did you do physical activities or exercises to STRENGTHEN your muscles? [Do NOT count aerobic activities like walking, running, or bicycling. Count activities using your own body weight like yoga, sit-ups or push-ups and those using weight machines, free weights, or elastic bands.]</v>
       </c>
       <c r="I92" t="str">
-        <f>VLOOKUP(F92,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -4990,7 +4991,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="str">
-        <f>VLOOKUP(A93,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>EXEROFT1</v>
       </c>
       <c r="D93" t="s">
@@ -5000,15 +5001,15 @@
         <v>78</v>
       </c>
       <c r="G93" t="str">
-        <f>VLOOKUP(F93,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>QLACTLM2</v>
       </c>
       <c r="H93" t="str">
-        <f>VLOOKUP(F93,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>Are you limited in any way in any activities because of physical, mental, or emotional problems?</v>
       </c>
       <c r="I93" t="str">
-        <f>VLOOKUP(F93,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -5017,7 +5018,7 @@
         <v>103</v>
       </c>
       <c r="B94" t="str">
-        <f>VLOOKUP(A94,F:F,1,0)</f>
+        <f t="shared" si="8"/>
         <v>EXERHMM1</v>
       </c>
       <c r="D94" t="s">
@@ -5027,15 +5028,15 @@
         <v>79</v>
       </c>
       <c r="G94" t="str">
-        <f>VLOOKUP(F94,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>USEEQUIP</v>
       </c>
       <c r="H94" t="str">
-        <f>VLOOKUP(F94,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>Do you now have any health problem that requires you to use special equipment, such as a cane, a wheelchair, a special bed, or a special telephone? (Include occasional use or use in certain circumstances.)</v>
       </c>
       <c r="I94" t="str">
-        <f>VLOOKUP(F94,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -5044,7 +5045,7 @@
         <v>104</v>
       </c>
       <c r="B95" t="e">
-        <f>VLOOKUP(A95,F:F,1,0)</f>
+        <f t="shared" ref="B95:B126" si="14">VLOOKUP(A95,F:F,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D95" t="s">
@@ -5054,15 +5055,15 @@
         <v>108</v>
       </c>
       <c r="G95" t="str">
-        <f>VLOOKUP(F95,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>LMTJOIN3</v>
       </c>
       <c r="H95" t="str">
-        <f>VLOOKUP(F95,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>Are you now limited in any way in any of your usual activities because of arthritis or joint symptoms?</v>
       </c>
       <c r="I95" t="str">
-        <f>VLOOKUP(F95,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -5071,7 +5072,7 @@
         <v>105</v>
       </c>
       <c r="B96" t="str">
-        <f>VLOOKUP(A96,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>EXEROFT2</v>
       </c>
       <c r="D96" t="s">
@@ -5081,15 +5082,15 @@
         <v>109</v>
       </c>
       <c r="G96" t="str">
-        <f>VLOOKUP(F96,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>ARTHDIS2</v>
       </c>
       <c r="H96">
-        <f>VLOOKUP(F96,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I96" t="str">
-        <f>VLOOKUP(F96,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -5098,7 +5099,7 @@
         <v>106</v>
       </c>
       <c r="B97" t="str">
-        <f>VLOOKUP(A97,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>EXERHMM2</v>
       </c>
       <c r="D97" t="s">
@@ -5108,15 +5109,15 @@
         <v>110</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(F97,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>ARTHSOCL</v>
       </c>
       <c r="H97">
-        <f>VLOOKUP(F97,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I97" t="str">
-        <f>VLOOKUP(F97,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -5125,11 +5126,11 @@
         <v>107</v>
       </c>
       <c r="B98" t="str">
-        <f>VLOOKUP(A98,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>STRENGTH</v>
       </c>
       <c r="C98" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D98" t="s">
         <v>569</v>
@@ -5138,15 +5139,15 @@
         <v>111</v>
       </c>
       <c r="G98" t="str">
-        <f>VLOOKUP(F98,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>JOINPAIN</v>
       </c>
       <c r="H98">
-        <f>VLOOKUP(F98,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I98" t="str">
-        <f>VLOOKUP(F98,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -5155,11 +5156,11 @@
         <v>108</v>
       </c>
       <c r="B99" t="str">
-        <f>VLOOKUP(A99,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>LMTJOIN3</v>
       </c>
       <c r="C99" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D99" t="s">
         <v>569</v>
@@ -5168,15 +5169,15 @@
         <v>112</v>
       </c>
       <c r="G99" t="str">
-        <f>VLOOKUP(F99,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>SEATBELT</v>
       </c>
       <c r="H99" t="str">
-        <f>VLOOKUP(F99,A:C,3,0)</f>
+        <f t="shared" si="12"/>
         <v>How often do you use seat belts when you drive or ride in a car? Would you say—</v>
       </c>
       <c r="I99" t="str">
-        <f>VLOOKUP(F99,A:D,4,0)</f>
+        <f t="shared" si="13"/>
         <v>drop</v>
       </c>
     </row>
@@ -5185,7 +5186,7 @@
         <v>109</v>
       </c>
       <c r="B100" t="str">
-        <f>VLOOKUP(A100,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>ARTHDIS2</v>
       </c>
       <c r="D100" t="s">
@@ -5195,7 +5196,7 @@
         <v>357</v>
       </c>
       <c r="G100" t="e">
-        <f>VLOOKUP(F100,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I100" t="s">
@@ -5207,7 +5208,7 @@
         <v>110</v>
       </c>
       <c r="B101" t="str">
-        <f>VLOOKUP(A101,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>ARTHSOCL</v>
       </c>
       <c r="D101" t="s">
@@ -5217,15 +5218,15 @@
         <v>114</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(F101,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>FLSHTMY2</v>
       </c>
       <c r="H101">
-        <f>VLOOKUP(F101,A:C,3,0)</f>
+        <f t="shared" ref="H101:H109" si="15">VLOOKUP(F101,A:C,3,0)</f>
         <v>0</v>
       </c>
       <c r="I101" t="str">
-        <f>VLOOKUP(F101,A:D,4,0)</f>
+        <f t="shared" ref="I101:I109" si="16">VLOOKUP(F101,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -5234,7 +5235,7 @@
         <v>111</v>
       </c>
       <c r="B102" t="str">
-        <f>VLOOKUP(A102,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>JOINPAIN</v>
       </c>
       <c r="D102" t="s">
@@ -5244,15 +5245,15 @@
         <v>115</v>
       </c>
       <c r="G102" t="str">
-        <f>VLOOKUP(F102,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>IMFVPLAC</v>
       </c>
       <c r="H102">
-        <f>VLOOKUP(F102,A:C,3,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I102" t="str">
-        <f>VLOOKUP(F102,A:D,4,0)</f>
+        <f t="shared" si="16"/>
         <v>drop</v>
       </c>
     </row>
@@ -5261,11 +5262,11 @@
         <v>112</v>
       </c>
       <c r="B103" t="str">
-        <f>VLOOKUP(A103,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>SEATBELT</v>
       </c>
       <c r="C103" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D103" t="s">
         <v>569</v>
@@ -5274,15 +5275,15 @@
         <v>116</v>
       </c>
       <c r="G103" t="str">
-        <f>VLOOKUP(F103,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>PNEUVAC3</v>
       </c>
       <c r="H103">
-        <f>VLOOKUP(F103,A:C,3,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I103" t="str">
-        <f>VLOOKUP(F103,A:D,4,0)</f>
+        <f t="shared" si="16"/>
         <v>drop</v>
       </c>
     </row>
@@ -5291,7 +5292,7 @@
         <v>113</v>
       </c>
       <c r="B104" t="e">
-        <f>VLOOKUP(A104,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D104" t="s">
@@ -5301,15 +5302,15 @@
         <v>90</v>
       </c>
       <c r="G104" t="str">
-        <f>VLOOKUP(F104,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>ALCDAY5</v>
       </c>
       <c r="H104" t="str">
-        <f>VLOOKUP(F104,A:C,3,0)</f>
+        <f t="shared" si="15"/>
         <v>During the past 30 days, how many days per week or per month did you have at least one drink of any alcoholic beverage such as beer, wine, a malt beverage or liquor?</v>
       </c>
       <c r="I104" t="str">
-        <f>VLOOKUP(F104,A:D,4,0)</f>
+        <f t="shared" si="16"/>
         <v>drop</v>
       </c>
     </row>
@@ -5318,7 +5319,7 @@
         <v>114</v>
       </c>
       <c r="B105" t="str">
-        <f>VLOOKUP(A105,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>FLSHTMY2</v>
       </c>
       <c r="D105" t="s">
@@ -5328,15 +5329,15 @@
         <v>91</v>
       </c>
       <c r="G105" t="str">
-        <f>VLOOKUP(F105,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>AVEDRNK2</v>
       </c>
       <c r="H105" t="str">
-        <f>VLOOKUP(F105,A:C,3,0)</f>
+        <f t="shared" si="15"/>
         <v>One drink is equivalent to a 12-ounce beer, a 5-ounce glass of wine, or a drink with one shot of liquor. During the past 30 days, on the days when you drank, about how many drinks did you drink on the average? (A 40 ounce beer would count as 3 drinks, or a cocktail drink with 2 shots would count as 2 drinks.)</v>
       </c>
       <c r="I105" t="str">
-        <f>VLOOKUP(F105,A:D,4,0)</f>
+        <f t="shared" si="16"/>
         <v>Feature</v>
       </c>
     </row>
@@ -5345,7 +5346,7 @@
         <v>115</v>
       </c>
       <c r="B106" t="str">
-        <f>VLOOKUP(A106,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>IMFVPLAC</v>
       </c>
       <c r="D106" t="s">
@@ -5355,15 +5356,15 @@
         <v>92</v>
       </c>
       <c r="G106" t="str">
-        <f>VLOOKUP(F106,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>DRNK3GE5</v>
       </c>
       <c r="H106" t="str">
-        <f>VLOOKUP(F106,A:C,3,0)</f>
+        <f t="shared" si="15"/>
         <v>Considering all types of alcoholic beverages, how many times during the past 30 days did you have 5 or more drinks for men or 4 or more drinks for women on an occasion?</v>
       </c>
       <c r="I106" t="str">
-        <f>VLOOKUP(F106,A:D,4,0)</f>
+        <f t="shared" si="16"/>
         <v>drop</v>
       </c>
     </row>
@@ -5372,7 +5373,7 @@
         <v>116</v>
       </c>
       <c r="B107" t="str">
-        <f>VLOOKUP(A107,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>PNEUVAC3</v>
       </c>
       <c r="D107" t="s">
@@ -5382,15 +5383,15 @@
         <v>93</v>
       </c>
       <c r="G107" t="str">
-        <f>VLOOKUP(F107,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>MAXDRNKS</v>
       </c>
       <c r="H107" t="str">
-        <f>VLOOKUP(F107,A:C,3,0)</f>
+        <f t="shared" si="15"/>
         <v>During the past 30 days, what is the largest number of drinks you had on any occasion?</v>
       </c>
       <c r="I107" t="str">
-        <f>VLOOKUP(F107,A:D,4,0)</f>
+        <f t="shared" si="16"/>
         <v>drop</v>
       </c>
     </row>
@@ -5399,7 +5400,7 @@
         <v>117</v>
       </c>
       <c r="B108" t="str">
-        <f>VLOOKUP(A108,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>HIVTST6</v>
       </c>
       <c r="D108" t="s">
@@ -5409,15 +5410,15 @@
         <v>117</v>
       </c>
       <c r="G108" t="str">
-        <f>VLOOKUP(F108,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>HIVTST6</v>
       </c>
       <c r="H108">
-        <f>VLOOKUP(F108,A:C,3,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I108" t="str">
-        <f>VLOOKUP(F108,A:D,4,0)</f>
+        <f t="shared" si="16"/>
         <v>drop</v>
       </c>
     </row>
@@ -5426,7 +5427,7 @@
         <v>118</v>
       </c>
       <c r="B109" t="str">
-        <f>VLOOKUP(A109,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>HIVTSTD3</v>
       </c>
       <c r="D109" t="s">
@@ -5436,15 +5437,15 @@
         <v>118</v>
       </c>
       <c r="G109" t="str">
-        <f>VLOOKUP(F109,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>HIVTSTD3</v>
       </c>
       <c r="H109">
-        <f>VLOOKUP(F109,A:C,3,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I109" t="str">
-        <f>VLOOKUP(F109,A:D,4,0)</f>
+        <f t="shared" si="16"/>
         <v>drop</v>
       </c>
     </row>
@@ -5453,7 +5454,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="e">
-        <f>VLOOKUP(A110,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D110" t="s">
@@ -5463,7 +5464,7 @@
         <v>358</v>
       </c>
       <c r="G110" t="e">
-        <f>VLOOKUP(F110,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I110" t="s">
@@ -5475,7 +5476,7 @@
         <v>120</v>
       </c>
       <c r="B111" t="str">
-        <f>VLOOKUP(A111,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>PDIABTST</v>
       </c>
       <c r="D111" t="s">
@@ -5485,15 +5486,15 @@
         <v>120</v>
       </c>
       <c r="G111" t="str">
-        <f>VLOOKUP(F111,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>PDIABTST</v>
       </c>
       <c r="H111">
-        <f>VLOOKUP(F111,A:C,3,0)</f>
+        <f t="shared" ref="H111:H126" si="17">VLOOKUP(F111,A:C,3,0)</f>
         <v>0</v>
       </c>
       <c r="I111" t="str">
-        <f>VLOOKUP(F111,A:D,4,0)</f>
+        <f t="shared" ref="I111:I126" si="18">VLOOKUP(F111,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -5502,7 +5503,7 @@
         <v>121</v>
       </c>
       <c r="B112" t="str">
-        <f>VLOOKUP(A112,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>PREDIAB1</v>
       </c>
       <c r="D112" t="s">
@@ -5512,15 +5513,15 @@
         <v>121</v>
       </c>
       <c r="G112" t="str">
-        <f>VLOOKUP(F112,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>PREDIAB1</v>
       </c>
       <c r="H112">
-        <f>VLOOKUP(F112,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I112" t="str">
-        <f>VLOOKUP(F112,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5529,7 +5530,7 @@
         <v>122</v>
       </c>
       <c r="B113" t="str">
-        <f>VLOOKUP(A113,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>INSULIN</v>
       </c>
       <c r="D113" t="s">
@@ -5539,15 +5540,15 @@
         <v>62</v>
       </c>
       <c r="G113" t="str">
-        <f>VLOOKUP(F113,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>DIABAGE2</v>
       </c>
       <c r="H113" t="str">
-        <f>VLOOKUP(F113,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>How old were you when you were told you have diabetes?</v>
       </c>
       <c r="I113" t="str">
-        <f>VLOOKUP(F113,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
         <v>123</v>
       </c>
       <c r="B114" t="str">
-        <f>VLOOKUP(A114,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>BLDSUGAR</v>
       </c>
       <c r="D114" t="s">
@@ -5566,15 +5567,15 @@
         <v>122</v>
       </c>
       <c r="G114" t="str">
-        <f>VLOOKUP(F114,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>INSULIN</v>
       </c>
       <c r="H114">
-        <f>VLOOKUP(F114,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I114" t="str">
-        <f>VLOOKUP(F114,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5583,7 +5584,7 @@
         <v>124</v>
       </c>
       <c r="B115" t="str">
-        <f>VLOOKUP(A115,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>FEETCHK2</v>
       </c>
       <c r="D115" t="s">
@@ -5593,15 +5594,15 @@
         <v>123</v>
       </c>
       <c r="G115" t="str">
-        <f>VLOOKUP(F115,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>BLDSUGAR</v>
       </c>
       <c r="H115">
-        <f>VLOOKUP(F115,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I115" t="str">
-        <f>VLOOKUP(F115,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5610,7 +5611,7 @@
         <v>125</v>
       </c>
       <c r="B116" t="str">
-        <f>VLOOKUP(A116,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>DOCTDIAB</v>
       </c>
       <c r="D116" t="s">
@@ -5620,15 +5621,15 @@
         <v>124</v>
       </c>
       <c r="G116" t="str">
-        <f>VLOOKUP(F116,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>FEETCHK2</v>
       </c>
       <c r="H116">
-        <f>VLOOKUP(F116,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I116" t="str">
-        <f>VLOOKUP(F116,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5637,7 +5638,7 @@
         <v>126</v>
       </c>
       <c r="B117" t="str">
-        <f>VLOOKUP(A117,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>CHKHEMO3</v>
       </c>
       <c r="D117" t="s">
@@ -5647,15 +5648,15 @@
         <v>125</v>
       </c>
       <c r="G117" t="str">
-        <f>VLOOKUP(F117,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>DOCTDIAB</v>
       </c>
       <c r="H117">
-        <f>VLOOKUP(F117,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I117" t="str">
-        <f>VLOOKUP(F117,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5664,7 +5665,7 @@
         <v>127</v>
       </c>
       <c r="B118" t="str">
-        <f>VLOOKUP(A118,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>FEETCHK</v>
       </c>
       <c r="D118" t="s">
@@ -5674,15 +5675,15 @@
         <v>126</v>
       </c>
       <c r="G118" t="str">
-        <f>VLOOKUP(F118,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>CHKHEMO3</v>
       </c>
       <c r="H118">
-        <f>VLOOKUP(F118,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I118" t="str">
-        <f>VLOOKUP(F118,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5691,7 +5692,7 @@
         <v>128</v>
       </c>
       <c r="B119" t="str">
-        <f>VLOOKUP(A119,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>EYEEXAM</v>
       </c>
       <c r="D119" t="s">
@@ -5701,15 +5702,15 @@
         <v>127</v>
       </c>
       <c r="G119" t="str">
-        <f>VLOOKUP(F119,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>FEETCHK</v>
       </c>
       <c r="H119">
-        <f>VLOOKUP(F119,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I119" t="str">
-        <f>VLOOKUP(F119,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5718,7 +5719,7 @@
         <v>129</v>
       </c>
       <c r="B120" t="str">
-        <f>VLOOKUP(A120,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>DIABEYE</v>
       </c>
       <c r="D120" t="s">
@@ -5728,15 +5729,15 @@
         <v>128</v>
       </c>
       <c r="G120" t="str">
-        <f>VLOOKUP(F120,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>EYEEXAM</v>
       </c>
       <c r="H120">
-        <f>VLOOKUP(F120,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I120" t="str">
-        <f>VLOOKUP(F120,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5745,7 +5746,7 @@
         <v>130</v>
       </c>
       <c r="B121" t="str">
-        <f>VLOOKUP(A121,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>DIABEDU</v>
       </c>
       <c r="D121" t="s">
@@ -5755,15 +5756,15 @@
         <v>129</v>
       </c>
       <c r="G121" t="str">
-        <f>VLOOKUP(F121,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>DIABEYE</v>
       </c>
       <c r="H121">
-        <f>VLOOKUP(F121,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I121" t="str">
-        <f>VLOOKUP(F121,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5772,11 +5773,11 @@
         <v>131</v>
       </c>
       <c r="B122" t="str">
-        <f>VLOOKUP(A122,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>PAINACT2</v>
       </c>
       <c r="C122" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D122" t="s">
         <v>566</v>
@@ -5785,15 +5786,15 @@
         <v>130</v>
       </c>
       <c r="G122" t="str">
-        <f>VLOOKUP(F122,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>DIABEDU</v>
       </c>
       <c r="H122">
-        <f>VLOOKUP(F122,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I122" t="str">
-        <f>VLOOKUP(F122,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>drop</v>
       </c>
     </row>
@@ -5802,11 +5803,11 @@
         <v>132</v>
       </c>
       <c r="B123" t="str">
-        <f>VLOOKUP(A123,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>QLMENTL2</v>
       </c>
       <c r="C123" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D123" t="s">
         <v>566</v>
@@ -5815,15 +5816,15 @@
         <v>131</v>
       </c>
       <c r="G123" t="str">
-        <f>VLOOKUP(F123,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>PAINACT2</v>
       </c>
       <c r="H123" t="str">
-        <f>VLOOKUP(F123,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>During the past 30 days, for about how many days did pain make it hard for you to do your usual activities, such as self-care, work, or recreation?</v>
       </c>
       <c r="I123" t="str">
-        <f>VLOOKUP(F123,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>Feature</v>
       </c>
     </row>
@@ -5832,11 +5833,11 @@
         <v>133</v>
       </c>
       <c r="B124" t="str">
-        <f>VLOOKUP(A124,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>QLSTRES2</v>
       </c>
       <c r="C124" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D124" t="s">
         <v>566</v>
@@ -5845,15 +5846,15 @@
         <v>132</v>
       </c>
       <c r="G124" t="str">
-        <f>VLOOKUP(F124,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>QLMENTL2</v>
       </c>
       <c r="H124" t="str">
-        <f>VLOOKUP(F124,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>During the past 30 days, for about how may days have you felt sad, blue, or depressed?</v>
       </c>
       <c r="I124" t="str">
-        <f>VLOOKUP(F124,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>Feature</v>
       </c>
     </row>
@@ -5862,11 +5863,11 @@
         <v>134</v>
       </c>
       <c r="B125" t="str">
-        <f>VLOOKUP(A125,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>QLHLTH2</v>
       </c>
       <c r="C125" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D125" t="s">
         <v>566</v>
@@ -5875,15 +5876,15 @@
         <v>133</v>
       </c>
       <c r="G125" t="str">
-        <f>VLOOKUP(F125,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>QLSTRES2</v>
       </c>
       <c r="H125" t="str">
-        <f>VLOOKUP(F125,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>During the past 30 days, for about how many days have you felt worried, tense, or anxious?</v>
       </c>
       <c r="I125" t="str">
-        <f>VLOOKUP(F125,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>Feature</v>
       </c>
     </row>
@@ -5892,7 +5893,7 @@
         <v>135</v>
       </c>
       <c r="B126" t="e">
-        <f>VLOOKUP(A126,F:F,1,0)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D126" t="s">
@@ -5902,15 +5903,15 @@
         <v>134</v>
       </c>
       <c r="G126" t="str">
-        <f>VLOOKUP(F126,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>QLHLTH2</v>
       </c>
       <c r="H126" t="str">
-        <f>VLOOKUP(F126,A:C,3,0)</f>
+        <f t="shared" si="17"/>
         <v>During the past 30 days, for about how many days have you felt very healthy and full of energy?</v>
       </c>
       <c r="I126" t="str">
-        <f>VLOOKUP(F126,A:D,4,0)</f>
+        <f t="shared" si="18"/>
         <v>Feature</v>
       </c>
     </row>
@@ -5919,7 +5920,7 @@
         <v>136</v>
       </c>
       <c r="B127" t="e">
-        <f>VLOOKUP(A127,F:F,1,0)</f>
+        <f t="shared" ref="B127:B158" si="19">VLOOKUP(A127,F:F,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D127" t="s">
@@ -5929,7 +5930,7 @@
         <v>359</v>
       </c>
       <c r="G127" t="e">
-        <f>VLOOKUP(F127,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I127" t="s">
@@ -5941,7 +5942,7 @@
         <v>137</v>
       </c>
       <c r="B128" t="e">
-        <f>VLOOKUP(A128,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D128" t="s">
@@ -5951,7 +5952,7 @@
         <v>360</v>
       </c>
       <c r="G128" t="e">
-        <f>VLOOKUP(F128,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I128" t="s">
@@ -5963,7 +5964,7 @@
         <v>138</v>
       </c>
       <c r="B129" t="e">
-        <f>VLOOKUP(A129,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D129" t="s">
@@ -5973,7 +5974,7 @@
         <v>361</v>
       </c>
       <c r="G129" t="e">
-        <f>VLOOKUP(F129,A:A,1,0)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I129" t="s">
@@ -5985,7 +5986,7 @@
         <v>139</v>
       </c>
       <c r="B130" t="e">
-        <f>VLOOKUP(A130,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D130" t="s">
@@ -5995,7 +5996,7 @@
         <v>362</v>
       </c>
       <c r="G130" t="e">
-        <f>VLOOKUP(F130,A:A,1,0)</f>
+        <f t="shared" ref="G130:G193" si="20">VLOOKUP(F130,A:A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I130" t="s">
@@ -6007,7 +6008,7 @@
         <v>140</v>
       </c>
       <c r="B131" t="e">
-        <f>VLOOKUP(A131,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D131" t="s">
@@ -6017,7 +6018,7 @@
         <v>363</v>
       </c>
       <c r="G131" t="e">
-        <f>VLOOKUP(F131,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I131" t="s">
@@ -6029,7 +6030,7 @@
         <v>141</v>
       </c>
       <c r="B132" t="e">
-        <f>VLOOKUP(A132,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D132" t="s">
@@ -6039,7 +6040,7 @@
         <v>364</v>
       </c>
       <c r="G132" t="e">
-        <f>VLOOKUP(F132,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I132" t="s">
@@ -6051,7 +6052,7 @@
         <v>142</v>
       </c>
       <c r="B133" t="e">
-        <f>VLOOKUP(A133,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D133" t="s">
@@ -6061,7 +6062,7 @@
         <v>365</v>
       </c>
       <c r="G133" t="e">
-        <f>VLOOKUP(F133,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I133" t="s">
@@ -6073,7 +6074,7 @@
         <v>143</v>
       </c>
       <c r="B134" t="e">
-        <f>VLOOKUP(A134,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D134" t="s">
@@ -6083,7 +6084,7 @@
         <v>366</v>
       </c>
       <c r="G134" t="e">
-        <f>VLOOKUP(F134,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I134" t="s">
@@ -6095,7 +6096,7 @@
         <v>144</v>
       </c>
       <c r="B135" t="e">
-        <f>VLOOKUP(A135,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D135" t="s">
@@ -6105,7 +6106,7 @@
         <v>367</v>
       </c>
       <c r="G135" t="e">
-        <f>VLOOKUP(F135,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I135" t="s">
@@ -6117,7 +6118,7 @@
         <v>145</v>
       </c>
       <c r="B136" t="str">
-        <f>VLOOKUP(A136,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>VIREDIF3</v>
       </c>
       <c r="D136" t="s">
@@ -6127,7 +6128,7 @@
         <v>368</v>
       </c>
       <c r="G136" t="e">
-        <f>VLOOKUP(F136,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I136" t="s">
@@ -6139,7 +6140,7 @@
         <v>146</v>
       </c>
       <c r="B137" t="e">
-        <f>VLOOKUP(A137,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D137" t="s">
@@ -6149,7 +6150,7 @@
         <v>369</v>
       </c>
       <c r="G137" t="e">
-        <f>VLOOKUP(F137,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I137" t="s">
@@ -6161,7 +6162,7 @@
         <v>147</v>
       </c>
       <c r="B138" t="e">
-        <f>VLOOKUP(A138,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D138" t="s">
@@ -6171,7 +6172,7 @@
         <v>145</v>
       </c>
       <c r="G138" t="str">
-        <f>VLOOKUP(F138,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>VIREDIF3</v>
       </c>
       <c r="H138">
@@ -6188,7 +6189,7 @@
         <v>148</v>
       </c>
       <c r="B139" t="e">
-        <f>VLOOKUP(A139,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D139" t="s">
@@ -6198,7 +6199,7 @@
         <v>370</v>
       </c>
       <c r="G139" t="e">
-        <f>VLOOKUP(F139,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I139" t="s">
@@ -6210,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="B140" t="e">
-        <f>VLOOKUP(A140,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D140" t="s">
@@ -6220,7 +6221,7 @@
         <v>371</v>
       </c>
       <c r="G140" t="e">
-        <f>VLOOKUP(F140,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I140" t="s">
@@ -6232,7 +6233,7 @@
         <v>150</v>
       </c>
       <c r="B141" t="e">
-        <f>VLOOKUP(A141,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D141" t="s">
@@ -6242,7 +6243,7 @@
         <v>372</v>
       </c>
       <c r="G141" t="e">
-        <f>VLOOKUP(F141,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I141" t="s">
@@ -6254,7 +6255,7 @@
         <v>151</v>
       </c>
       <c r="B142" t="e">
-        <f>VLOOKUP(A142,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D142" t="s">
@@ -6264,7 +6265,7 @@
         <v>373</v>
       </c>
       <c r="G142" t="e">
-        <f>VLOOKUP(F142,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I142" t="s">
@@ -6276,7 +6277,7 @@
         <v>152</v>
       </c>
       <c r="B143" t="e">
-        <f>VLOOKUP(A143,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D143" t="s">
@@ -6286,7 +6287,7 @@
         <v>374</v>
       </c>
       <c r="G143" t="e">
-        <f>VLOOKUP(F143,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I143" t="s">
@@ -6298,7 +6299,7 @@
         <v>153</v>
       </c>
       <c r="B144" t="str">
-        <f>VLOOKUP(A144,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>CIMEMLOS</v>
       </c>
       <c r="D144" t="s">
@@ -6308,7 +6309,7 @@
         <v>375</v>
       </c>
       <c r="G144" t="e">
-        <f>VLOOKUP(F144,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I144" t="s">
@@ -6320,7 +6321,7 @@
         <v>154</v>
       </c>
       <c r="B145" t="e">
-        <f>VLOOKUP(A145,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D145" t="s">
@@ -6330,7 +6331,7 @@
         <v>376</v>
       </c>
       <c r="G145" t="e">
-        <f>VLOOKUP(F145,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I145" t="s">
@@ -6342,7 +6343,7 @@
         <v>155</v>
       </c>
       <c r="B146" t="e">
-        <f>VLOOKUP(A146,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D146" t="s">
@@ -6352,7 +6353,7 @@
         <v>377</v>
       </c>
       <c r="G146" t="e">
-        <f>VLOOKUP(F146,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I146" t="s">
@@ -6364,7 +6365,7 @@
         <v>156</v>
       </c>
       <c r="B147" t="e">
-        <f>VLOOKUP(A147,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D147" t="s">
@@ -6374,7 +6375,7 @@
         <v>378</v>
       </c>
       <c r="G147" t="e">
-        <f>VLOOKUP(F147,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I147" t="s">
@@ -6386,7 +6387,7 @@
         <v>157</v>
       </c>
       <c r="B148" t="e">
-        <f>VLOOKUP(A148,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D148" t="s">
@@ -6396,7 +6397,7 @@
         <v>379</v>
       </c>
       <c r="G148" t="e">
-        <f>VLOOKUP(F148,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I148" t="s">
@@ -6408,7 +6409,7 @@
         <v>158</v>
       </c>
       <c r="B149" t="e">
-        <f>VLOOKUP(A149,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D149" t="s">
@@ -6418,7 +6419,7 @@
         <v>380</v>
       </c>
       <c r="G149" t="e">
-        <f>VLOOKUP(F149,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I149" t="s">
@@ -6430,7 +6431,7 @@
         <v>159</v>
       </c>
       <c r="B150" t="e">
-        <f>VLOOKUP(A150,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D150" t="s">
@@ -6440,7 +6441,7 @@
         <v>381</v>
       </c>
       <c r="G150" t="e">
-        <f>VLOOKUP(F150,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I150" t="s">
@@ -6452,7 +6453,7 @@
         <v>160</v>
       </c>
       <c r="B151" t="e">
-        <f>VLOOKUP(A151,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D151" t="s">
@@ -6462,7 +6463,7 @@
         <v>382</v>
       </c>
       <c r="G151" t="e">
-        <f>VLOOKUP(F151,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I151" t="s">
@@ -6474,7 +6475,7 @@
         <v>161</v>
       </c>
       <c r="B152" t="e">
-        <f>VLOOKUP(A152,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="D152" t="s">
@@ -6484,7 +6485,7 @@
         <v>383</v>
       </c>
       <c r="G152" t="e">
-        <f>VLOOKUP(F152,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I152" t="s">
@@ -6496,7 +6497,7 @@
         <v>162</v>
       </c>
       <c r="B153" t="str">
-        <f>VLOOKUP(A153,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>ASTHMAGE</v>
       </c>
       <c r="D153" t="s">
@@ -6506,7 +6507,7 @@
         <v>384</v>
       </c>
       <c r="G153" t="e">
-        <f>VLOOKUP(F153,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I153" t="s">
@@ -6518,7 +6519,7 @@
         <v>163</v>
       </c>
       <c r="B154" t="str">
-        <f>VLOOKUP(A154,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>ASATTACK</v>
       </c>
       <c r="D154" t="s">
@@ -6528,7 +6529,7 @@
         <v>172</v>
       </c>
       <c r="G154" t="str">
-        <f>VLOOKUP(F154,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>HAREHAB1</v>
       </c>
       <c r="H154">
@@ -6545,7 +6546,7 @@
         <v>164</v>
       </c>
       <c r="B155" t="str">
-        <f>VLOOKUP(A155,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>ASERVIST</v>
       </c>
       <c r="D155" t="s">
@@ -6555,7 +6556,7 @@
         <v>173</v>
       </c>
       <c r="G155" t="str">
-        <f>VLOOKUP(F155,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>STREHAB1</v>
       </c>
       <c r="H155">
@@ -6572,7 +6573,7 @@
         <v>165</v>
       </c>
       <c r="B156" t="str">
-        <f>VLOOKUP(A156,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>ASDRVIST</v>
       </c>
       <c r="D156" t="s">
@@ -6582,7 +6583,7 @@
         <v>174</v>
       </c>
       <c r="G156" t="str">
-        <f>VLOOKUP(F156,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>CVDASPRN</v>
       </c>
       <c r="H156" t="str">
@@ -6599,7 +6600,7 @@
         <v>166</v>
       </c>
       <c r="B157" t="str">
-        <f>VLOOKUP(A157,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>ASRCHKUP</v>
       </c>
       <c r="D157" t="s">
@@ -6609,7 +6610,7 @@
         <v>175</v>
       </c>
       <c r="G157" t="str">
-        <f>VLOOKUP(F157,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>ASPUNSAF</v>
       </c>
       <c r="H157">
@@ -6626,7 +6627,7 @@
         <v>167</v>
       </c>
       <c r="B158" t="str">
-        <f>VLOOKUP(A158,F:F,1,0)</f>
+        <f t="shared" si="19"/>
         <v>ASACTLIM</v>
       </c>
       <c r="D158" t="s">
@@ -6636,7 +6637,7 @@
         <v>385</v>
       </c>
       <c r="G158" t="e">
-        <f>VLOOKUP(F158,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I158" t="s">
@@ -6648,7 +6649,7 @@
         <v>168</v>
       </c>
       <c r="B159" t="str">
-        <f>VLOOKUP(A159,F:F,1,0)</f>
+        <f t="shared" ref="B159:B190" si="21">VLOOKUP(A159,F:F,1,0)</f>
         <v>ASYMPTOM</v>
       </c>
       <c r="D159" t="s">
@@ -6658,7 +6659,7 @@
         <v>386</v>
       </c>
       <c r="G159" t="e">
-        <f>VLOOKUP(F159,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I159" t="s">
@@ -6670,7 +6671,7 @@
         <v>169</v>
       </c>
       <c r="B160" t="str">
-        <f>VLOOKUP(A160,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>ASNOSLEP</v>
       </c>
       <c r="D160" t="s">
@@ -6680,7 +6681,7 @@
         <v>387</v>
       </c>
       <c r="G160" t="e">
-        <f>VLOOKUP(F160,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I160" t="s">
@@ -6692,7 +6693,7 @@
         <v>170</v>
       </c>
       <c r="B161" t="str">
-        <f>VLOOKUP(A161,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>ASTHMED3</v>
       </c>
       <c r="D161" t="s">
@@ -6702,7 +6703,7 @@
         <v>388</v>
       </c>
       <c r="G161" t="e">
-        <f>VLOOKUP(F161,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I161" t="s">
@@ -6714,7 +6715,7 @@
         <v>171</v>
       </c>
       <c r="B162" t="str">
-        <f>VLOOKUP(A162,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>ASINHALR</v>
       </c>
       <c r="D162" t="s">
@@ -6724,7 +6725,7 @@
         <v>389</v>
       </c>
       <c r="G162" t="e">
-        <f>VLOOKUP(F162,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I162" t="s">
@@ -6736,7 +6737,7 @@
         <v>172</v>
       </c>
       <c r="B163" t="str">
-        <f>VLOOKUP(A163,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HAREHAB1</v>
       </c>
       <c r="D163" t="s">
@@ -6746,7 +6747,7 @@
         <v>390</v>
       </c>
       <c r="G163" t="e">
-        <f>VLOOKUP(F163,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I163" t="s">
@@ -6758,7 +6759,7 @@
         <v>173</v>
       </c>
       <c r="B164" t="str">
-        <f>VLOOKUP(A164,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>STREHAB1</v>
       </c>
       <c r="D164" t="s">
@@ -6768,7 +6769,7 @@
         <v>391</v>
       </c>
       <c r="G164" t="e">
-        <f>VLOOKUP(F164,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I164" t="s">
@@ -6780,11 +6781,11 @@
         <v>174</v>
       </c>
       <c r="B165" t="str">
-        <f>VLOOKUP(A165,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>CVDASPRN</v>
       </c>
       <c r="C165" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D165" t="s">
         <v>569</v>
@@ -6793,7 +6794,7 @@
         <v>392</v>
       </c>
       <c r="G165" t="e">
-        <f>VLOOKUP(F165,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I165" t="s">
@@ -6805,7 +6806,7 @@
         <v>175</v>
       </c>
       <c r="B166" t="str">
-        <f>VLOOKUP(A166,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>ASPUNSAF</v>
       </c>
       <c r="D166" t="s">
@@ -6815,7 +6816,7 @@
         <v>393</v>
       </c>
       <c r="G166" t="e">
-        <f>VLOOKUP(F166,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I166" t="s">
@@ -6827,7 +6828,7 @@
         <v>176</v>
       </c>
       <c r="B167" t="e">
-        <f>VLOOKUP(A167,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="D167" t="s">
@@ -6837,7 +6838,7 @@
         <v>394</v>
       </c>
       <c r="G167" t="e">
-        <f>VLOOKUP(F167,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I167" t="s">
@@ -6849,7 +6850,7 @@
         <v>177</v>
       </c>
       <c r="B168" t="e">
-        <f>VLOOKUP(A168,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="D168" t="s">
@@ -6859,7 +6860,7 @@
         <v>395</v>
       </c>
       <c r="G168" t="e">
-        <f>VLOOKUP(F168,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I168" t="s">
@@ -6871,7 +6872,7 @@
         <v>178</v>
       </c>
       <c r="B169" t="e">
-        <f>VLOOKUP(A169,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="D169" t="s">
@@ -6881,7 +6882,7 @@
         <v>396</v>
       </c>
       <c r="G169" t="e">
-        <f>VLOOKUP(F169,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I169" t="s">
@@ -6893,7 +6894,7 @@
         <v>179</v>
       </c>
       <c r="B170" t="str">
-        <f>VLOOKUP(A170,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>ARTTODAY</v>
       </c>
       <c r="D170" t="s">
@@ -6903,7 +6904,7 @@
         <v>397</v>
       </c>
       <c r="G170" t="e">
-        <f>VLOOKUP(F170,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I170" t="s">
@@ -6915,7 +6916,7 @@
         <v>180</v>
       </c>
       <c r="B171" t="str">
-        <f>VLOOKUP(A171,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>ARTHWGT</v>
       </c>
       <c r="D171" t="s">
@@ -6925,7 +6926,7 @@
         <v>398</v>
       </c>
       <c r="G171" t="e">
-        <f>VLOOKUP(F171,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I171" t="s">
@@ -6937,7 +6938,7 @@
         <v>181</v>
       </c>
       <c r="B172" t="str">
-        <f>VLOOKUP(A172,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>ARTHEXER</v>
       </c>
       <c r="D172" t="s">
@@ -6947,7 +6948,7 @@
         <v>399</v>
       </c>
       <c r="G172" t="e">
-        <f>VLOOKUP(F172,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I172" t="s">
@@ -6959,7 +6960,7 @@
         <v>182</v>
       </c>
       <c r="B173" t="str">
-        <f>VLOOKUP(A173,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>ARTHEDU</v>
       </c>
       <c r="D173" t="s">
@@ -6969,7 +6970,7 @@
         <v>400</v>
       </c>
       <c r="G173" t="e">
-        <f>VLOOKUP(F173,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I173" t="s">
@@ -6981,7 +6982,7 @@
         <v>183</v>
       </c>
       <c r="B174" t="e">
-        <f>VLOOKUP(A174,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="D174" t="s">
@@ -6991,7 +6992,7 @@
         <v>401</v>
       </c>
       <c r="G174" t="e">
-        <f>VLOOKUP(F174,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I174" t="s">
@@ -7003,7 +7004,7 @@
         <v>184</v>
       </c>
       <c r="B175" t="str">
-        <f>VLOOKUP(A175,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HPVADVC2</v>
       </c>
       <c r="D175" t="s">
@@ -7013,7 +7014,7 @@
         <v>402</v>
       </c>
       <c r="G175" t="e">
-        <f>VLOOKUP(F175,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I175" t="s">
@@ -7025,7 +7026,7 @@
         <v>185</v>
       </c>
       <c r="B176" t="str">
-        <f>VLOOKUP(A176,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HPVADSHT</v>
       </c>
       <c r="D176" t="s">
@@ -7035,7 +7036,7 @@
         <v>403</v>
       </c>
       <c r="G176" t="e">
-        <f>VLOOKUP(F176,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I176" t="s">
@@ -7047,7 +7048,7 @@
         <v>186</v>
       </c>
       <c r="B177" t="e">
-        <f>VLOOKUP(A177,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="D177" t="s">
@@ -7057,7 +7058,7 @@
         <v>404</v>
       </c>
       <c r="G177" t="e">
-        <f>VLOOKUP(F177,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I177" t="s">
@@ -7069,7 +7070,7 @@
         <v>187</v>
       </c>
       <c r="B178" t="str">
-        <f>VLOOKUP(A178,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HADMAM</v>
       </c>
       <c r="D178" t="s">
@@ -7079,7 +7080,7 @@
         <v>16</v>
       </c>
       <c r="G178" t="e">
-        <f>VLOOKUP(F178,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I178" t="s">
@@ -7091,7 +7092,7 @@
         <v>188</v>
       </c>
       <c r="B179" t="str">
-        <f>VLOOKUP(A179,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HOWLONG</v>
       </c>
       <c r="D179" t="s">
@@ -7101,7 +7102,7 @@
         <v>405</v>
       </c>
       <c r="G179" t="e">
-        <f>VLOOKUP(F179,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I179" t="s">
@@ -7113,7 +7114,7 @@
         <v>189</v>
       </c>
       <c r="B180" t="str">
-        <f>VLOOKUP(A180,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HADPAP2</v>
       </c>
       <c r="D180" t="s">
@@ -7123,7 +7124,7 @@
         <v>406</v>
       </c>
       <c r="G180" t="e">
-        <f>VLOOKUP(F180,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I180" t="s">
@@ -7135,7 +7136,7 @@
         <v>190</v>
       </c>
       <c r="B181" t="str">
-        <f>VLOOKUP(A181,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>LASTPAP2</v>
       </c>
       <c r="D181" t="s">
@@ -7145,15 +7146,15 @@
         <v>187</v>
       </c>
       <c r="G181" t="str">
-        <f>VLOOKUP(F181,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>HADMAM</v>
       </c>
       <c r="H181">
-        <f>VLOOKUP(F181,A:C,3,0)</f>
+        <f t="shared" ref="H181:H187" si="22">VLOOKUP(F181,A:C,3,0)</f>
         <v>0</v>
       </c>
       <c r="I181" t="str">
-        <f>VLOOKUP(F181,A:D,4,0)</f>
+        <f t="shared" ref="I181:I187" si="23">VLOOKUP(F181,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -7162,7 +7163,7 @@
         <v>191</v>
       </c>
       <c r="B182" t="e">
-        <f>VLOOKUP(A182,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="D182" t="s">
@@ -7172,15 +7173,15 @@
         <v>188</v>
       </c>
       <c r="G182" t="str">
-        <f>VLOOKUP(F182,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>HOWLONG</v>
       </c>
       <c r="H182">
-        <f>VLOOKUP(F182,A:C,3,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I182" t="str">
-        <f>VLOOKUP(F182,A:D,4,0)</f>
+        <f t="shared" si="23"/>
         <v>drop</v>
       </c>
     </row>
@@ -7189,7 +7190,7 @@
         <v>192</v>
       </c>
       <c r="B183" t="e">
-        <f>VLOOKUP(A183,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="D183" t="s">
@@ -7199,15 +7200,15 @@
         <v>194</v>
       </c>
       <c r="G183" t="str">
-        <f>VLOOKUP(F183,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>PROFEXAM</v>
       </c>
       <c r="H183">
-        <f>VLOOKUP(F183,A:C,3,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I183" t="str">
-        <f>VLOOKUP(F183,A:D,4,0)</f>
+        <f t="shared" si="23"/>
         <v>drop</v>
       </c>
     </row>
@@ -7216,7 +7217,7 @@
         <v>193</v>
       </c>
       <c r="B184" t="str">
-        <f>VLOOKUP(A184,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HADHYST2</v>
       </c>
       <c r="D184" t="s">
@@ -7226,15 +7227,15 @@
         <v>195</v>
       </c>
       <c r="G184" t="str">
-        <f>VLOOKUP(F184,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>LENGEXAM</v>
       </c>
       <c r="H184">
-        <f>VLOOKUP(F184,A:C,3,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I184" t="str">
-        <f>VLOOKUP(F184,A:D,4,0)</f>
+        <f t="shared" si="23"/>
         <v>drop</v>
       </c>
     </row>
@@ -7243,7 +7244,7 @@
         <v>194</v>
       </c>
       <c r="B185" t="str">
-        <f>VLOOKUP(A185,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>PROFEXAM</v>
       </c>
       <c r="D185" t="s">
@@ -7253,15 +7254,15 @@
         <v>189</v>
       </c>
       <c r="G185" t="str">
-        <f>VLOOKUP(F185,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>HADPAP2</v>
       </c>
       <c r="H185">
-        <f>VLOOKUP(F185,A:C,3,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I185" t="str">
-        <f>VLOOKUP(F185,A:D,4,0)</f>
+        <f t="shared" si="23"/>
         <v>drop</v>
       </c>
     </row>
@@ -7270,7 +7271,7 @@
         <v>195</v>
       </c>
       <c r="B186" t="str">
-        <f>VLOOKUP(A186,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>LENGEXAM</v>
       </c>
       <c r="D186" t="s">
@@ -7280,15 +7281,15 @@
         <v>190</v>
       </c>
       <c r="G186" t="str">
-        <f>VLOOKUP(F186,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>LASTPAP2</v>
       </c>
       <c r="H186">
-        <f>VLOOKUP(F186,A:C,3,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I186" t="str">
-        <f>VLOOKUP(F186,A:D,4,0)</f>
+        <f t="shared" si="23"/>
         <v>drop</v>
       </c>
     </row>
@@ -7297,7 +7298,7 @@
         <v>196</v>
       </c>
       <c r="B187" t="str">
-        <f>VLOOKUP(A187,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>BLDSTOOL</v>
       </c>
       <c r="D187" t="s">
@@ -7307,15 +7308,15 @@
         <v>193</v>
       </c>
       <c r="G187" t="str">
-        <f>VLOOKUP(F187,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>HADHYST2</v>
       </c>
       <c r="H187">
-        <f>VLOOKUP(F187,A:C,3,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I187" t="str">
-        <f>VLOOKUP(F187,A:D,4,0)</f>
+        <f t="shared" si="23"/>
         <v>drop</v>
       </c>
     </row>
@@ -7324,7 +7325,7 @@
         <v>197</v>
       </c>
       <c r="B188" t="str">
-        <f>VLOOKUP(A188,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>LSTBLDS3</v>
       </c>
       <c r="D188" t="s">
@@ -7334,7 +7335,7 @@
         <v>407</v>
       </c>
       <c r="G188" t="e">
-        <f>VLOOKUP(F188,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I188" t="s">
@@ -7346,7 +7347,7 @@
         <v>198</v>
       </c>
       <c r="B189" t="str">
-        <f>VLOOKUP(A189,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HADSIGM3</v>
       </c>
       <c r="D189" t="s">
@@ -7356,7 +7357,7 @@
         <v>204</v>
       </c>
       <c r="G189" t="str">
-        <f>VLOOKUP(F189,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>PSATEST1</v>
       </c>
       <c r="H189">
@@ -7373,7 +7374,7 @@
         <v>199</v>
       </c>
       <c r="B190" t="str">
-        <f>VLOOKUP(A190,F:F,1,0)</f>
+        <f t="shared" si="21"/>
         <v>HADSGCO1</v>
       </c>
       <c r="D190" t="s">
@@ -7383,7 +7384,7 @@
         <v>205</v>
       </c>
       <c r="G190" t="str">
-        <f>VLOOKUP(F190,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>PSATIME</v>
       </c>
       <c r="H190">
@@ -7400,7 +7401,7 @@
         <v>200</v>
       </c>
       <c r="B191" t="str">
-        <f>VLOOKUP(A191,F:F,1,0)</f>
+        <f t="shared" ref="B191:B222" si="24">VLOOKUP(A191,F:F,1,0)</f>
         <v>LASTSIG3</v>
       </c>
       <c r="D191" t="s">
@@ -7410,7 +7411,7 @@
         <v>408</v>
       </c>
       <c r="G191" t="e">
-        <f>VLOOKUP(F191,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I191" t="s">
@@ -7422,7 +7423,7 @@
         <v>201</v>
       </c>
       <c r="B192" t="e">
-        <f>VLOOKUP(A192,F:F,1,0)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="D192" t="s">
@@ -7432,7 +7433,7 @@
         <v>409</v>
       </c>
       <c r="G192" t="e">
-        <f>VLOOKUP(F192,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I192" t="s">
@@ -7444,7 +7445,7 @@
         <v>202</v>
       </c>
       <c r="B193" t="e">
-        <f>VLOOKUP(A193,F:F,1,0)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="D193" t="s">
@@ -7454,7 +7455,7 @@
         <v>410</v>
       </c>
       <c r="G193" t="e">
-        <f>VLOOKUP(F193,A:A,1,0)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="I193" t="s">
@@ -7466,7 +7467,7 @@
         <v>203</v>
       </c>
       <c r="B194" t="e">
-        <f>VLOOKUP(A194,F:F,1,0)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="D194" t="s">
@@ -7476,7 +7477,7 @@
         <v>411</v>
       </c>
       <c r="G194" t="e">
-        <f>VLOOKUP(F194,A:A,1,0)</f>
+        <f t="shared" ref="G194:G257" si="25">VLOOKUP(F194,A:A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I194" t="s">
@@ -7488,7 +7489,7 @@
         <v>204</v>
       </c>
       <c r="B195" t="str">
-        <f>VLOOKUP(A195,F:F,1,0)</f>
+        <f t="shared" si="24"/>
         <v>PSATEST1</v>
       </c>
       <c r="D195" t="s">
@@ -7498,7 +7499,7 @@
         <v>412</v>
       </c>
       <c r="G195" t="e">
-        <f>VLOOKUP(F195,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I195" t="s">
@@ -7510,7 +7511,7 @@
         <v>205</v>
       </c>
       <c r="B196" t="str">
-        <f>VLOOKUP(A196,F:F,1,0)</f>
+        <f t="shared" si="24"/>
         <v>PSATIME</v>
       </c>
       <c r="D196" t="s">
@@ -7520,7 +7521,7 @@
         <v>196</v>
       </c>
       <c r="G196" t="str">
-        <f>VLOOKUP(F196,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>BLDSTOOL</v>
       </c>
       <c r="H196">
@@ -7537,7 +7538,7 @@
         <v>206</v>
       </c>
       <c r="B197" t="e">
-        <f>VLOOKUP(A197,F:F,1,0)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="D197" t="s">
@@ -7547,7 +7548,7 @@
         <v>197</v>
       </c>
       <c r="G197" t="str">
-        <f>VLOOKUP(F197,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>LSTBLDS3</v>
       </c>
       <c r="H197">
@@ -7564,7 +7565,7 @@
         <v>207</v>
       </c>
       <c r="B198" t="e">
-        <f>VLOOKUP(A198,F:F,1,0)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="D198" t="s">
@@ -7574,7 +7575,7 @@
         <v>198</v>
       </c>
       <c r="G198" t="str">
-        <f>VLOOKUP(F198,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>HADSIGM3</v>
       </c>
       <c r="H198">
@@ -7591,7 +7592,7 @@
         <v>208</v>
       </c>
       <c r="B199" t="e">
-        <f>VLOOKUP(A199,F:F,1,0)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="D199" t="s">
@@ -7601,7 +7602,7 @@
         <v>199</v>
       </c>
       <c r="G199" t="str">
-        <f>VLOOKUP(F199,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>HADSGCO1</v>
       </c>
       <c r="H199">
@@ -7621,7 +7622,7 @@
         <v>469</v>
       </c>
       <c r="C200" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D200" t="s">
         <v>566</v>
@@ -7630,7 +7631,7 @@
         <v>200</v>
       </c>
       <c r="G200" t="str">
-        <f>VLOOKUP(F200,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>LASTSIG3</v>
       </c>
       <c r="H200">
@@ -7650,7 +7651,7 @@
         <v>470</v>
       </c>
       <c r="C201" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D201" t="s">
         <v>566</v>
@@ -7659,7 +7660,7 @@
         <v>413</v>
       </c>
       <c r="G201" t="e">
-        <f>VLOOKUP(F201,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I201" t="s">
@@ -7671,7 +7672,7 @@
         <v>211</v>
       </c>
       <c r="B202" t="str">
-        <f>VLOOKUP(A202,F:F,1,0)</f>
+        <f t="shared" ref="B202:B233" si="26">VLOOKUP(A202,F:F,1,0)</f>
         <v>SCNTPAID</v>
       </c>
       <c r="D202" t="s">
@@ -7681,7 +7682,7 @@
         <v>414</v>
       </c>
       <c r="G202" t="e">
-        <f>VLOOKUP(F202,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I202" t="s">
@@ -7693,7 +7694,7 @@
         <v>212</v>
       </c>
       <c r="B203" t="str">
-        <f>VLOOKUP(A203,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>SCNTWRK1</v>
       </c>
       <c r="D203" t="s">
@@ -7703,7 +7704,7 @@
         <v>415</v>
       </c>
       <c r="G203" t="e">
-        <f>VLOOKUP(F203,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I203" t="s">
@@ -7715,7 +7716,7 @@
         <v>213</v>
       </c>
       <c r="B204" t="str">
-        <f>VLOOKUP(A204,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>SCNTLPAD</v>
       </c>
       <c r="D204" t="s">
@@ -7725,7 +7726,7 @@
         <v>416</v>
       </c>
       <c r="G204" t="e">
-        <f>VLOOKUP(F204,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I204" t="s">
@@ -7737,7 +7738,7 @@
         <v>214</v>
       </c>
       <c r="B205" t="str">
-        <f>VLOOKUP(A205,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>SCNTLWK1</v>
       </c>
       <c r="D205" t="s">
@@ -7747,7 +7748,7 @@
         <v>417</v>
       </c>
       <c r="G205" t="e">
-        <f>VLOOKUP(F205,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I205" t="s">
@@ -7759,7 +7760,7 @@
         <v>215</v>
       </c>
       <c r="B206" t="e">
-        <f>VLOOKUP(A206,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="D206" t="s">
@@ -7769,7 +7770,7 @@
         <v>418</v>
       </c>
       <c r="G206" t="e">
-        <f>VLOOKUP(F206,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I206" t="s">
@@ -7781,7 +7782,7 @@
         <v>216</v>
       </c>
       <c r="B207" t="e">
-        <f>VLOOKUP(A207,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="D207" t="s">
@@ -7791,7 +7792,7 @@
         <v>419</v>
       </c>
       <c r="G207" t="e">
-        <f>VLOOKUP(F207,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I207" t="s">
@@ -7803,7 +7804,7 @@
         <v>217</v>
       </c>
       <c r="B208" t="str">
-        <f>VLOOKUP(A208,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>RCSGENDR</v>
       </c>
       <c r="D208" t="s">
@@ -7813,7 +7814,7 @@
         <v>420</v>
       </c>
       <c r="G208" t="e">
-        <f>VLOOKUP(F208,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I208" t="s">
@@ -7825,7 +7826,7 @@
         <v>218</v>
       </c>
       <c r="B209" t="str">
-        <f>VLOOKUP(A209,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>RCSRLTN2</v>
       </c>
       <c r="D209" t="s">
@@ -7835,7 +7836,7 @@
         <v>421</v>
       </c>
       <c r="G209" t="e">
-        <f>VLOOKUP(F209,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I209" t="s">
@@ -7847,7 +7848,7 @@
         <v>219</v>
       </c>
       <c r="B210" t="str">
-        <f>VLOOKUP(A210,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>CASTHDX2</v>
       </c>
       <c r="D210" t="s">
@@ -7857,7 +7858,7 @@
         <v>422</v>
       </c>
       <c r="G210" t="e">
-        <f>VLOOKUP(F210,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I210" t="s">
@@ -7869,7 +7870,7 @@
         <v>220</v>
       </c>
       <c r="B211" t="str">
-        <f>VLOOKUP(A211,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>CASTHNO2</v>
       </c>
       <c r="D211" t="s">
@@ -7879,7 +7880,7 @@
         <v>423</v>
       </c>
       <c r="G211" t="e">
-        <f>VLOOKUP(F211,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I211" t="s">
@@ -7891,11 +7892,11 @@
         <v>221</v>
       </c>
       <c r="B212" t="str">
-        <f>VLOOKUP(A212,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>EMTSUPRT</v>
       </c>
       <c r="C212" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D212" t="s">
         <v>569</v>
@@ -7904,7 +7905,7 @@
         <v>424</v>
       </c>
       <c r="G212" t="e">
-        <f>VLOOKUP(F212,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I212" t="s">
@@ -7916,11 +7917,11 @@
         <v>222</v>
       </c>
       <c r="B213" t="str">
-        <f>VLOOKUP(A213,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>LSATISFY</v>
       </c>
       <c r="C213" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D213" t="s">
         <v>569</v>
@@ -7929,7 +7930,7 @@
         <v>425</v>
       </c>
       <c r="G213" t="e">
-        <f>VLOOKUP(F213,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I213" t="s">
@@ -7941,11 +7942,11 @@
         <v>223</v>
       </c>
       <c r="B214" t="str">
-        <f>VLOOKUP(A214,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADPLEASR</v>
       </c>
       <c r="C214" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D214" t="s">
         <v>566</v>
@@ -7954,7 +7955,7 @@
         <v>426</v>
       </c>
       <c r="G214" t="e">
-        <f>VLOOKUP(F214,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I214" t="s">
@@ -7966,11 +7967,11 @@
         <v>224</v>
       </c>
       <c r="B215" t="str">
-        <f>VLOOKUP(A215,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADDOWN</v>
       </c>
       <c r="C215" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D215" t="s">
         <v>566</v>
@@ -7979,7 +7980,7 @@
         <v>427</v>
       </c>
       <c r="G215" t="e">
-        <f>VLOOKUP(F215,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I215" t="s">
@@ -7991,11 +7992,11 @@
         <v>225</v>
       </c>
       <c r="B216" t="str">
-        <f>VLOOKUP(A216,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADSLEEP</v>
       </c>
       <c r="C216" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D216" t="s">
         <v>566</v>
@@ -8004,15 +8005,15 @@
         <v>162</v>
       </c>
       <c r="G216" t="str">
-        <f>VLOOKUP(F216,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASTHMAGE</v>
       </c>
       <c r="H216">
-        <f>VLOOKUP(F216,A:C,3,0)</f>
+        <f t="shared" ref="H216:H229" si="27">VLOOKUP(F216,A:C,3,0)</f>
         <v>0</v>
       </c>
       <c r="I216" t="str">
-        <f>VLOOKUP(F216,A:D,4,0)</f>
+        <f t="shared" ref="I216:I229" si="28">VLOOKUP(F216,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -8021,11 +8022,11 @@
         <v>226</v>
       </c>
       <c r="B217" t="str">
-        <f>VLOOKUP(A217,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADENERGY</v>
       </c>
       <c r="C217" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D217" t="s">
         <v>566</v>
@@ -8034,15 +8035,15 @@
         <v>163</v>
       </c>
       <c r="G217" t="str">
-        <f>VLOOKUP(F217,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASATTACK</v>
       </c>
       <c r="H217">
-        <f>VLOOKUP(F217,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I217" t="str">
-        <f>VLOOKUP(F217,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8051,11 +8052,11 @@
         <v>227</v>
       </c>
       <c r="B218" t="str">
-        <f>VLOOKUP(A218,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADEAT1</v>
       </c>
       <c r="C218" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D218" t="s">
         <v>566</v>
@@ -8064,15 +8065,15 @@
         <v>164</v>
       </c>
       <c r="G218" t="str">
-        <f>VLOOKUP(F218,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASERVIST</v>
       </c>
       <c r="H218">
-        <f>VLOOKUP(F218,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I218" t="str">
-        <f>VLOOKUP(F218,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8081,11 +8082,11 @@
         <v>228</v>
       </c>
       <c r="B219" t="str">
-        <f>VLOOKUP(A219,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADFAIL</v>
       </c>
       <c r="C219" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D219" t="s">
         <v>566</v>
@@ -8094,15 +8095,15 @@
         <v>165</v>
       </c>
       <c r="G219" t="str">
-        <f>VLOOKUP(F219,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASDRVIST</v>
       </c>
       <c r="H219">
-        <f>VLOOKUP(F219,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I219" t="str">
-        <f>VLOOKUP(F219,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8111,11 +8112,11 @@
         <v>229</v>
       </c>
       <c r="B220" t="str">
-        <f>VLOOKUP(A220,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADTHINK</v>
       </c>
       <c r="C220" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D220" t="s">
         <v>566</v>
@@ -8124,15 +8125,15 @@
         <v>166</v>
       </c>
       <c r="G220" t="str">
-        <f>VLOOKUP(F220,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASRCHKUP</v>
       </c>
       <c r="H220">
-        <f>VLOOKUP(F220,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I220" t="str">
-        <f>VLOOKUP(F220,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8141,11 +8142,11 @@
         <v>230</v>
       </c>
       <c r="B221" t="str">
-        <f>VLOOKUP(A221,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADMOVE</v>
       </c>
       <c r="C221" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D221" t="s">
         <v>566</v>
@@ -8154,15 +8155,15 @@
         <v>167</v>
       </c>
       <c r="G221" t="str">
-        <f>VLOOKUP(F221,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASACTLIM</v>
       </c>
       <c r="H221">
-        <f>VLOOKUP(F221,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I221" t="str">
-        <f>VLOOKUP(F221,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8171,11 +8172,11 @@
         <v>231</v>
       </c>
       <c r="B222" t="str">
-        <f>VLOOKUP(A222,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>MISTMNT</v>
       </c>
       <c r="C222" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D222" t="s">
         <v>566</v>
@@ -8184,15 +8185,15 @@
         <v>168</v>
       </c>
       <c r="G222" t="str">
-        <f>VLOOKUP(F222,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASYMPTOM</v>
       </c>
       <c r="H222">
-        <f>VLOOKUP(F222,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I222" t="str">
-        <f>VLOOKUP(F222,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8201,11 +8202,11 @@
         <v>232</v>
       </c>
       <c r="B223" t="str">
-        <f>VLOOKUP(A223,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>ADANXEV</v>
       </c>
       <c r="C223" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D223" t="s">
         <v>566</v>
@@ -8214,15 +8215,15 @@
         <v>169</v>
       </c>
       <c r="G223" t="str">
-        <f>VLOOKUP(F223,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASNOSLEP</v>
       </c>
       <c r="H223">
-        <f>VLOOKUP(F223,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I223" t="str">
-        <f>VLOOKUP(F223,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8231,7 +8232,7 @@
         <v>233</v>
       </c>
       <c r="B224" t="str">
-        <f>VLOOKUP(A224,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>QSTVER</v>
       </c>
       <c r="D224" t="s">
@@ -8241,15 +8242,15 @@
         <v>170</v>
       </c>
       <c r="G224" t="str">
-        <f>VLOOKUP(F224,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASTHMED3</v>
       </c>
       <c r="H224">
-        <f>VLOOKUP(F224,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I224" t="str">
-        <f>VLOOKUP(F224,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8258,7 +8259,7 @@
         <v>234</v>
       </c>
       <c r="B225" t="str">
-        <f>VLOOKUP(A225,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>QSTLANG</v>
       </c>
       <c r="D225" t="s">
@@ -8268,15 +8269,15 @@
         <v>171</v>
       </c>
       <c r="G225" t="str">
-        <f>VLOOKUP(F225,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ASINHALR</v>
       </c>
       <c r="H225">
-        <f>VLOOKUP(F225,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I225" t="str">
-        <f>VLOOKUP(F225,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8285,7 +8286,7 @@
         <v>235</v>
       </c>
       <c r="B226" t="e">
-        <f>VLOOKUP(A226,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="D226" t="s">
@@ -8295,15 +8296,15 @@
         <v>179</v>
       </c>
       <c r="G226" t="str">
-        <f>VLOOKUP(F226,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ARTTODAY</v>
       </c>
       <c r="H226">
-        <f>VLOOKUP(F226,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I226" t="str">
-        <f>VLOOKUP(F226,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8312,7 +8313,7 @@
         <v>236</v>
       </c>
       <c r="B227" t="e">
-        <f>VLOOKUP(A227,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="D227" t="s">
@@ -8322,15 +8323,15 @@
         <v>180</v>
       </c>
       <c r="G227" t="str">
-        <f>VLOOKUP(F227,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ARTHWGT</v>
       </c>
       <c r="H227">
-        <f>VLOOKUP(F227,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I227" t="str">
-        <f>VLOOKUP(F227,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8339,11 +8340,11 @@
         <v>237</v>
       </c>
       <c r="B228" t="str">
-        <f>VLOOKUP(A228,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>MSCODE</v>
       </c>
       <c r="C228" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D228" t="s">
         <v>569</v>
@@ -8352,15 +8353,15 @@
         <v>181</v>
       </c>
       <c r="G228" t="str">
-        <f>VLOOKUP(F228,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ARTHEXER</v>
       </c>
       <c r="H228">
-        <f>VLOOKUP(F228,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I228" t="str">
-        <f>VLOOKUP(F228,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8369,7 +8370,7 @@
         <v>238</v>
       </c>
       <c r="B229" t="str">
-        <f>VLOOKUP(A229,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>_STSTR</v>
       </c>
       <c r="D229" t="s">
@@ -8379,15 +8380,15 @@
         <v>182</v>
       </c>
       <c r="G229" t="str">
-        <f>VLOOKUP(F229,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>ARTHEDU</v>
       </c>
       <c r="H229">
-        <f>VLOOKUP(F229,A:C,3,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I229" t="str">
-        <f>VLOOKUP(F229,A:D,4,0)</f>
+        <f t="shared" si="28"/>
         <v>drop</v>
       </c>
     </row>
@@ -8396,7 +8397,7 @@
         <v>239</v>
       </c>
       <c r="B230" t="str">
-        <f>VLOOKUP(A230,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>_STRWT</v>
       </c>
       <c r="D230" t="s">
@@ -8406,7 +8407,7 @@
         <v>428</v>
       </c>
       <c r="G230" t="e">
-        <f>VLOOKUP(F230,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I230" t="s">
@@ -8418,7 +8419,7 @@
         <v>240</v>
       </c>
       <c r="B231" t="str">
-        <f>VLOOKUP(A231,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>_RAWRAKE</v>
       </c>
       <c r="D231" t="s">
@@ -8428,7 +8429,7 @@
         <v>429</v>
       </c>
       <c r="G231" t="e">
-        <f>VLOOKUP(F231,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I231" t="s">
@@ -8440,7 +8441,7 @@
         <v>241</v>
       </c>
       <c r="B232" t="str">
-        <f>VLOOKUP(A232,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>_WT2RAKE</v>
       </c>
       <c r="D232" t="s">
@@ -8450,7 +8451,7 @@
         <v>430</v>
       </c>
       <c r="G232" t="e">
-        <f>VLOOKUP(F232,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I232" t="s">
@@ -8462,7 +8463,7 @@
         <v>242</v>
       </c>
       <c r="B233" t="e">
-        <f>VLOOKUP(A233,F:F,1,0)</f>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="D233" t="s">
@@ -8472,7 +8473,7 @@
         <v>184</v>
       </c>
       <c r="G233" t="str">
-        <f>VLOOKUP(F233,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>HPVADVC2</v>
       </c>
       <c r="H233">
@@ -8489,7 +8490,7 @@
         <v>243</v>
       </c>
       <c r="B234" t="e">
-        <f>VLOOKUP(A234,F:F,1,0)</f>
+        <f t="shared" ref="B234:B265" si="29">VLOOKUP(A234,F:F,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D234" t="s">
@@ -8499,7 +8500,7 @@
         <v>185</v>
       </c>
       <c r="G234" t="str">
-        <f>VLOOKUP(F234,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>HPVADSHT</v>
       </c>
       <c r="H234">
@@ -8516,7 +8517,7 @@
         <v>244</v>
       </c>
       <c r="B235" t="e">
-        <f>VLOOKUP(A235,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="D235" t="s">
@@ -8526,7 +8527,7 @@
         <v>431</v>
       </c>
       <c r="G235" t="e">
-        <f>VLOOKUP(F235,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I235" t="s">
@@ -8538,7 +8539,7 @@
         <v>245</v>
       </c>
       <c r="B236" t="str">
-        <f>VLOOKUP(A236,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_CLLCPWT</v>
       </c>
       <c r="D236" t="s">
@@ -8548,7 +8549,7 @@
         <v>432</v>
       </c>
       <c r="G236" t="e">
-        <f>VLOOKUP(F236,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I236" t="s">
@@ -8560,7 +8561,7 @@
         <v>246</v>
       </c>
       <c r="B237" t="e">
-        <f>VLOOKUP(A237,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="D237" t="s">
@@ -8570,7 +8571,7 @@
         <v>433</v>
       </c>
       <c r="G237" t="e">
-        <f>VLOOKUP(F237,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I237" t="s">
@@ -8582,7 +8583,7 @@
         <v>247</v>
       </c>
       <c r="B238" t="e">
-        <f>VLOOKUP(A238,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="D238" t="s">
@@ -8592,7 +8593,7 @@
         <v>434</v>
       </c>
       <c r="G238" t="e">
-        <f>VLOOKUP(F238,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I238" t="s">
@@ -8604,7 +8605,7 @@
         <v>248</v>
       </c>
       <c r="B239" t="str">
-        <f>VLOOKUP(A239,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_LLCPWT</v>
       </c>
       <c r="D239" t="s">
@@ -8614,7 +8615,7 @@
         <v>435</v>
       </c>
       <c r="G239" t="e">
-        <f>VLOOKUP(F239,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I239" t="s">
@@ -8626,11 +8627,11 @@
         <v>249</v>
       </c>
       <c r="B240" t="str">
-        <f>VLOOKUP(A240,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_RFHLTH</v>
       </c>
       <c r="C240" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D240" t="s">
         <v>569</v>
@@ -8639,7 +8640,7 @@
         <v>436</v>
       </c>
       <c r="G240" t="e">
-        <f>VLOOKUP(F240,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I240" t="s">
@@ -8651,11 +8652,11 @@
         <v>250</v>
       </c>
       <c r="B241" t="str">
-        <f>VLOOKUP(A241,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_HCVU651</v>
       </c>
       <c r="C241" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D241" t="s">
         <v>569</v>
@@ -8664,7 +8665,7 @@
         <v>437</v>
       </c>
       <c r="G241" t="e">
-        <f>VLOOKUP(F241,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I241" t="s">
@@ -8676,7 +8677,7 @@
         <v>251</v>
       </c>
       <c r="B242" t="str">
-        <f>VLOOKUP(A242,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_RFHYPE5</v>
       </c>
       <c r="D242" t="s">
@@ -8686,7 +8687,7 @@
         <v>438</v>
       </c>
       <c r="G242" t="e">
-        <f>VLOOKUP(F242,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I242" t="s">
@@ -8698,7 +8699,7 @@
         <v>252</v>
       </c>
       <c r="B243" t="str">
-        <f>VLOOKUP(A243,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_CHOLCHK</v>
       </c>
       <c r="D243" t="s">
@@ -8708,7 +8709,7 @@
         <v>439</v>
       </c>
       <c r="G243" t="e">
-        <f>VLOOKUP(F243,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I243" t="s">
@@ -8720,7 +8721,7 @@
         <v>253</v>
       </c>
       <c r="B244" t="str">
-        <f>VLOOKUP(A244,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_RFCHOL</v>
       </c>
       <c r="D244" t="s">
@@ -8730,7 +8731,7 @@
         <v>440</v>
       </c>
       <c r="G244" t="e">
-        <f>VLOOKUP(F244,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I244" t="s">
@@ -8742,7 +8743,7 @@
         <v>254</v>
       </c>
       <c r="B245" t="e">
-        <f>VLOOKUP(A245,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="D245" t="s">
@@ -8752,7 +8753,7 @@
         <v>441</v>
       </c>
       <c r="G245" t="e">
-        <f>VLOOKUP(F245,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I245" t="s">
@@ -8764,7 +8765,7 @@
         <v>255</v>
       </c>
       <c r="B246" t="str">
-        <f>VLOOKUP(A246,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_LTASTH1</v>
       </c>
       <c r="D246" t="s">
@@ -8774,7 +8775,7 @@
         <v>442</v>
       </c>
       <c r="G246" t="e">
-        <f>VLOOKUP(F246,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I246" t="s">
@@ -8786,7 +8787,7 @@
         <v>256</v>
       </c>
       <c r="B247" t="str">
-        <f>VLOOKUP(A247,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_CASTHM1</v>
       </c>
       <c r="D247" t="s">
@@ -8796,7 +8797,7 @@
         <v>443</v>
       </c>
       <c r="G247" t="e">
-        <f>VLOOKUP(F247,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I247" t="s">
@@ -8808,7 +8809,7 @@
         <v>257</v>
       </c>
       <c r="B248" t="str">
-        <f>VLOOKUP(A248,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_ASTHMS1</v>
       </c>
       <c r="D248" t="s">
@@ -8818,7 +8819,7 @@
         <v>444</v>
       </c>
       <c r="G248" t="e">
-        <f>VLOOKUP(F248,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I248" t="s">
@@ -8830,7 +8831,7 @@
         <v>258</v>
       </c>
       <c r="B249" t="str">
-        <f>VLOOKUP(A249,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>_DRDXAR1</v>
       </c>
       <c r="D249" t="s">
@@ -8840,7 +8841,7 @@
         <v>445</v>
       </c>
       <c r="G249" t="e">
-        <f>VLOOKUP(F249,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I249" t="s">
@@ -8852,7 +8853,7 @@
         <v>259</v>
       </c>
       <c r="B250" t="e">
-        <f>VLOOKUP(A250,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="D250" t="s">
@@ -8862,7 +8863,7 @@
         <v>446</v>
       </c>
       <c r="G250" t="e">
-        <f>VLOOKUP(F250,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I250" t="s">
@@ -8874,7 +8875,7 @@
         <v>260</v>
       </c>
       <c r="B251" t="e">
-        <f>VLOOKUP(A251,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="D251" t="s">
@@ -8884,7 +8885,7 @@
         <v>447</v>
       </c>
       <c r="G251" t="e">
-        <f>VLOOKUP(F251,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I251" t="s">
@@ -8896,7 +8897,7 @@
         <v>261</v>
       </c>
       <c r="B252" t="e">
-        <f>VLOOKUP(A252,F:F,1,0)</f>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="D252" t="s">
@@ -8906,7 +8907,7 @@
         <v>448</v>
       </c>
       <c r="G252" t="e">
-        <f>VLOOKUP(F252,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I252" t="s">
@@ -8921,7 +8922,7 @@
         <v>528</v>
       </c>
       <c r="C253" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D253" t="s">
         <v>566</v>
@@ -8930,7 +8931,7 @@
         <v>449</v>
       </c>
       <c r="G253" t="e">
-        <f>VLOOKUP(F253,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I253" t="s">
@@ -8942,7 +8943,7 @@
         <v>263</v>
       </c>
       <c r="B254" t="e">
-        <f>VLOOKUP(A254,F:F,1,0)</f>
+        <f t="shared" ref="B254:B285" si="30">VLOOKUP(A254,F:F,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D254" t="s">
@@ -8952,7 +8953,7 @@
         <v>450</v>
       </c>
       <c r="G254" t="e">
-        <f>VLOOKUP(F254,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I254" t="s">
@@ -8964,7 +8965,7 @@
         <v>264</v>
       </c>
       <c r="B255" t="e">
-        <f>VLOOKUP(A255,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="D255" t="s">
@@ -8974,7 +8975,7 @@
         <v>451</v>
       </c>
       <c r="G255" t="e">
-        <f>VLOOKUP(F255,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I255" t="s">
@@ -8986,7 +8987,7 @@
         <v>265</v>
       </c>
       <c r="B256" t="e">
-        <f>VLOOKUP(A256,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="D256" t="s">
@@ -8996,7 +8997,7 @@
         <v>452</v>
       </c>
       <c r="G256" t="e">
-        <f>VLOOKUP(F256,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I256" t="s">
@@ -9008,7 +9009,7 @@
         <v>18</v>
       </c>
       <c r="B257" t="str">
-        <f>VLOOKUP(A257,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_AGEG5YR</v>
       </c>
       <c r="D257" t="s">
@@ -9018,7 +9019,7 @@
         <v>453</v>
       </c>
       <c r="G257" t="e">
-        <f>VLOOKUP(F257,A:A,1,0)</f>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I257" t="s">
@@ -9030,7 +9031,7 @@
         <v>266</v>
       </c>
       <c r="B258" t="str">
-        <f>VLOOKUP(A258,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_AGE65YR</v>
       </c>
       <c r="D258" t="s">
@@ -9040,7 +9041,7 @@
         <v>454</v>
       </c>
       <c r="G258" t="e">
-        <f>VLOOKUP(F258,A:A,1,0)</f>
+        <f t="shared" ref="G258:G321" si="31">VLOOKUP(F258,A:A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I258" t="s">
@@ -9052,7 +9053,7 @@
         <v>267</v>
       </c>
       <c r="B259" t="e">
-        <f>VLOOKUP(A259,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="D259" t="s">
@@ -9062,7 +9063,7 @@
         <v>455</v>
       </c>
       <c r="G259" t="e">
-        <f>VLOOKUP(F259,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I259" t="s">
@@ -9074,11 +9075,11 @@
         <v>268</v>
       </c>
       <c r="B260" t="str">
-        <f>VLOOKUP(A260,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_AGE_G</v>
       </c>
       <c r="C260" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D260" t="s">
         <v>566</v>
@@ -9087,7 +9088,7 @@
         <v>456</v>
       </c>
       <c r="G260" t="e">
-        <f>VLOOKUP(F260,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I260" t="s">
@@ -9099,7 +9100,7 @@
         <v>269</v>
       </c>
       <c r="B261" t="str">
-        <f>VLOOKUP(A261,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>HTIN4</v>
       </c>
       <c r="D261" t="s">
@@ -9109,7 +9110,7 @@
         <v>457</v>
       </c>
       <c r="G261" t="e">
-        <f>VLOOKUP(F261,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I261" t="s">
@@ -9121,11 +9122,11 @@
         <v>270</v>
       </c>
       <c r="B262" t="str">
-        <f>VLOOKUP(A262,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>HTM4</v>
       </c>
       <c r="C262" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D262" t="s">
         <v>566</v>
@@ -9134,7 +9135,7 @@
         <v>458</v>
       </c>
       <c r="G262" t="e">
-        <f>VLOOKUP(F262,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I262" t="s">
@@ -9146,11 +9147,11 @@
         <v>271</v>
       </c>
       <c r="B263" t="str">
-        <f>VLOOKUP(A263,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>WTKG3</v>
       </c>
       <c r="C263" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D263" t="s">
         <v>566</v>
@@ -9159,7 +9160,7 @@
         <v>459</v>
       </c>
       <c r="G263" t="e">
-        <f>VLOOKUP(F263,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I263" t="s">
@@ -9171,11 +9172,11 @@
         <v>2</v>
       </c>
       <c r="B264" t="str">
-        <f>VLOOKUP(A264,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_BMI5</v>
       </c>
       <c r="C264" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D264" t="s">
         <v>566</v>
@@ -9184,15 +9185,15 @@
         <v>223</v>
       </c>
       <c r="G264" t="str">
-        <f>VLOOKUP(F264,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADPLEASR</v>
       </c>
       <c r="H264" t="str">
-        <f>VLOOKUP(F264,A:C,3,0)</f>
+        <f t="shared" ref="H264:H274" si="32">VLOOKUP(F264,A:C,3,0)</f>
         <v>Over the last 2 weeks, how many days have you had little interest or pleasure in doing things?</v>
       </c>
       <c r="I264" t="str">
-        <f>VLOOKUP(F264,A:D,4,0)</f>
+        <f t="shared" ref="I264:I274" si="33">VLOOKUP(F264,A:D,4,0)</f>
         <v>Feature</v>
       </c>
     </row>
@@ -9201,7 +9202,7 @@
         <v>272</v>
       </c>
       <c r="B265" t="str">
-        <f>VLOOKUP(A265,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_BMI5CAT</v>
       </c>
       <c r="D265" t="s">
@@ -9211,15 +9212,15 @@
         <v>224</v>
       </c>
       <c r="G265" t="str">
-        <f>VLOOKUP(F265,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADDOWN</v>
       </c>
       <c r="H265" t="str">
-        <f>VLOOKUP(F265,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Over the last 2 weeks, how many days have you felt down, depressed or hopeless?</v>
       </c>
       <c r="I265" t="str">
-        <f>VLOOKUP(F265,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9228,7 +9229,7 @@
         <v>273</v>
       </c>
       <c r="B266" t="str">
-        <f>VLOOKUP(A266,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_RFBMI5</v>
       </c>
       <c r="D266" t="s">
@@ -9238,15 +9239,15 @@
         <v>225</v>
       </c>
       <c r="G266" t="str">
-        <f>VLOOKUP(F266,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADSLEEP</v>
       </c>
       <c r="H266" t="str">
-        <f>VLOOKUP(F266,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Over the last 2 weeks, how many days have you had trouble falling asleep or staying asleep or sleeping too much?</v>
       </c>
       <c r="I266" t="str">
-        <f>VLOOKUP(F266,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9255,7 +9256,7 @@
         <v>274</v>
       </c>
       <c r="B267" t="str">
-        <f>VLOOKUP(A267,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_CHLDCNT</v>
       </c>
       <c r="D267" t="s">
@@ -9265,15 +9266,15 @@
         <v>226</v>
       </c>
       <c r="G267" t="str">
-        <f>VLOOKUP(F267,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADENERGY</v>
       </c>
       <c r="H267" t="str">
-        <f>VLOOKUP(F267,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Over the last 2 weeks, how many days have you felt tired or had little energy?</v>
       </c>
       <c r="I267" t="str">
-        <f>VLOOKUP(F267,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9282,7 +9283,7 @@
         <v>19</v>
       </c>
       <c r="B268" t="str">
-        <f>VLOOKUP(A268,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_EDUCAG</v>
       </c>
       <c r="D268" t="s">
@@ -9292,15 +9293,15 @@
         <v>227</v>
       </c>
       <c r="G268" t="str">
-        <f>VLOOKUP(F268,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADEAT1</v>
       </c>
       <c r="H268" t="str">
-        <f>VLOOKUP(F268,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Over the last 2 weeks, how many days have you had a poor appetite or eaten too much?</v>
       </c>
       <c r="I268" t="str">
-        <f>VLOOKUP(F268,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9309,7 +9310,7 @@
         <v>20</v>
       </c>
       <c r="B269" t="str">
-        <f>VLOOKUP(A269,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_INCOMG</v>
       </c>
       <c r="D269" t="s">
@@ -9319,15 +9320,15 @@
         <v>228</v>
       </c>
       <c r="G269" t="str">
-        <f>VLOOKUP(F269,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADFAIL</v>
       </c>
       <c r="H269" t="str">
-        <f>VLOOKUP(F269,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Over the last 2 weeks, how many days have you felt bad about yourself or that you were a failure or had let yourself or your family down?</v>
       </c>
       <c r="I269" t="str">
-        <f>VLOOKUP(F269,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
         <v>3</v>
       </c>
       <c r="B270" t="str">
-        <f>VLOOKUP(A270,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_SMOKER3</v>
       </c>
       <c r="D270" t="s">
@@ -9346,15 +9347,15 @@
         <v>229</v>
       </c>
       <c r="G270" t="str">
-        <f>VLOOKUP(F270,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADTHINK</v>
       </c>
       <c r="H270" t="str">
-        <f>VLOOKUP(F270,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Over the last 2 weeks, how many days have you had trouble concentrating on things, such as reading the newspaper or watching the TV?</v>
       </c>
       <c r="I270" t="str">
-        <f>VLOOKUP(F270,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9363,7 +9364,7 @@
         <v>275</v>
       </c>
       <c r="B271" t="str">
-        <f>VLOOKUP(A271,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_RFSMOK3</v>
       </c>
       <c r="D271" t="s">
@@ -9373,15 +9374,15 @@
         <v>230</v>
       </c>
       <c r="G271" t="str">
-        <f>VLOOKUP(F271,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADMOVE</v>
       </c>
       <c r="H271" t="str">
-        <f>VLOOKUP(F271,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Over the last 2 weeks, how many days have you moved or spoken so slowly that other people could have noticed? Or the opposite – being so fidgety or restless that you were moving around a lot more than usual?</v>
       </c>
       <c r="I271" t="str">
-        <f>VLOOKUP(F271,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9390,7 +9391,7 @@
         <v>276</v>
       </c>
       <c r="B272" t="str">
-        <f>VLOOKUP(A272,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>DRNKANY5</v>
       </c>
       <c r="D272" t="s">
@@ -9400,15 +9401,15 @@
         <v>231</v>
       </c>
       <c r="G272" t="str">
-        <f>VLOOKUP(F272,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>MISTMNT</v>
       </c>
       <c r="H272" t="str">
-        <f>VLOOKUP(F272,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Are you now taking medicine or receiving treatment from a doctor or other health professional for any type of mental health condition or emotional problem?</v>
       </c>
       <c r="I272" t="str">
-        <f>VLOOKUP(F272,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9417,7 +9418,7 @@
         <v>277</v>
       </c>
       <c r="B273" t="str">
-        <f>VLOOKUP(A273,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>DROCDY3_</v>
       </c>
       <c r="D273" t="s">
@@ -9427,15 +9428,15 @@
         <v>232</v>
       </c>
       <c r="G273" t="str">
-        <f>VLOOKUP(F273,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>ADANXEV</v>
       </c>
       <c r="H273" t="str">
-        <f>VLOOKUP(F273,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>Has a doctor or other healthcare provider EVER told you that you had an anxiety disorder (including acute stress disorder, anxiety, generalized anxiety disorder, obsessive-compulsive disorder, panic disorder, phobia, posttraumatic stress disorder, or social anxiety disorder)?</v>
       </c>
       <c r="I273" t="str">
-        <f>VLOOKUP(F273,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>Feature</v>
       </c>
     </row>
@@ -9444,7 +9445,7 @@
         <v>278</v>
       </c>
       <c r="B274" t="str">
-        <f>VLOOKUP(A274,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_RFBING5</v>
       </c>
       <c r="D274" t="s">
@@ -9454,15 +9455,15 @@
         <v>153</v>
       </c>
       <c r="G274" t="str">
-        <f>VLOOKUP(F274,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>CIMEMLOS</v>
       </c>
       <c r="H274">
-        <f>VLOOKUP(F274,A:C,3,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I274" t="str">
-        <f>VLOOKUP(F274,A:D,4,0)</f>
+        <f t="shared" si="33"/>
         <v>drop</v>
       </c>
     </row>
@@ -9471,7 +9472,7 @@
         <v>279</v>
       </c>
       <c r="B275" t="e">
-        <f>VLOOKUP(A275,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="D275" t="s">
@@ -9481,7 +9482,7 @@
         <v>460</v>
       </c>
       <c r="G275" t="e">
-        <f>VLOOKUP(F275,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I275" t="s">
@@ -9493,7 +9494,7 @@
         <v>280</v>
       </c>
       <c r="B276" t="e">
-        <f>VLOOKUP(A276,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="D276" t="s">
@@ -9503,7 +9504,7 @@
         <v>461</v>
       </c>
       <c r="G276" t="e">
-        <f>VLOOKUP(F276,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I276" t="s">
@@ -9515,7 +9516,7 @@
         <v>281</v>
       </c>
       <c r="B277" t="str">
-        <f>VLOOKUP(A277,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>FTJUDA1_</v>
       </c>
       <c r="D277" t="s">
@@ -9525,7 +9526,7 @@
         <v>462</v>
       </c>
       <c r="G277" t="e">
-        <f>VLOOKUP(F277,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I277" t="s">
@@ -9537,7 +9538,7 @@
         <v>282</v>
       </c>
       <c r="B278" t="str">
-        <f>VLOOKUP(A278,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>FRUTDA1_</v>
       </c>
       <c r="D278" t="s">
@@ -9547,7 +9548,7 @@
         <v>463</v>
       </c>
       <c r="G278" t="e">
-        <f>VLOOKUP(F278,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I278" t="s">
@@ -9559,7 +9560,7 @@
         <v>283</v>
       </c>
       <c r="B279" t="str">
-        <f>VLOOKUP(A279,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>BEANDAY_</v>
       </c>
       <c r="D279" t="s">
@@ -9569,7 +9570,7 @@
         <v>464</v>
       </c>
       <c r="G279" t="e">
-        <f>VLOOKUP(F279,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I279" t="s">
@@ -9581,7 +9582,7 @@
         <v>284</v>
       </c>
       <c r="B280" t="str">
-        <f>VLOOKUP(A280,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>GRENDAY_</v>
       </c>
       <c r="D280" t="s">
@@ -9591,7 +9592,7 @@
         <v>465</v>
       </c>
       <c r="G280" t="e">
-        <f>VLOOKUP(F280,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I280" t="s">
@@ -9603,7 +9604,7 @@
         <v>285</v>
       </c>
       <c r="B281" t="str">
-        <f>VLOOKUP(A281,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>ORNGDAY_</v>
       </c>
       <c r="D281" t="s">
@@ -9613,7 +9614,7 @@
         <v>466</v>
       </c>
       <c r="G281" t="e">
-        <f>VLOOKUP(F281,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I281" t="s">
@@ -9625,7 +9626,7 @@
         <v>286</v>
       </c>
       <c r="B282" t="str">
-        <f>VLOOKUP(A282,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>VEGEDA1_</v>
       </c>
       <c r="D282" t="s">
@@ -9635,7 +9636,7 @@
         <v>467</v>
       </c>
       <c r="G282" t="e">
-        <f>VLOOKUP(F282,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I282" t="s">
@@ -9647,7 +9648,7 @@
         <v>287</v>
       </c>
       <c r="B283" t="str">
-        <f>VLOOKUP(A283,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_MISFRTN</v>
       </c>
       <c r="D283" t="s">
@@ -9657,7 +9658,7 @@
         <v>468</v>
       </c>
       <c r="G283" t="e">
-        <f>VLOOKUP(F283,A:A,1,0)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I283" t="s">
@@ -9669,7 +9670,7 @@
         <v>288</v>
       </c>
       <c r="B284" t="str">
-        <f>VLOOKUP(A284,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_MISVEGN</v>
       </c>
       <c r="D284" t="s">
@@ -9695,7 +9696,7 @@
         <v>289</v>
       </c>
       <c r="B285" t="str">
-        <f>VLOOKUP(A285,F:F,1,0)</f>
+        <f t="shared" si="30"/>
         <v>_FRTRESP</v>
       </c>
       <c r="D285" t="s">
@@ -9721,7 +9722,7 @@
         <v>290</v>
       </c>
       <c r="B286" t="str">
-        <f>VLOOKUP(A286,F:F,1,0)</f>
+        <f t="shared" ref="B286:B317" si="34">VLOOKUP(A286,F:F,1,0)</f>
         <v>_VEGRESP</v>
       </c>
       <c r="D286" t="s">
@@ -9731,7 +9732,7 @@
         <v>211</v>
       </c>
       <c r="G286" t="str">
-        <f>VLOOKUP(F286,A:A,1,0)</f>
+        <f t="shared" ref="G286:G317" si="35">VLOOKUP(F286,A:A,1,0)</f>
         <v>SCNTPAID</v>
       </c>
       <c r="H286">
@@ -9748,11 +9749,11 @@
         <v>291</v>
       </c>
       <c r="B287" t="str">
-        <f>VLOOKUP(A287,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>_FRUTSUM</v>
       </c>
       <c r="C287" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D287" t="s">
         <v>566</v>
@@ -9761,7 +9762,7 @@
         <v>212</v>
       </c>
       <c r="G287" t="str">
-        <f>VLOOKUP(F287,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>SCNTWRK1</v>
       </c>
       <c r="H287">
@@ -9778,11 +9779,11 @@
         <v>292</v>
       </c>
       <c r="B288" t="str">
-        <f>VLOOKUP(A288,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>_VEGESUM</v>
       </c>
       <c r="C288" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D288" t="s">
         <v>566</v>
@@ -9791,7 +9792,7 @@
         <v>213</v>
       </c>
       <c r="G288" t="str">
-        <f>VLOOKUP(F288,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>SCNTLPAD</v>
       </c>
       <c r="H288">
@@ -9808,7 +9809,7 @@
         <v>293</v>
       </c>
       <c r="B289" t="e">
-        <f>VLOOKUP(A289,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D289" t="s">
@@ -9818,7 +9819,7 @@
         <v>214</v>
       </c>
       <c r="G289" t="str">
-        <f>VLOOKUP(F289,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>SCNTLWK1</v>
       </c>
       <c r="H289">
@@ -9835,7 +9836,7 @@
         <v>294</v>
       </c>
       <c r="B290" t="e">
-        <f>VLOOKUP(A290,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D290" t="s">
@@ -9845,7 +9846,7 @@
         <v>471</v>
       </c>
       <c r="G290" t="e">
-        <f>VLOOKUP(F290,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I290" t="s">
@@ -9857,7 +9858,7 @@
         <v>8</v>
       </c>
       <c r="B291" t="str">
-        <f>VLOOKUP(A291,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>_FRT16</v>
       </c>
       <c r="D291" t="s">
@@ -9867,7 +9868,7 @@
         <v>472</v>
       </c>
       <c r="G291" t="e">
-        <f>VLOOKUP(F291,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I291" t="s">
@@ -9879,7 +9880,7 @@
         <v>9</v>
       </c>
       <c r="B292" t="str">
-        <f>VLOOKUP(A292,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>_VEG23</v>
       </c>
       <c r="D292" t="s">
@@ -9889,7 +9890,7 @@
         <v>221</v>
       </c>
       <c r="G292" t="str">
-        <f>VLOOKUP(F292,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>EMTSUPRT</v>
       </c>
       <c r="H292" t="str">
@@ -9906,7 +9907,7 @@
         <v>295</v>
       </c>
       <c r="B293" t="str">
-        <f>VLOOKUP(A293,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>_FRUITEX</v>
       </c>
       <c r="D293" t="s">
@@ -9916,7 +9917,7 @@
         <v>222</v>
       </c>
       <c r="G293" t="str">
-        <f>VLOOKUP(F293,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>LSATISFY</v>
       </c>
       <c r="H293" t="str">
@@ -9933,7 +9934,7 @@
         <v>296</v>
       </c>
       <c r="B294" t="str">
-        <f>VLOOKUP(A294,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>_VEGETEX</v>
       </c>
       <c r="D294" t="s">
@@ -9943,7 +9944,7 @@
         <v>473</v>
       </c>
       <c r="G294" t="e">
-        <f>VLOOKUP(F294,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I294" t="s">
@@ -9955,7 +9956,7 @@
         <v>297</v>
       </c>
       <c r="B295" t="str">
-        <f>VLOOKUP(A295,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>_TOTINDA</v>
       </c>
       <c r="D295" t="s">
@@ -9965,7 +9966,7 @@
         <v>474</v>
       </c>
       <c r="G295" t="e">
-        <f>VLOOKUP(F295,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I295" t="s">
@@ -9977,7 +9978,7 @@
         <v>298</v>
       </c>
       <c r="B296" t="e">
-        <f>VLOOKUP(A296,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D296" t="s">
@@ -9987,7 +9988,7 @@
         <v>475</v>
       </c>
       <c r="G296" t="e">
-        <f>VLOOKUP(F296,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I296" t="s">
@@ -9999,7 +10000,7 @@
         <v>299</v>
       </c>
       <c r="B297" t="e">
-        <f>VLOOKUP(A297,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D297" t="s">
@@ -10009,7 +10010,7 @@
         <v>476</v>
       </c>
       <c r="G297" t="e">
-        <f>VLOOKUP(F297,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I297" t="s">
@@ -10021,7 +10022,7 @@
         <v>300</v>
       </c>
       <c r="B298" t="str">
-        <f>VLOOKUP(A298,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>MAXVO2_</v>
       </c>
       <c r="D298" t="s">
@@ -10031,7 +10032,7 @@
         <v>477</v>
       </c>
       <c r="G298" t="e">
-        <f>VLOOKUP(F298,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I298" t="s">
@@ -10043,7 +10044,7 @@
         <v>301</v>
       </c>
       <c r="B299" t="str">
-        <f>VLOOKUP(A299,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>FC60_</v>
       </c>
       <c r="D299" t="s">
@@ -10053,7 +10054,7 @@
         <v>478</v>
       </c>
       <c r="G299" t="e">
-        <f>VLOOKUP(F299,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I299" t="s">
@@ -10065,7 +10066,7 @@
         <v>302</v>
       </c>
       <c r="B300" t="e">
-        <f>VLOOKUP(A300,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D300" t="s">
@@ -10075,7 +10076,7 @@
         <v>479</v>
       </c>
       <c r="G300" t="e">
-        <f>VLOOKUP(F300,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I300" t="s">
@@ -10087,7 +10088,7 @@
         <v>303</v>
       </c>
       <c r="B301" t="e">
-        <f>VLOOKUP(A301,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D301" t="s">
@@ -10097,7 +10098,7 @@
         <v>480</v>
       </c>
       <c r="G301" t="e">
-        <f>VLOOKUP(F301,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I301" t="s">
@@ -10109,7 +10110,7 @@
         <v>304</v>
       </c>
       <c r="B302" t="str">
-        <f>VLOOKUP(A302,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>PADUR1_</v>
       </c>
       <c r="D302" t="s">
@@ -10119,7 +10120,7 @@
         <v>481</v>
       </c>
       <c r="G302" t="e">
-        <f>VLOOKUP(F302,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I302" t="s">
@@ -10131,7 +10132,7 @@
         <v>305</v>
       </c>
       <c r="B303" t="str">
-        <f>VLOOKUP(A303,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>PADUR2_</v>
       </c>
       <c r="D303" t="s">
@@ -10141,7 +10142,7 @@
         <v>482</v>
       </c>
       <c r="G303" t="e">
-        <f>VLOOKUP(F303,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I303" t="s">
@@ -10153,7 +10154,7 @@
         <v>306</v>
       </c>
       <c r="B304" t="str">
-        <f>VLOOKUP(A304,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>PAFREQ1_</v>
       </c>
       <c r="D304" t="s">
@@ -10163,7 +10164,7 @@
         <v>483</v>
       </c>
       <c r="G304" t="e">
-        <f>VLOOKUP(F304,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I304" t="s">
@@ -10175,7 +10176,7 @@
         <v>307</v>
       </c>
       <c r="B305" t="str">
-        <f>VLOOKUP(A305,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>PAFREQ2_</v>
       </c>
       <c r="D305" t="s">
@@ -10185,7 +10186,7 @@
         <v>484</v>
       </c>
       <c r="G305" t="e">
-        <f>VLOOKUP(F305,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I305" t="s">
@@ -10197,7 +10198,7 @@
         <v>308</v>
       </c>
       <c r="B306" t="e">
-        <f>VLOOKUP(A306,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D306" t="s">
@@ -10207,7 +10208,7 @@
         <v>217</v>
       </c>
       <c r="G306" t="str">
-        <f>VLOOKUP(F306,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>RCSGENDR</v>
       </c>
       <c r="H306">
@@ -10224,7 +10225,7 @@
         <v>309</v>
       </c>
       <c r="B307" t="e">
-        <f>VLOOKUP(A307,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D307" t="s">
@@ -10234,7 +10235,7 @@
         <v>485</v>
       </c>
       <c r="G307" t="e">
-        <f>VLOOKUP(F307,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I307" t="s">
@@ -10246,7 +10247,7 @@
         <v>310</v>
       </c>
       <c r="B308" t="str">
-        <f>VLOOKUP(A308,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>STRFREQ_</v>
       </c>
       <c r="D308" t="s">
@@ -10256,7 +10257,7 @@
         <v>486</v>
       </c>
       <c r="G308" t="e">
-        <f>VLOOKUP(F308,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I308" t="s">
@@ -10268,7 +10269,7 @@
         <v>311</v>
       </c>
       <c r="B309" t="e">
-        <f>VLOOKUP(A309,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D309" t="s">
@@ -10278,7 +10279,7 @@
         <v>487</v>
       </c>
       <c r="G309" t="e">
-        <f>VLOOKUP(F309,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I309" t="s">
@@ -10290,7 +10291,7 @@
         <v>312</v>
       </c>
       <c r="B310" t="e">
-        <f>VLOOKUP(A310,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D310" t="s">
@@ -10300,7 +10301,7 @@
         <v>218</v>
       </c>
       <c r="G310" t="str">
-        <f>VLOOKUP(F310,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>RCSRLTN2</v>
       </c>
       <c r="H310">
@@ -10317,7 +10318,7 @@
         <v>313</v>
       </c>
       <c r="B311" t="e">
-        <f>VLOOKUP(A311,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D311" t="s">
@@ -10327,7 +10328,7 @@
         <v>219</v>
       </c>
       <c r="G311" t="str">
-        <f>VLOOKUP(F311,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>CASTHDX2</v>
       </c>
       <c r="H311">
@@ -10344,7 +10345,7 @@
         <v>314</v>
       </c>
       <c r="B312" t="e">
-        <f>VLOOKUP(A312,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D312" t="s">
@@ -10354,7 +10355,7 @@
         <v>220</v>
       </c>
       <c r="G312" t="str">
-        <f>VLOOKUP(F312,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>CASTHNO2</v>
       </c>
       <c r="H312">
@@ -10371,7 +10372,7 @@
         <v>315</v>
       </c>
       <c r="B313" t="e">
-        <f>VLOOKUP(A313,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D313" t="s">
@@ -10381,7 +10382,7 @@
         <v>488</v>
       </c>
       <c r="G313" t="e">
-        <f>VLOOKUP(F313,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I313" t="s">
@@ -10393,7 +10394,7 @@
         <v>316</v>
       </c>
       <c r="B314" t="e">
-        <f>VLOOKUP(A314,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D314" t="s">
@@ -10403,7 +10404,7 @@
         <v>489</v>
       </c>
       <c r="G314" t="e">
-        <f>VLOOKUP(F314,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I314" t="s">
@@ -10415,7 +10416,7 @@
         <v>317</v>
       </c>
       <c r="B315" t="e">
-        <f>VLOOKUP(A315,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D315" t="s">
@@ -10425,7 +10426,7 @@
         <v>490</v>
       </c>
       <c r="G315" t="e">
-        <f>VLOOKUP(F315,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I315" t="s">
@@ -10437,7 +10438,7 @@
         <v>318</v>
       </c>
       <c r="B316" t="e">
-        <f>VLOOKUP(A316,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D316" t="s">
@@ -10447,7 +10448,7 @@
         <v>491</v>
       </c>
       <c r="G316" t="e">
-        <f>VLOOKUP(F316,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I316" t="s">
@@ -10459,7 +10460,7 @@
         <v>319</v>
       </c>
       <c r="B317" t="e">
-        <f>VLOOKUP(A317,F:F,1,0)</f>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="D317" t="s">
@@ -10469,7 +10470,7 @@
         <v>492</v>
       </c>
       <c r="G317" t="e">
-        <f>VLOOKUP(F317,A:A,1,0)</f>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="I317" t="s">
@@ -10481,7 +10482,7 @@
         <v>320</v>
       </c>
       <c r="B318" t="e">
-        <f>VLOOKUP(A318,F:F,1,0)</f>
+        <f t="shared" ref="B318:B349" si="36">VLOOKUP(A318,F:F,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D318" t="s">
@@ -10491,7 +10492,7 @@
         <v>41</v>
       </c>
       <c r="G318" t="str">
-        <f>VLOOKUP(F318,A:A,1,0)</f>
+        <f t="shared" ref="G318:G349" si="37">VLOOKUP(F318,A:A,1,0)</f>
         <v>CTELNUM1</v>
       </c>
       <c r="H318">
@@ -10508,7 +10509,7 @@
         <v>321</v>
       </c>
       <c r="B319" t="e">
-        <f>VLOOKUP(A319,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="D319" t="s">
@@ -10518,7 +10519,7 @@
         <v>42</v>
       </c>
       <c r="G319" t="str">
-        <f>VLOOKUP(F319,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>CELLFON2</v>
       </c>
       <c r="H319">
@@ -10535,7 +10536,7 @@
         <v>322</v>
       </c>
       <c r="B320" t="e">
-        <f>VLOOKUP(A320,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="D320" t="s">
@@ -10545,7 +10546,7 @@
         <v>43</v>
       </c>
       <c r="G320" t="str">
-        <f>VLOOKUP(F320,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>CADULT</v>
       </c>
       <c r="H320">
@@ -10562,7 +10563,7 @@
         <v>323</v>
       </c>
       <c r="B321" t="str">
-        <f>VLOOKUP(A321,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>_PASTRNG</v>
       </c>
       <c r="D321" t="s">
@@ -10572,7 +10573,7 @@
         <v>44</v>
       </c>
       <c r="G321" t="str">
-        <f>VLOOKUP(F321,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>PVTRESD2</v>
       </c>
       <c r="H321">
@@ -10589,7 +10590,7 @@
         <v>324</v>
       </c>
       <c r="B322" t="e">
-        <f>VLOOKUP(A322,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="D322" t="s">
@@ -10599,7 +10600,7 @@
         <v>46</v>
       </c>
       <c r="G322" t="str">
-        <f>VLOOKUP(F322,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>CSTATE</v>
       </c>
       <c r="H322">
@@ -10616,7 +10617,7 @@
         <v>325</v>
       </c>
       <c r="B323" t="e">
-        <f>VLOOKUP(A323,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="D323" t="s">
@@ -10626,7 +10627,7 @@
         <v>493</v>
       </c>
       <c r="G323" t="e">
-        <f>VLOOKUP(F323,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I323" t="s">
@@ -10638,7 +10639,7 @@
         <v>326</v>
       </c>
       <c r="B324" t="e">
-        <f>VLOOKUP(A324,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="D324" t="s">
@@ -10648,7 +10649,7 @@
         <v>47</v>
       </c>
       <c r="G324" t="str">
-        <f>VLOOKUP(F324,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>LANDLINE</v>
       </c>
       <c r="H324">
@@ -10665,7 +10666,7 @@
         <v>327</v>
       </c>
       <c r="B325" t="e">
-        <f>VLOOKUP(A325,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="D325" t="s">
@@ -10675,7 +10676,7 @@
         <v>494</v>
       </c>
       <c r="G325" t="e">
-        <f>VLOOKUP(F325,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I325" t="s">
@@ -10687,7 +10688,7 @@
         <v>328</v>
       </c>
       <c r="B326" t="e">
-        <f>VLOOKUP(A326,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="D326" t="s">
@@ -10697,7 +10698,7 @@
         <v>233</v>
       </c>
       <c r="G326" t="str">
-        <f>VLOOKUP(F326,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>QSTVER</v>
       </c>
       <c r="H326">
@@ -10714,7 +10715,7 @@
         <v>329</v>
       </c>
       <c r="B327" t="str">
-        <f>VLOOKUP(A327,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>_RFSEAT2</v>
       </c>
       <c r="D327" t="s">
@@ -10724,7 +10725,7 @@
         <v>234</v>
       </c>
       <c r="G327" t="str">
-        <f>VLOOKUP(F327,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>QSTLANG</v>
       </c>
       <c r="H327">
@@ -10741,7 +10742,7 @@
         <v>330</v>
       </c>
       <c r="B328" t="str">
-        <f>VLOOKUP(A328,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>_RFSEAT3</v>
       </c>
       <c r="D328" t="s">
@@ -10751,7 +10752,7 @@
         <v>237</v>
       </c>
       <c r="G328" t="str">
-        <f>VLOOKUP(F328,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>MSCODE</v>
       </c>
       <c r="H328" t="str">
@@ -10768,7 +10769,7 @@
         <v>331</v>
       </c>
       <c r="B329" t="e">
-        <f>VLOOKUP(A329,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="D329" t="s">
@@ -10778,7 +10779,7 @@
         <v>238</v>
       </c>
       <c r="G329" t="str">
-        <f>VLOOKUP(F329,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>_STSTR</v>
       </c>
       <c r="H329">
@@ -10795,7 +10796,7 @@
         <v>332</v>
       </c>
       <c r="B330" t="str">
-        <f>VLOOKUP(A330,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>_PNEUMO2</v>
       </c>
       <c r="D330" t="s">
@@ -10805,7 +10806,7 @@
         <v>239</v>
       </c>
       <c r="G330" t="str">
-        <f>VLOOKUP(F330,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>_STRWT</v>
       </c>
       <c r="H330">
@@ -10822,7 +10823,7 @@
         <v>333</v>
       </c>
       <c r="B331" t="str">
-        <f>VLOOKUP(A331,F:F,1,0)</f>
+        <f t="shared" si="36"/>
         <v>_AIDTST3</v>
       </c>
       <c r="D331" t="s">
@@ -10832,7 +10833,7 @@
         <v>495</v>
       </c>
       <c r="G331" t="e">
-        <f>VLOOKUP(F331,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I331" t="s">
@@ -10844,7 +10845,7 @@
         <v>496</v>
       </c>
       <c r="G332" t="e">
-        <f>VLOOKUP(F332,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I332" t="s">
@@ -10856,7 +10857,7 @@
         <v>240</v>
       </c>
       <c r="G333" t="str">
-        <f>VLOOKUP(F333,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>_RAWRAKE</v>
       </c>
       <c r="H333">
@@ -10873,7 +10874,7 @@
         <v>241</v>
       </c>
       <c r="G334" t="str">
-        <f>VLOOKUP(F334,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>_WT2RAKE</v>
       </c>
       <c r="H334">
@@ -10890,7 +10891,7 @@
         <v>497</v>
       </c>
       <c r="G335" t="e">
-        <f>VLOOKUP(F335,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I335" t="s">
@@ -10902,7 +10903,7 @@
         <v>498</v>
       </c>
       <c r="G336" t="e">
-        <f>VLOOKUP(F336,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I336" t="s">
@@ -10914,7 +10915,7 @@
         <v>499</v>
       </c>
       <c r="G337" t="e">
-        <f>VLOOKUP(F337,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I337" t="s">
@@ -10926,7 +10927,7 @@
         <v>500</v>
       </c>
       <c r="G338" t="e">
-        <f>VLOOKUP(F338,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I338" t="s">
@@ -10938,7 +10939,7 @@
         <v>501</v>
       </c>
       <c r="G339" t="e">
-        <f>VLOOKUP(F339,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I339" t="s">
@@ -10950,7 +10951,7 @@
         <v>502</v>
       </c>
       <c r="G340" t="e">
-        <f>VLOOKUP(F340,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I340" t="s">
@@ -10962,7 +10963,7 @@
         <v>503</v>
       </c>
       <c r="G341" t="e">
-        <f>VLOOKUP(F341,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I341" t="s">
@@ -10974,7 +10975,7 @@
         <v>504</v>
       </c>
       <c r="G342" t="e">
-        <f>VLOOKUP(F342,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I342" t="s">
@@ -10986,7 +10987,7 @@
         <v>505</v>
       </c>
       <c r="G343" t="e">
-        <f>VLOOKUP(F343,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I343" t="s">
@@ -10998,7 +10999,7 @@
         <v>506</v>
       </c>
       <c r="G344" t="e">
-        <f>VLOOKUP(F344,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I344" t="s">
@@ -11010,7 +11011,7 @@
         <v>507</v>
       </c>
       <c r="G345" t="e">
-        <f>VLOOKUP(F345,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I345" t="s">
@@ -11022,7 +11023,7 @@
         <v>508</v>
       </c>
       <c r="G346" t="e">
-        <f>VLOOKUP(F346,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I346" t="s">
@@ -11034,7 +11035,7 @@
         <v>509</v>
       </c>
       <c r="G347" t="e">
-        <f>VLOOKUP(F347,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I347" t="s">
@@ -11046,7 +11047,7 @@
         <v>510</v>
       </c>
       <c r="G348" t="e">
-        <f>VLOOKUP(F348,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I348" t="s">
@@ -11058,7 +11059,7 @@
         <v>511</v>
       </c>
       <c r="G349" t="e">
-        <f>VLOOKUP(F349,A:A,1,0)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="I349" t="s">
@@ -11070,7 +11071,7 @@
         <v>245</v>
       </c>
       <c r="G350" t="str">
-        <f>VLOOKUP(F350,A:A,1,0)</f>
+        <f t="shared" ref="G350:G381" si="38">VLOOKUP(F350,A:A,1,0)</f>
         <v>_CLLCPWT</v>
       </c>
       <c r="H350">
@@ -11087,7 +11088,7 @@
         <v>512</v>
       </c>
       <c r="G351" t="e">
-        <f>VLOOKUP(F351,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I351" t="s">
@@ -11099,7 +11100,7 @@
         <v>513</v>
       </c>
       <c r="G352" t="e">
-        <f>VLOOKUP(F352,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I352" t="s">
@@ -11111,7 +11112,7 @@
         <v>514</v>
       </c>
       <c r="G353" t="e">
-        <f>VLOOKUP(F353,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I353" t="s">
@@ -11123,7 +11124,7 @@
         <v>515</v>
       </c>
       <c r="G354" t="e">
-        <f>VLOOKUP(F354,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I354" t="s">
@@ -11135,7 +11136,7 @@
         <v>516</v>
       </c>
       <c r="G355" t="e">
-        <f>VLOOKUP(F355,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I355" t="s">
@@ -11147,7 +11148,7 @@
         <v>517</v>
       </c>
       <c r="G356" t="e">
-        <f>VLOOKUP(F356,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I356" t="s">
@@ -11159,7 +11160,7 @@
         <v>518</v>
       </c>
       <c r="G357" t="e">
-        <f>VLOOKUP(F357,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I357" t="s">
@@ -11171,7 +11172,7 @@
         <v>519</v>
       </c>
       <c r="G358" t="e">
-        <f>VLOOKUP(F358,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I358" t="s">
@@ -11183,7 +11184,7 @@
         <v>520</v>
       </c>
       <c r="G359" t="e">
-        <f>VLOOKUP(F359,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I359" t="s">
@@ -11195,7 +11196,7 @@
         <v>521</v>
       </c>
       <c r="G360" t="e">
-        <f>VLOOKUP(F360,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I360" t="s">
@@ -11207,7 +11208,7 @@
         <v>522</v>
       </c>
       <c r="G361" t="e">
-        <f>VLOOKUP(F361,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I361" t="s">
@@ -11219,7 +11220,7 @@
         <v>523</v>
       </c>
       <c r="G362" t="e">
-        <f>VLOOKUP(F362,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I362" t="s">
@@ -11231,15 +11232,15 @@
         <v>248</v>
       </c>
       <c r="G363" t="str">
-        <f>VLOOKUP(F363,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_LLCPWT</v>
       </c>
       <c r="H363">
-        <f>VLOOKUP(F363,A:C,3,0)</f>
+        <f t="shared" ref="H363:H374" si="39">VLOOKUP(F363,A:C,3,0)</f>
         <v>0</v>
       </c>
       <c r="I363" t="str">
-        <f>VLOOKUP(F363,A:D,4,0)</f>
+        <f t="shared" ref="I363:I374" si="40">VLOOKUP(F363,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -11248,15 +11249,15 @@
         <v>249</v>
       </c>
       <c r="G364" t="str">
-        <f>VLOOKUP(F364,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_RFHLTH</v>
       </c>
       <c r="H364" t="str">
-        <f>VLOOKUP(F364,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>Adults with good or better health</v>
       </c>
       <c r="I364" t="str">
-        <f>VLOOKUP(F364,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11265,15 +11266,15 @@
         <v>250</v>
       </c>
       <c r="G365" t="str">
-        <f>VLOOKUP(F365,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_HCVU651</v>
       </c>
       <c r="H365" t="str">
-        <f>VLOOKUP(F365,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>Respondents aged 18-64 who have any form of health care coverage</v>
       </c>
       <c r="I365" t="str">
-        <f>VLOOKUP(F365,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11282,15 +11283,15 @@
         <v>251</v>
       </c>
       <c r="G366" t="str">
-        <f>VLOOKUP(F366,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_RFHYPE5</v>
       </c>
       <c r="H366">
-        <f>VLOOKUP(F366,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I366" t="str">
-        <f>VLOOKUP(F366,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11299,15 +11300,15 @@
         <v>252</v>
       </c>
       <c r="G367" t="str">
-        <f>VLOOKUP(F367,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_CHOLCHK</v>
       </c>
       <c r="H367">
-        <f>VLOOKUP(F367,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I367" t="str">
-        <f>VLOOKUP(F367,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11316,15 +11317,15 @@
         <v>253</v>
       </c>
       <c r="G368" t="str">
-        <f>VLOOKUP(F368,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_RFCHOL</v>
       </c>
       <c r="H368">
-        <f>VLOOKUP(F368,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I368" t="str">
-        <f>VLOOKUP(F368,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11333,15 +11334,15 @@
         <v>255</v>
       </c>
       <c r="G369" t="str">
-        <f>VLOOKUP(F369,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_LTASTH1</v>
       </c>
       <c r="H369">
-        <f>VLOOKUP(F369,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I369" t="str">
-        <f>VLOOKUP(F369,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11350,15 +11351,15 @@
         <v>256</v>
       </c>
       <c r="G370" t="str">
-        <f>VLOOKUP(F370,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_CASTHM1</v>
       </c>
       <c r="H370">
-        <f>VLOOKUP(F370,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I370" t="str">
-        <f>VLOOKUP(F370,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11367,15 +11368,15 @@
         <v>257</v>
       </c>
       <c r="G371" t="str">
-        <f>VLOOKUP(F371,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_ASTHMS1</v>
       </c>
       <c r="H371">
-        <f>VLOOKUP(F371,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I371" t="str">
-        <f>VLOOKUP(F371,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11384,15 +11385,15 @@
         <v>258</v>
       </c>
       <c r="G372" t="str">
-        <f>VLOOKUP(F372,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_DRDXAR1</v>
       </c>
       <c r="H372">
-        <f>VLOOKUP(F372,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I372" t="str">
-        <f>VLOOKUP(F372,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11401,15 +11402,15 @@
         <v>3</v>
       </c>
       <c r="G373" t="str">
-        <f>VLOOKUP(F373,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_SMOKER3</v>
       </c>
       <c r="H373">
-        <f>VLOOKUP(F373,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I373" t="str">
-        <f>VLOOKUP(F373,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11418,15 +11419,15 @@
         <v>275</v>
       </c>
       <c r="G374" t="str">
-        <f>VLOOKUP(F374,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>_RFSMOK3</v>
       </c>
       <c r="H374">
-        <f>VLOOKUP(F374,A:C,3,0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I374" t="str">
-        <f>VLOOKUP(F374,A:D,4,0)</f>
+        <f t="shared" si="40"/>
         <v>drop</v>
       </c>
     </row>
@@ -11435,7 +11436,7 @@
         <v>524</v>
       </c>
       <c r="G375" t="e">
-        <f>VLOOKUP(F375,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I375" t="s">
@@ -11447,7 +11448,7 @@
         <v>525</v>
       </c>
       <c r="G376" t="e">
-        <f>VLOOKUP(F376,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I376" t="s">
@@ -11459,7 +11460,7 @@
         <v>526</v>
       </c>
       <c r="G377" t="e">
-        <f>VLOOKUP(F377,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I377" t="s">
@@ -11471,7 +11472,7 @@
         <v>527</v>
       </c>
       <c r="G378" t="e">
-        <f>VLOOKUP(F378,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I378" t="s">
@@ -11483,7 +11484,7 @@
         <v>528</v>
       </c>
       <c r="G379" t="e">
-        <f>VLOOKUP(F379,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I379" t="s">
@@ -11495,7 +11496,7 @@
         <v>529</v>
       </c>
       <c r="G380" t="e">
-        <f>VLOOKUP(F380,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I380" t="s">
@@ -11507,7 +11508,7 @@
         <v>530</v>
       </c>
       <c r="G381" t="e">
-        <f>VLOOKUP(F381,A:A,1,0)</f>
+        <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
       <c r="I381" t="s">
@@ -11519,7 +11520,7 @@
         <v>531</v>
       </c>
       <c r="G382" t="e">
-        <f>VLOOKUP(F382,A:A,1,0)</f>
+        <f t="shared" ref="G382:G413" si="41">VLOOKUP(F382,A:A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I382" t="s">
@@ -11531,7 +11532,7 @@
         <v>532</v>
       </c>
       <c r="G383" t="e">
-        <f>VLOOKUP(F383,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="I383" t="s">
@@ -11543,7 +11544,7 @@
         <v>533</v>
       </c>
       <c r="G384" t="e">
-        <f>VLOOKUP(F384,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="I384" t="s">
@@ -11555,15 +11556,15 @@
         <v>18</v>
       </c>
       <c r="G385" t="str">
-        <f>VLOOKUP(F385,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_AGEG5YR</v>
       </c>
       <c r="H385">
-        <f>VLOOKUP(F385,A:C,3,0)</f>
+        <f t="shared" ref="H385:H413" si="42">VLOOKUP(F385,A:C,3,0)</f>
         <v>0</v>
       </c>
       <c r="I385" t="str">
-        <f>VLOOKUP(F385,A:D,4,0)</f>
+        <f t="shared" ref="I385:I413" si="43">VLOOKUP(F385,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -11572,15 +11573,15 @@
         <v>266</v>
       </c>
       <c r="G386" t="str">
-        <f>VLOOKUP(F386,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_AGE65YR</v>
       </c>
       <c r="H386">
-        <f>VLOOKUP(F386,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I386" t="str">
-        <f>VLOOKUP(F386,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11589,15 +11590,15 @@
         <v>268</v>
       </c>
       <c r="G387" t="str">
-        <f>VLOOKUP(F387,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_AGE_G</v>
       </c>
       <c r="H387" t="str">
-        <f>VLOOKUP(F387,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>Six-level imputed age category</v>
       </c>
       <c r="I387" t="str">
-        <f>VLOOKUP(F387,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>Feature</v>
       </c>
     </row>
@@ -11606,15 +11607,15 @@
         <v>269</v>
       </c>
       <c r="G388" t="str">
-        <f>VLOOKUP(F388,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>HTIN4</v>
       </c>
       <c r="H388">
-        <f>VLOOKUP(F388,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I388" t="str">
-        <f>VLOOKUP(F388,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11623,15 +11624,15 @@
         <v>270</v>
       </c>
       <c r="G389" t="str">
-        <f>VLOOKUP(F389,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>HTM4</v>
       </c>
       <c r="H389" t="str">
-        <f>VLOOKUP(F389,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>Reported height in meters</v>
       </c>
       <c r="I389" t="str">
-        <f>VLOOKUP(F389,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>Feature</v>
       </c>
     </row>
@@ -11640,15 +11641,15 @@
         <v>271</v>
       </c>
       <c r="G390" t="str">
-        <f>VLOOKUP(F390,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>WTKG3</v>
       </c>
       <c r="H390" t="str">
-        <f>VLOOKUP(F390,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>Reported weight in kilograms</v>
       </c>
       <c r="I390" t="str">
-        <f>VLOOKUP(F390,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>Feature</v>
       </c>
     </row>
@@ -11657,15 +11658,15 @@
         <v>2</v>
       </c>
       <c r="G391" t="str">
-        <f>VLOOKUP(F391,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_BMI5</v>
       </c>
       <c r="H391" t="str">
-        <f>VLOOKUP(F391,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>Body Mass Index (BMI)</v>
       </c>
       <c r="I391" t="str">
-        <f>VLOOKUP(F391,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>Feature</v>
       </c>
     </row>
@@ -11674,15 +11675,15 @@
         <v>272</v>
       </c>
       <c r="G392" t="str">
-        <f>VLOOKUP(F392,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_BMI5CAT</v>
       </c>
       <c r="H392">
-        <f>VLOOKUP(F392,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I392" t="str">
-        <f>VLOOKUP(F392,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11691,15 +11692,15 @@
         <v>273</v>
       </c>
       <c r="G393" t="str">
-        <f>VLOOKUP(F393,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_RFBMI5</v>
       </c>
       <c r="H393">
-        <f>VLOOKUP(F393,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I393" t="str">
-        <f>VLOOKUP(F393,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11708,15 +11709,15 @@
         <v>274</v>
       </c>
       <c r="G394" t="str">
-        <f>VLOOKUP(F394,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_CHLDCNT</v>
       </c>
       <c r="H394">
-        <f>VLOOKUP(F394,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I394" t="str">
-        <f>VLOOKUP(F394,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11725,15 +11726,15 @@
         <v>19</v>
       </c>
       <c r="G395" t="str">
-        <f>VLOOKUP(F395,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_EDUCAG</v>
       </c>
       <c r="H395">
-        <f>VLOOKUP(F395,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I395" t="str">
-        <f>VLOOKUP(F395,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11742,15 +11743,15 @@
         <v>20</v>
       </c>
       <c r="G396" t="str">
-        <f>VLOOKUP(F396,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_INCOMG</v>
       </c>
       <c r="H396">
-        <f>VLOOKUP(F396,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I396" t="str">
-        <f>VLOOKUP(F396,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11759,15 +11760,15 @@
         <v>281</v>
       </c>
       <c r="G397" t="str">
-        <f>VLOOKUP(F397,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>FTJUDA1_</v>
       </c>
       <c r="H397">
-        <f>VLOOKUP(F397,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I397" t="str">
-        <f>VLOOKUP(F397,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11776,15 +11777,15 @@
         <v>282</v>
       </c>
       <c r="G398" t="str">
-        <f>VLOOKUP(F398,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>FRUTDA1_</v>
       </c>
       <c r="H398">
-        <f>VLOOKUP(F398,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I398" t="str">
-        <f>VLOOKUP(F398,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11793,15 +11794,15 @@
         <v>283</v>
       </c>
       <c r="G399" t="str">
-        <f>VLOOKUP(F399,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>BEANDAY_</v>
       </c>
       <c r="H399">
-        <f>VLOOKUP(F399,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I399" t="str">
-        <f>VLOOKUP(F399,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11810,15 +11811,15 @@
         <v>284</v>
       </c>
       <c r="G400" t="str">
-        <f>VLOOKUP(F400,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>GRENDAY_</v>
       </c>
       <c r="H400">
-        <f>VLOOKUP(F400,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I400" t="str">
-        <f>VLOOKUP(F400,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11827,15 +11828,15 @@
         <v>285</v>
       </c>
       <c r="G401" t="str">
-        <f>VLOOKUP(F401,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>ORNGDAY_</v>
       </c>
       <c r="H401">
-        <f>VLOOKUP(F401,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I401" t="str">
-        <f>VLOOKUP(F401,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11844,15 +11845,15 @@
         <v>286</v>
       </c>
       <c r="G402" t="str">
-        <f>VLOOKUP(F402,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>VEGEDA1_</v>
       </c>
       <c r="H402">
-        <f>VLOOKUP(F402,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I402" t="str">
-        <f>VLOOKUP(F402,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11861,15 +11862,15 @@
         <v>287</v>
       </c>
       <c r="G403" t="str">
-        <f>VLOOKUP(F403,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_MISFRTN</v>
       </c>
       <c r="H403">
-        <f>VLOOKUP(F403,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I403" t="str">
-        <f>VLOOKUP(F403,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11878,15 +11879,15 @@
         <v>288</v>
       </c>
       <c r="G404" t="str">
-        <f>VLOOKUP(F404,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_MISVEGN</v>
       </c>
       <c r="H404">
-        <f>VLOOKUP(F404,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I404" t="str">
-        <f>VLOOKUP(F404,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11895,15 +11896,15 @@
         <v>289</v>
       </c>
       <c r="G405" t="str">
-        <f>VLOOKUP(F405,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_FRTRESP</v>
       </c>
       <c r="H405">
-        <f>VLOOKUP(F405,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I405" t="str">
-        <f>VLOOKUP(F405,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11912,15 +11913,15 @@
         <v>290</v>
       </c>
       <c r="G406" t="str">
-        <f>VLOOKUP(F406,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_VEGRESP</v>
       </c>
       <c r="H406">
-        <f>VLOOKUP(F406,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I406" t="str">
-        <f>VLOOKUP(F406,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11929,15 +11930,15 @@
         <v>291</v>
       </c>
       <c r="G407" t="str">
-        <f>VLOOKUP(F407,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_FRUTSUM</v>
       </c>
       <c r="H407" t="str">
-        <f>VLOOKUP(F407,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>Total fruits consumed per day</v>
       </c>
       <c r="I407" t="str">
-        <f>VLOOKUP(F407,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>Feature</v>
       </c>
     </row>
@@ -11946,15 +11947,15 @@
         <v>292</v>
       </c>
       <c r="G408" t="str">
-        <f>VLOOKUP(F408,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_VEGESUM</v>
       </c>
       <c r="H408" t="str">
-        <f>VLOOKUP(F408,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>Total vegetables consumed per day</v>
       </c>
       <c r="I408" t="str">
-        <f>VLOOKUP(F408,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>Feature</v>
       </c>
     </row>
@@ -11963,15 +11964,15 @@
         <v>8</v>
       </c>
       <c r="G409" t="str">
-        <f>VLOOKUP(F409,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_FRT16</v>
       </c>
       <c r="H409">
-        <f>VLOOKUP(F409,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I409" t="str">
-        <f>VLOOKUP(F409,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11980,15 +11981,15 @@
         <v>9</v>
       </c>
       <c r="G410" t="str">
-        <f>VLOOKUP(F410,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_VEG23</v>
       </c>
       <c r="H410">
-        <f>VLOOKUP(F410,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I410" t="str">
-        <f>VLOOKUP(F410,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -11997,15 +11998,15 @@
         <v>295</v>
       </c>
       <c r="G411" t="str">
-        <f>VLOOKUP(F411,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_FRUITEX</v>
       </c>
       <c r="H411">
-        <f>VLOOKUP(F411,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I411" t="str">
-        <f>VLOOKUP(F411,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -12014,15 +12015,15 @@
         <v>296</v>
       </c>
       <c r="G412" t="str">
-        <f>VLOOKUP(F412,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_VEGETEX</v>
       </c>
       <c r="H412">
-        <f>VLOOKUP(F412,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I412" t="str">
-        <f>VLOOKUP(F412,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -12031,15 +12032,15 @@
         <v>297</v>
       </c>
       <c r="G413" t="str">
-        <f>VLOOKUP(F413,A:A,1,0)</f>
+        <f t="shared" si="41"/>
         <v>_TOTINDA</v>
       </c>
       <c r="H413">
-        <f>VLOOKUP(F413,A:C,3,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I413" t="str">
-        <f>VLOOKUP(F413,A:D,4,0)</f>
+        <f t="shared" si="43"/>
         <v>drop</v>
       </c>
     </row>
@@ -12048,7 +12049,7 @@
         <v>534</v>
       </c>
       <c r="G414" t="e">
-        <f>VLOOKUP(F414,A:A,1,0)</f>
+        <f t="shared" ref="G414:G445" si="44">VLOOKUP(F414,A:A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I414" t="s">
@@ -12060,7 +12061,7 @@
         <v>535</v>
       </c>
       <c r="G415" t="e">
-        <f>VLOOKUP(F415,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I415" t="s">
@@ -12072,7 +12073,7 @@
         <v>300</v>
       </c>
       <c r="G416" t="str">
-        <f>VLOOKUP(F416,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>MAXVO2_</v>
       </c>
       <c r="H416">
@@ -12089,7 +12090,7 @@
         <v>301</v>
       </c>
       <c r="G417" t="str">
-        <f>VLOOKUP(F417,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>FC60_</v>
       </c>
       <c r="H417">
@@ -12106,7 +12107,7 @@
         <v>536</v>
       </c>
       <c r="G418" t="e">
-        <f>VLOOKUP(F418,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I418" t="s">
@@ -12118,7 +12119,7 @@
         <v>537</v>
       </c>
       <c r="G419" t="e">
-        <f>VLOOKUP(F419,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I419" t="s">
@@ -12130,7 +12131,7 @@
         <v>304</v>
       </c>
       <c r="G420" t="str">
-        <f>VLOOKUP(F420,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>PADUR1_</v>
       </c>
       <c r="H420">
@@ -12147,7 +12148,7 @@
         <v>305</v>
       </c>
       <c r="G421" t="str">
-        <f>VLOOKUP(F421,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>PADUR2_</v>
       </c>
       <c r="H421">
@@ -12164,7 +12165,7 @@
         <v>306</v>
       </c>
       <c r="G422" t="str">
-        <f>VLOOKUP(F422,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>PAFREQ1_</v>
       </c>
       <c r="H422">
@@ -12181,7 +12182,7 @@
         <v>307</v>
       </c>
       <c r="G423" t="str">
-        <f>VLOOKUP(F423,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>PAFREQ2_</v>
       </c>
       <c r="H423">
@@ -12198,7 +12199,7 @@
         <v>538</v>
       </c>
       <c r="G424" t="e">
-        <f>VLOOKUP(F424,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I424" t="s">
@@ -12210,7 +12211,7 @@
         <v>539</v>
       </c>
       <c r="G425" t="e">
-        <f>VLOOKUP(F425,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I425" t="s">
@@ -12222,7 +12223,7 @@
         <v>310</v>
       </c>
       <c r="G426" t="str">
-        <f>VLOOKUP(F426,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>STRFREQ_</v>
       </c>
       <c r="H426">
@@ -12239,7 +12240,7 @@
         <v>540</v>
       </c>
       <c r="G427" t="e">
-        <f>VLOOKUP(F427,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I427" t="s">
@@ -12251,7 +12252,7 @@
         <v>541</v>
       </c>
       <c r="G428" t="e">
-        <f>VLOOKUP(F428,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I428" t="s">
@@ -12263,7 +12264,7 @@
         <v>542</v>
       </c>
       <c r="G429" t="e">
-        <f>VLOOKUP(F429,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I429" t="s">
@@ -12275,7 +12276,7 @@
         <v>543</v>
       </c>
       <c r="G430" t="e">
-        <f>VLOOKUP(F430,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I430" t="s">
@@ -12287,7 +12288,7 @@
         <v>544</v>
       </c>
       <c r="G431" t="e">
-        <f>VLOOKUP(F431,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I431" t="s">
@@ -12299,7 +12300,7 @@
         <v>545</v>
       </c>
       <c r="G432" t="e">
-        <f>VLOOKUP(F432,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I432" t="s">
@@ -12311,7 +12312,7 @@
         <v>546</v>
       </c>
       <c r="G433" t="e">
-        <f>VLOOKUP(F433,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I433" t="s">
@@ -12323,7 +12324,7 @@
         <v>547</v>
       </c>
       <c r="G434" t="e">
-        <f>VLOOKUP(F434,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I434" t="s">
@@ -12335,7 +12336,7 @@
         <v>7</v>
       </c>
       <c r="G435" t="e">
-        <f>VLOOKUP(F435,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I435" t="s">
@@ -12347,7 +12348,7 @@
         <v>548</v>
       </c>
       <c r="G436" t="e">
-        <f>VLOOKUP(F436,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I436" t="s">
@@ -12359,7 +12360,7 @@
         <v>549</v>
       </c>
       <c r="G437" t="e">
-        <f>VLOOKUP(F437,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I437" t="s">
@@ -12371,7 +12372,7 @@
         <v>550</v>
       </c>
       <c r="G438" t="e">
-        <f>VLOOKUP(F438,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I438" t="s">
@@ -12383,7 +12384,7 @@
         <v>323</v>
       </c>
       <c r="G439" t="str">
-        <f>VLOOKUP(F439,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>_PASTRNG</v>
       </c>
       <c r="H439">
@@ -12400,7 +12401,7 @@
         <v>551</v>
       </c>
       <c r="G440" t="e">
-        <f>VLOOKUP(F440,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I440" t="s">
@@ -12412,7 +12413,7 @@
         <v>552</v>
       </c>
       <c r="G441" t="e">
-        <f>VLOOKUP(F441,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I441" t="s">
@@ -12424,7 +12425,7 @@
         <v>329</v>
       </c>
       <c r="G442" t="str">
-        <f>VLOOKUP(F442,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>_RFSEAT2</v>
       </c>
       <c r="H442">
@@ -12441,7 +12442,7 @@
         <v>330</v>
       </c>
       <c r="G443" t="str">
-        <f>VLOOKUP(F443,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>_RFSEAT3</v>
       </c>
       <c r="H443">
@@ -12458,7 +12459,7 @@
         <v>553</v>
       </c>
       <c r="G444" t="e">
-        <f>VLOOKUP(F444,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="I444" t="s">
@@ -12470,7 +12471,7 @@
         <v>332</v>
       </c>
       <c r="G445" t="str">
-        <f>VLOOKUP(F445,A:A,1,0)</f>
+        <f t="shared" si="44"/>
         <v>_PNEUMO2</v>
       </c>
       <c r="H445">
@@ -12487,7 +12488,7 @@
         <v>276</v>
       </c>
       <c r="G446" t="str">
-        <f>VLOOKUP(F446,A:A,1,0)</f>
+        <f t="shared" ref="G446:G477" si="45">VLOOKUP(F446,A:A,1,0)</f>
         <v>DRNKANY5</v>
       </c>
       <c r="H446">
@@ -12504,7 +12505,7 @@
         <v>277</v>
       </c>
       <c r="G447" t="str">
-        <f>VLOOKUP(F447,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>DROCDY3_</v>
       </c>
       <c r="H447">
@@ -12521,7 +12522,7 @@
         <v>278</v>
       </c>
       <c r="G448" t="str">
-        <f>VLOOKUP(F448,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>_RFBING5</v>
       </c>
       <c r="H448">
@@ -12538,7 +12539,7 @@
         <v>554</v>
       </c>
       <c r="G449" t="e">
-        <f>VLOOKUP(F449,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="I449" t="s">
@@ -12550,7 +12551,7 @@
         <v>555</v>
       </c>
       <c r="G450" t="e">
-        <f>VLOOKUP(F450,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="I450" t="s">
@@ -12562,7 +12563,7 @@
         <v>10</v>
       </c>
       <c r="G451" t="e">
-        <f>VLOOKUP(F451,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="I451" t="s">
@@ -12574,7 +12575,7 @@
         <v>556</v>
       </c>
       <c r="G452" t="e">
-        <f>VLOOKUP(F452,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="I452" t="s">
@@ -12586,7 +12587,7 @@
         <v>557</v>
       </c>
       <c r="G453" t="e">
-        <f>VLOOKUP(F453,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="I453" t="s">
@@ -12598,7 +12599,7 @@
         <v>333</v>
       </c>
       <c r="G454" t="str">
-        <f>VLOOKUP(F454,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>_AIDTST3</v>
       </c>
       <c r="H454">
@@ -12615,7 +12616,7 @@
         <v>558</v>
       </c>
       <c r="G455" t="e">
-        <f>VLOOKUP(F455,A:A,1,0)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="I455" t="s">
@@ -12630,10 +12631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F8025D-A42D-A644-ABEF-0A6D4C91F8C3}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12661,7 +12662,7 @@
         <v>567</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -12681,7 +12682,7 @@
         <v>568</v>
       </c>
       <c r="G2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -12692,13 +12693,13 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D3" t="s">
         <v>565</v>
       </c>
       <c r="E3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -12709,7 +12710,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
         <v>565</v>
@@ -13067,13 +13068,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D30" t="s">
         <v>566</v>
@@ -13081,13 +13082,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D31" t="s">
         <v>566</v>
@@ -13095,13 +13096,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D32" t="s">
         <v>566</v>
@@ -13109,13 +13110,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D33" t="s">
         <v>566</v>
@@ -13123,13 +13124,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D34" t="s">
         <v>566</v>
@@ -13137,13 +13138,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D35" t="s">
         <v>566</v>
@@ -13151,13 +13152,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D36" t="s">
         <v>566</v>
@@ -13165,10 +13166,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
         <v>631</v>
@@ -13179,10 +13180,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
         <v>632</v>
@@ -13193,13 +13194,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" t="s">
-        <v>133</v>
+        <v>209</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="C39" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D39" t="s">
         <v>566</v>
@@ -13207,13 +13208,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" t="s">
-        <v>134</v>
+        <v>210</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="C40" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D40" t="s">
         <v>566</v>
@@ -13221,13 +13222,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>469</v>
+        <v>223</v>
+      </c>
+      <c r="B41" t="s">
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D41" t="s">
         <v>566</v>
@@ -13235,13 +13236,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>470</v>
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D42" t="s">
         <v>566</v>
@@ -13249,10 +13250,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
         <v>640</v>
@@ -13263,10 +13264,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
         <v>641</v>
@@ -13277,10 +13278,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s">
         <v>642</v>
@@ -13291,10 +13292,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
         <v>643</v>
@@ -13305,10 +13306,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
         <v>644</v>
@@ -13319,10 +13320,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
         <v>645</v>
@@ -13333,10 +13334,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
         <v>646</v>
@@ -13347,10 +13348,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
         <v>647</v>
@@ -13361,13 +13362,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51" t="s">
-        <v>231</v>
+        <v>262</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="C51" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="D51" t="s">
         <v>566</v>
@@ -13375,13 +13376,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D52" t="s">
         <v>566</v>
@@ -13389,10 +13390,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>528</v>
+        <v>270</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
       </c>
       <c r="C53" t="s">
         <v>659</v>
@@ -13403,10 +13404,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C54" t="s">
         <v>660</v>
@@ -13417,13 +13418,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D55" t="s">
         <v>566</v>
@@ -13431,13 +13432,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C56" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D56" t="s">
         <v>566</v>
@@ -13445,43 +13446,15 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D57" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B58" t="s">
-        <v>291</v>
-      </c>
-      <c r="C58" t="s">
-        <v>663</v>
-      </c>
-      <c r="D58" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B59" t="s">
-        <v>292</v>
-      </c>
-      <c r="C59" t="s">
-        <v>664</v>
-      </c>
-      <c r="D59" t="s">
         <v>566</v>
       </c>
     </row>
@@ -13502,22 +13475,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/BRFSS_Field_Map.xlsx
+++ b/BRFSS_Field_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresaszoke/Desktop/Classwork/diabetes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EB7D2-213F-AF48-A036-B72EC244184D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A3D7C-983C-AC44-9B69-9993F696E31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="740" windowWidth="29400" windowHeight="17260" activeTab="1" xr2:uid="{2BEC7167-3A60-5747-B803-1B5800393B56}"/>
+    <workbookView xWindow="-60" yWindow="740" windowWidth="29400" windowHeight="17260" activeTab="1" xr2:uid="{2BEC7167-3A60-5747-B803-1B5800393B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Analysis" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="670">
   <si>
     <t>TOLDHI2</t>
   </si>
@@ -2048,6 +2048,9 @@
   </si>
   <si>
     <t>About how tall are you without shoes? (If respondent answers in metrics, put a 9 in the first column)[Round fractions down.] NOTE: we will use the field wtkg3 instead.</t>
+  </si>
+  <si>
+    <t>Adults who reported doing physical activity or exercise during the past 30 days other than their regular job</t>
   </si>
 </sst>
 </file>
@@ -2425,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAFC5EA-9B3F-6E44-BC4E-3F13A83D01D0}">
   <dimension ref="A1:I455"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A67" sqref="A66:A67"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C295" sqref="C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4225,7 +4228,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>75</v>
       </c>
       <c r="B66" t="str">
@@ -4255,7 +4258,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>76</v>
       </c>
       <c r="B67" t="str">
@@ -7401,7 +7404,7 @@
         <v>200</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" ref="B191:B222" si="24">VLOOKUP(A191,F:F,1,0)</f>
+        <f t="shared" ref="B191:B199" si="24">VLOOKUP(A191,F:F,1,0)</f>
         <v>LASTSIG3</v>
       </c>
       <c r="D191" t="s">
@@ -8490,7 +8493,7 @@
         <v>243</v>
       </c>
       <c r="B234" t="e">
-        <f t="shared" ref="B234:B265" si="29">VLOOKUP(A234,F:F,1,0)</f>
+        <f t="shared" ref="B234:B252" si="29">VLOOKUP(A234,F:F,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D234" t="s">
@@ -9041,7 +9044,7 @@
         <v>454</v>
       </c>
       <c r="G258" t="e">
-        <f t="shared" ref="G258:G321" si="31">VLOOKUP(F258,A:A,1,0)</f>
+        <f t="shared" ref="G258:G283" si="31">VLOOKUP(F258,A:A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="I258" t="s">
@@ -9959,8 +9962,11 @@
         <f t="shared" si="34"/>
         <v>_TOTINDA</v>
       </c>
+      <c r="C295" t="s">
+        <v>669</v>
+      </c>
       <c r="D295" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F295" t="s">
         <v>474</v>
@@ -10482,7 +10488,7 @@
         <v>320</v>
       </c>
       <c r="B318" t="e">
-        <f t="shared" ref="B318:B349" si="36">VLOOKUP(A318,F:F,1,0)</f>
+        <f t="shared" ref="B318:B331" si="36">VLOOKUP(A318,F:F,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D318" t="s">
@@ -12035,13 +12041,12 @@
         <f t="shared" si="41"/>
         <v>_TOTINDA</v>
       </c>
-      <c r="H413">
+      <c r="H413" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I413" t="str">
-        <f t="shared" si="43"/>
-        <v>drop</v>
+        <v>Adults who reported doing physical activity or exercise during the past 30 days other than their regular job</v>
+      </c>
+      <c r="I413" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="414" spans="6:9" x14ac:dyDescent="0.2">
@@ -12488,7 +12493,7 @@
         <v>276</v>
       </c>
       <c r="G446" t="str">
-        <f t="shared" ref="G446:G477" si="45">VLOOKUP(F446,A:A,1,0)</f>
+        <f t="shared" ref="G446:G455" si="45">VLOOKUP(F446,A:A,1,0)</f>
         <v>DRNKANY5</v>
       </c>
       <c r="H446">
@@ -12631,10 +12636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F8025D-A42D-A644-ABEF-0A6D4C91F8C3}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13455,6 +13460,20 @@
         <v>662</v>
       </c>
       <c r="D57" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" t="s">
+        <v>669</v>
+      </c>
+      <c r="D58" t="s">
         <v>566</v>
       </c>
     </row>

--- a/BRFSS_Field_Map.xlsx
+++ b/BRFSS_Field_Map.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresaszoke/Desktop/Classwork/diabetes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A3D7C-983C-AC44-9B69-9993F696E31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E754C17C-E2AA-2543-837A-C73C9FFB4D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="740" windowWidth="29400" windowHeight="17260" activeTab="1" xr2:uid="{2BEC7167-3A60-5747-B803-1B5800393B56}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" activeTab="2" xr2:uid="{2BEC7167-3A60-5747-B803-1B5800393B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Analysis" sheetId="2" r:id="rId1"/>
     <sheet name="Final Fields" sheetId="5" r:id="rId2"/>
-    <sheet name="Dashboard plans" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Dashboard plans" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Field Analysis'!$A$1:$K$331</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="727">
   <si>
     <t>TOLDHI2</t>
   </si>
@@ -1744,12 +1745,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Data Cleansing Action</t>
-  </si>
-  <si>
-    <t>translate to states</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -2008,9 +2003,6 @@
     <t xml:space="preserve">Machine learning model - Can we predict likelihood of a BRFSS respondent having diabetes based on input </t>
   </si>
   <si>
-    <t>use to keep 2011 and 2015 files separate</t>
-  </si>
-  <si>
     <t>Interview Year</t>
   </si>
   <si>
@@ -2035,12 +2027,6 @@
     <t>Body Mass Index (BMI)</t>
   </si>
   <si>
-    <t>Perform importance</t>
-  </si>
-  <si>
-    <t>PCE</t>
-  </si>
-  <si>
     <t>Annual Sequence Number</t>
   </si>
   <si>
@@ -2051,6 +2037,192 @@
   </si>
   <si>
     <t>Adults who reported doing physical activity or exercise during the past 30 days other than their regular job</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>State FIPS Code, where interviewee lived</t>
+  </si>
+  <si>
+    <t>General Health</t>
+  </si>
+  <si>
+    <t>Physical Health</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>How many of the last 30 days did you have poor health?</t>
+  </si>
+  <si>
+    <t>Do you have healthcare?</t>
+  </si>
+  <si>
+    <t>Do you have a personal doctor?</t>
+  </si>
+  <si>
+    <t>Did cost prevent you from seeking medical care?</t>
+  </si>
+  <si>
+    <t>How long since your last physical check up?</t>
+  </si>
+  <si>
+    <t>Do you have high blood cholesterol?</t>
+  </si>
+  <si>
+    <t>Do you have high blood pressure?</t>
+  </si>
+  <si>
+    <t>Have you ever had a heart attack?</t>
+  </si>
+  <si>
+    <t>Do you have heart disease?</t>
+  </si>
+  <si>
+    <t>Have you had a stroke?</t>
+  </si>
+  <si>
+    <t>Have you ever had asthma?</t>
+  </si>
+  <si>
+    <t>Have you had COPD?</t>
+  </si>
+  <si>
+    <t>Do you have arthritis?</t>
+  </si>
+  <si>
+    <t>Do you have any depressive disorder?</t>
+  </si>
+  <si>
+    <t>Do you have kidney disease?</t>
+  </si>
+  <si>
+    <t>Do you have diabetes?</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Education Level</t>
+  </si>
+  <si>
+    <t>Own or rent home</t>
+  </si>
+  <si>
+    <t>Employment status</t>
+  </si>
+  <si>
+    <t>Have you ever smoked 100 cigarettes?</t>
+  </si>
+  <si>
+    <t>Do you smoke now?</t>
+  </si>
+  <si>
+    <t>Do you use tobacco?</t>
+  </si>
+  <si>
+    <t>Average number of alcoholic drinks per day</t>
+  </si>
+  <si>
+    <t>Do you exercise</t>
+  </si>
+  <si>
+    <t>Has pain kept you from your regular activities</t>
+  </si>
+  <si>
+    <t>How many of the last 30 days have you felt depressed</t>
+  </si>
+  <si>
+    <t>How many of the last 30 days have you felt worried</t>
+  </si>
+  <si>
+    <t>How many of the last 30 days have you felt healthy</t>
+  </si>
+  <si>
+    <t>How often are you stressed about money for housing?</t>
+  </si>
+  <si>
+    <t>How often are you stressed about money for food?</t>
+  </si>
+  <si>
+    <t>How many of the last 14 days have you had little pleasure doing things?</t>
+  </si>
+  <si>
+    <t>How many of the last 14 days have you had trouble with sleep?</t>
+  </si>
+  <si>
+    <t>How many of the last 14 days have you felt hopeless?</t>
+  </si>
+  <si>
+    <t>How many of the last 14 days have you had little energy?</t>
+  </si>
+  <si>
+    <t>How many of the last 14 days have you had ppor appetite?</t>
+  </si>
+  <si>
+    <t>How many of the last 14 days have you felt bad about yourself?</t>
+  </si>
+  <si>
+    <t>How many of the last 14 days have you moved/spoken slowly?</t>
+  </si>
+  <si>
+    <t>How many of the last 14 days have you had trouble concentrating?</t>
+  </si>
+  <si>
+    <t>Are you being treated for a mental health condition?</t>
+  </si>
+  <si>
+    <t>Do you have an anxiety disorder?</t>
+  </si>
+  <si>
+    <t>Race/ethnicity</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>Total # of fruits consumed per day</t>
+  </si>
+  <si>
+    <t>Total # of vegetables consumed per day</t>
+  </si>
+  <si>
+    <t>Physically active in last 30 days</t>
+  </si>
+  <si>
+    <t>Stressed about money for housing?</t>
+  </si>
+  <si>
+    <t>Stressed about money for food?</t>
+  </si>
+  <si>
+    <t>Have you had little pleasure doing things?</t>
+  </si>
+  <si>
+    <t>Have you felt hopeless?</t>
+  </si>
+  <si>
+    <t>Have you had trouble with sleep?</t>
+  </si>
+  <si>
+    <t>Have you had little energy?</t>
+  </si>
+  <si>
+    <t>Have you had ppor appetite?</t>
+  </si>
+  <si>
+    <t>Have you felt bad about yourself?</t>
+  </si>
+  <si>
+    <t>Have you had trouble concentrating?</t>
+  </si>
+  <si>
+    <t>Have you moved/spoken slowly?</t>
   </si>
 </sst>
 </file>
@@ -2106,11 +2278,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2477,7 +2650,7 @@
         <v>_STATE</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D2" t="s">
         <v>565</v>
@@ -2507,7 +2680,7 @@
         <v>FMONTH</v>
       </c>
       <c r="D3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F3" t="s">
         <v>334</v>
@@ -2517,7 +2690,7 @@
         <v>#N/A</v>
       </c>
       <c r="I3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2529,7 +2702,7 @@
         <v>IDATE</v>
       </c>
       <c r="D4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F4" t="s">
         <v>335</v>
@@ -2539,7 +2712,7 @@
         <v>#N/A</v>
       </c>
       <c r="I4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2551,7 +2724,7 @@
         <v>IMONTH</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>336</v>
@@ -2561,7 +2734,7 @@
         <v>#N/A</v>
       </c>
       <c r="I5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2573,7 +2746,7 @@
         <v>IDAY</v>
       </c>
       <c r="D6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F6" t="s">
         <v>337</v>
@@ -2583,7 +2756,7 @@
         <v>#N/A</v>
       </c>
       <c r="I6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2595,7 +2768,7 @@
         <v>IYEAR</v>
       </c>
       <c r="C7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D7" t="s">
         <v>565</v>
@@ -2608,7 +2781,7 @@
         <v>#N/A</v>
       </c>
       <c r="I7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2620,10 +2793,10 @@
         <v>DISPCODE</v>
       </c>
       <c r="C8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -2650,7 +2823,7 @@
         <v>SEQNO</v>
       </c>
       <c r="D9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -2677,7 +2850,7 @@
         <v>_PSU</v>
       </c>
       <c r="D10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -2704,7 +2877,7 @@
         <v>CTELENUM</v>
       </c>
       <c r="D11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
@@ -2731,7 +2904,7 @@
         <v>#N/A</v>
       </c>
       <c r="D12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -2758,7 +2931,7 @@
         <v>#N/A</v>
       </c>
       <c r="D13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F13" t="s">
         <v>339</v>
@@ -2768,7 +2941,7 @@
         <v>#N/A</v>
       </c>
       <c r="I13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2780,7 +2953,7 @@
         <v>#N/A</v>
       </c>
       <c r="D14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -2807,7 +2980,7 @@
         <v>#N/A</v>
       </c>
       <c r="D15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -2834,7 +3007,7 @@
         <v>#N/A</v>
       </c>
       <c r="D16" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -2861,7 +3034,7 @@
         <v>NUMADULT</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F17" t="s">
         <v>340</v>
@@ -2871,7 +3044,7 @@
         <v>#N/A</v>
       </c>
       <c r="I17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2883,7 +3056,7 @@
         <v>NUMMEN</v>
       </c>
       <c r="D18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F18" t="s">
         <v>341</v>
@@ -2893,7 +3066,7 @@
         <v>#N/A</v>
       </c>
       <c r="I18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2905,7 +3078,7 @@
         <v>NUMWOMEN</v>
       </c>
       <c r="D19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F19" t="s">
         <v>342</v>
@@ -2915,7 +3088,7 @@
         <v>#N/A</v>
       </c>
       <c r="I19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2927,7 +3100,7 @@
         <v>CTELNUM1</v>
       </c>
       <c r="D20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -2954,7 +3127,7 @@
         <v>CELLFON2</v>
       </c>
       <c r="D21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F21" t="s">
         <v>343</v>
@@ -2964,7 +3137,7 @@
         <v>#N/A</v>
       </c>
       <c r="I21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2976,7 +3149,7 @@
         <v>CADULT</v>
       </c>
       <c r="D22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F22" t="s">
         <v>344</v>
@@ -2986,7 +3159,7 @@
         <v>#N/A</v>
       </c>
       <c r="I22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2998,7 +3171,7 @@
         <v>PVTRESD2</v>
       </c>
       <c r="D23" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -3025,7 +3198,7 @@
         <v>#N/A</v>
       </c>
       <c r="D24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -3052,7 +3225,7 @@
         <v>CSTATE</v>
       </c>
       <c r="D25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F25" t="s">
         <v>40</v>
@@ -3079,7 +3252,7 @@
         <v>LANDLINE</v>
       </c>
       <c r="D26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -3106,7 +3279,7 @@
         <v>#N/A</v>
       </c>
       <c r="D27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -3133,7 +3306,7 @@
         <v>GENHLTH</v>
       </c>
       <c r="C28" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D28" t="s">
         <v>566</v>
@@ -3163,7 +3336,7 @@
         <v>PHYSHLTH</v>
       </c>
       <c r="C29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D29" t="s">
         <v>566</v>
@@ -3193,7 +3366,7 @@
         <v>MENTHLTH</v>
       </c>
       <c r="C30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D30" t="s">
         <v>566</v>
@@ -3223,7 +3396,7 @@
         <v>POORHLTH</v>
       </c>
       <c r="C31" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D31" t="s">
         <v>566</v>
@@ -3253,7 +3426,7 @@
         <v>HLTHPLN1</v>
       </c>
       <c r="C32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D32" t="s">
         <v>566</v>
@@ -3283,7 +3456,7 @@
         <v>PERSDOC2</v>
       </c>
       <c r="C33" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D33" t="s">
         <v>566</v>
@@ -3313,7 +3486,7 @@
         <v>MEDCOST</v>
       </c>
       <c r="C34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D34" t="s">
         <v>566</v>
@@ -3343,7 +3516,7 @@
         <v>CHECKUP1</v>
       </c>
       <c r="C35" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D35" t="s">
         <v>566</v>
@@ -3373,7 +3546,7 @@
         <v>BPHIGH4</v>
       </c>
       <c r="C36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D36" t="s">
         <v>566</v>
@@ -3403,10 +3576,10 @@
         <v>BPMEDS</v>
       </c>
       <c r="C37" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D37" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F37" t="s">
         <v>52</v>
@@ -3433,10 +3606,10 @@
         <v>BLOODCHO</v>
       </c>
       <c r="C38" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -3463,10 +3636,10 @@
         <v>CHOLCHK</v>
       </c>
       <c r="C39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -3493,7 +3666,7 @@
         <v>TOLDHI2</v>
       </c>
       <c r="C40" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D40" t="s">
         <v>566</v>
@@ -3523,7 +3696,7 @@
         <v>CVDINFR4</v>
       </c>
       <c r="C41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D41" t="s">
         <v>566</v>
@@ -3553,7 +3726,7 @@
         <v>CVDCRHD4</v>
       </c>
       <c r="C42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D42" t="s">
         <v>566</v>
@@ -3583,7 +3756,7 @@
         <v>CVDSTRK3</v>
       </c>
       <c r="C43" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D43" t="s">
         <v>566</v>
@@ -3613,7 +3786,7 @@
         <v>ASTHMA3</v>
       </c>
       <c r="C44" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D44" t="s">
         <v>566</v>
@@ -3643,7 +3816,7 @@
         <v>ASTHNOW</v>
       </c>
       <c r="C45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D45" t="s">
         <v>566</v>
@@ -3673,10 +3846,10 @@
         <v>CHCSCNCR</v>
       </c>
       <c r="C46" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D46" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F46" t="s">
         <v>345</v>
@@ -3702,10 +3875,10 @@
         <v>CHCOCNCR</v>
       </c>
       <c r="C47" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D47" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F47" t="s">
         <v>58</v>
@@ -3731,7 +3904,7 @@
         <v>345</v>
       </c>
       <c r="C48" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D48" t="s">
         <v>566</v>
@@ -3761,7 +3934,7 @@
         <v>HAVARTH3</v>
       </c>
       <c r="C49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D49" t="s">
         <v>566</v>
@@ -3791,7 +3964,7 @@
         <v>ADDEPEV2</v>
       </c>
       <c r="C50" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D50" t="s">
         <v>566</v>
@@ -3804,7 +3977,7 @@
         <v>#N/A</v>
       </c>
       <c r="I50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3816,7 +3989,7 @@
         <v>CHCKIDNY</v>
       </c>
       <c r="C51" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D51" t="s">
         <v>566</v>
@@ -3846,10 +4019,10 @@
         <v>DIABETE3</v>
       </c>
       <c r="C52" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D52" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F52" t="s">
         <v>85</v>
@@ -3876,10 +4049,10 @@
         <v>DIABAGE2</v>
       </c>
       <c r="C53" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D53" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F53" t="s">
         <v>86</v>
@@ -3906,7 +4079,7 @@
         <v>SEX</v>
       </c>
       <c r="C54" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D54" t="s">
         <v>566</v>
@@ -3936,7 +4109,7 @@
         <v>MARITAL</v>
       </c>
       <c r="C55" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D55" t="s">
         <v>566</v>
@@ -3966,7 +4139,7 @@
         <v>EDUCA</v>
       </c>
       <c r="C56" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D56" t="s">
         <v>566</v>
@@ -3996,7 +4169,7 @@
         <v>RENTHOM1</v>
       </c>
       <c r="C57" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D57" t="s">
         <v>566</v>
@@ -4009,7 +4182,7 @@
         <v>#N/A</v>
       </c>
       <c r="I57" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4021,7 +4194,7 @@
         <v>NUMHHOL2</v>
       </c>
       <c r="D58" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F58" t="s">
         <v>347</v>
@@ -4031,7 +4204,7 @@
         <v>#N/A</v>
       </c>
       <c r="I58" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4043,7 +4216,7 @@
         <v>NUMPHON2</v>
       </c>
       <c r="D59" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F59" t="s">
         <v>348</v>
@@ -4053,7 +4226,7 @@
         <v>#N/A</v>
       </c>
       <c r="I59" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -4065,7 +4238,7 @@
         <v>CPDEMO1</v>
       </c>
       <c r="D60" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F60" t="s">
         <v>349</v>
@@ -4091,10 +4264,10 @@
         <v>VETERAN3</v>
       </c>
       <c r="C61" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D61" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F61" t="s">
         <v>70</v>
@@ -4120,7 +4293,7 @@
         <v>350</v>
       </c>
       <c r="C62" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D62" t="s">
         <v>566</v>
@@ -4150,10 +4323,10 @@
         <v>CHILDREN</v>
       </c>
       <c r="C63" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D63" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F63" t="s">
         <v>72</v>
@@ -4180,10 +4353,10 @@
         <v>INCOME2</v>
       </c>
       <c r="C64" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D64" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F64" t="s">
         <v>65</v>
@@ -4210,7 +4383,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F65" t="s">
         <v>350</v>
@@ -4236,10 +4409,10 @@
         <v>WEIGHT2</v>
       </c>
       <c r="C66" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D66" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F66" t="s">
         <v>73</v>
@@ -4266,10 +4439,10 @@
         <v>HEIGHT3</v>
       </c>
       <c r="C67" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D67" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F67" t="s">
         <v>75</v>
@@ -4296,10 +4469,10 @@
         <v>PREGNANT</v>
       </c>
       <c r="C68" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D68" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F68" t="s">
         <v>76</v>
@@ -4326,10 +4499,10 @@
         <v>QLACTLM2</v>
       </c>
       <c r="C69" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D69" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F69" t="s">
         <v>351</v>
@@ -4339,7 +4512,7 @@
         <v>#N/A</v>
       </c>
       <c r="I69" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4351,10 +4524,10 @@
         <v>USEEQUIP</v>
       </c>
       <c r="C70" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D70" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F70" t="s">
         <v>67</v>
@@ -4381,7 +4554,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F71" t="s">
         <v>68</v>
@@ -4408,7 +4581,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F72" t="s">
         <v>69</v>
@@ -4435,7 +4608,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F73" t="s">
         <v>352</v>
@@ -4445,7 +4618,7 @@
         <v>#N/A</v>
       </c>
       <c r="I73" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -4457,7 +4630,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F74" t="s">
         <v>353</v>
@@ -4467,7 +4640,7 @@
         <v>#N/A</v>
       </c>
       <c r="I74" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4479,7 +4652,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F75" t="s">
         <v>354</v>
@@ -4489,7 +4662,7 @@
         <v>#N/A</v>
       </c>
       <c r="I75" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4501,7 +4674,7 @@
         <v>SMOKE100</v>
       </c>
       <c r="C76" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D76" t="s">
         <v>566</v>
@@ -4531,7 +4704,7 @@
         <v>SMOKDAY2</v>
       </c>
       <c r="C77" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D77" t="s">
         <v>566</v>
@@ -4561,10 +4734,10 @@
         <v>STOPSMK2</v>
       </c>
       <c r="C78" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D78" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F78" t="s">
         <v>77</v>
@@ -4591,10 +4764,10 @@
         <v>LASTSMK2</v>
       </c>
       <c r="C79" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D79" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F79" t="s">
         <v>94</v>
@@ -4621,7 +4794,7 @@
         <v>USENOW3</v>
       </c>
       <c r="C80" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D80" t="s">
         <v>566</v>
@@ -4651,10 +4824,10 @@
         <v>ALCDAY5</v>
       </c>
       <c r="C81" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D81" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F81" t="s">
         <v>96</v>
@@ -4681,7 +4854,7 @@
         <v>AVEDRNK2</v>
       </c>
       <c r="C82" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D82" t="s">
         <v>566</v>
@@ -4711,10 +4884,10 @@
         <v>DRNK3GE5</v>
       </c>
       <c r="C83" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D83" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F83" t="s">
         <v>98</v>
@@ -4741,10 +4914,10 @@
         <v>MAXDRNKS</v>
       </c>
       <c r="C84" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D84" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F84" t="s">
         <v>99</v>
@@ -4771,10 +4944,10 @@
         <v>FRUITJU1</v>
       </c>
       <c r="C85" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D85" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F85" t="s">
         <v>100</v>
@@ -4801,10 +4974,10 @@
         <v>FRUIT1</v>
       </c>
       <c r="C86" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D86" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F86" t="s">
         <v>355</v>
@@ -4814,7 +4987,7 @@
         <v>#N/A</v>
       </c>
       <c r="I86" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4826,10 +4999,10 @@
         <v>FVBEANS</v>
       </c>
       <c r="C87" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D87" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F87" t="s">
         <v>102</v>
@@ -4856,10 +5029,10 @@
         <v>FVGREEN</v>
       </c>
       <c r="C88" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D88" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F88" t="s">
         <v>103</v>
@@ -4886,10 +5059,10 @@
         <v>FVORANG</v>
       </c>
       <c r="C89" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D89" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F89" t="s">
         <v>356</v>
@@ -4899,7 +5072,7 @@
         <v>#N/A</v>
       </c>
       <c r="I89" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4911,10 +5084,10 @@
         <v>VEGETAB1</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D90" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F90" t="s">
         <v>105</v>
@@ -4941,7 +5114,7 @@
         <v>EXERANY2</v>
       </c>
       <c r="C91" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D91" t="s">
         <v>566</v>
@@ -4971,7 +5144,7 @@
         <v>#N/A</v>
       </c>
       <c r="D92" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F92" t="s">
         <v>107</v>
@@ -4998,7 +5171,7 @@
         <v>EXEROFT1</v>
       </c>
       <c r="D93" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F93" t="s">
         <v>78</v>
@@ -5025,7 +5198,7 @@
         <v>EXERHMM1</v>
       </c>
       <c r="D94" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F94" t="s">
         <v>79</v>
@@ -5052,7 +5225,7 @@
         <v>#N/A</v>
       </c>
       <c r="D95" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F95" t="s">
         <v>108</v>
@@ -5079,7 +5252,7 @@
         <v>EXEROFT2</v>
       </c>
       <c r="D96" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F96" t="s">
         <v>109</v>
@@ -5106,7 +5279,7 @@
         <v>EXERHMM2</v>
       </c>
       <c r="D97" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F97" t="s">
         <v>110</v>
@@ -5133,10 +5306,10 @@
         <v>STRENGTH</v>
       </c>
       <c r="C98" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D98" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F98" t="s">
         <v>111</v>
@@ -5163,10 +5336,10 @@
         <v>LMTJOIN3</v>
       </c>
       <c r="C99" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D99" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F99" t="s">
         <v>112</v>
@@ -5193,7 +5366,7 @@
         <v>ARTHDIS2</v>
       </c>
       <c r="D100" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F100" t="s">
         <v>357</v>
@@ -5203,7 +5376,7 @@
         <v>#N/A</v>
       </c>
       <c r="I100" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -5215,7 +5388,7 @@
         <v>ARTHSOCL</v>
       </c>
       <c r="D101" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F101" t="s">
         <v>114</v>
@@ -5242,7 +5415,7 @@
         <v>JOINPAIN</v>
       </c>
       <c r="D102" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F102" t="s">
         <v>115</v>
@@ -5269,10 +5442,10 @@
         <v>SEATBELT</v>
       </c>
       <c r="C103" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D103" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F103" t="s">
         <v>116</v>
@@ -5299,7 +5472,7 @@
         <v>#N/A</v>
       </c>
       <c r="D104" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F104" t="s">
         <v>90</v>
@@ -5326,7 +5499,7 @@
         <v>FLSHTMY2</v>
       </c>
       <c r="D105" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F105" t="s">
         <v>91</v>
@@ -5353,7 +5526,7 @@
         <v>IMFVPLAC</v>
       </c>
       <c r="D106" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F106" t="s">
         <v>92</v>
@@ -5380,7 +5553,7 @@
         <v>PNEUVAC3</v>
       </c>
       <c r="D107" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F107" t="s">
         <v>93</v>
@@ -5407,7 +5580,7 @@
         <v>HIVTST6</v>
       </c>
       <c r="D108" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F108" t="s">
         <v>117</v>
@@ -5434,7 +5607,7 @@
         <v>HIVTSTD3</v>
       </c>
       <c r="D109" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F109" t="s">
         <v>118</v>
@@ -5461,7 +5634,7 @@
         <v>#N/A</v>
       </c>
       <c r="D110" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F110" t="s">
         <v>358</v>
@@ -5471,7 +5644,7 @@
         <v>#N/A</v>
       </c>
       <c r="I110" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -5483,7 +5656,7 @@
         <v>PDIABTST</v>
       </c>
       <c r="D111" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F111" t="s">
         <v>120</v>
@@ -5510,7 +5683,7 @@
         <v>PREDIAB1</v>
       </c>
       <c r="D112" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F112" t="s">
         <v>121</v>
@@ -5537,7 +5710,7 @@
         <v>INSULIN</v>
       </c>
       <c r="D113" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F113" t="s">
         <v>62</v>
@@ -5564,7 +5737,7 @@
         <v>BLDSUGAR</v>
       </c>
       <c r="D114" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F114" t="s">
         <v>122</v>
@@ -5591,7 +5764,7 @@
         <v>FEETCHK2</v>
       </c>
       <c r="D115" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F115" t="s">
         <v>123</v>
@@ -5618,7 +5791,7 @@
         <v>DOCTDIAB</v>
       </c>
       <c r="D116" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F116" t="s">
         <v>124</v>
@@ -5645,7 +5818,7 @@
         <v>CHKHEMO3</v>
       </c>
       <c r="D117" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F117" t="s">
         <v>125</v>
@@ -5672,7 +5845,7 @@
         <v>FEETCHK</v>
       </c>
       <c r="D118" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F118" t="s">
         <v>126</v>
@@ -5699,7 +5872,7 @@
         <v>EYEEXAM</v>
       </c>
       <c r="D119" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F119" t="s">
         <v>127</v>
@@ -5726,7 +5899,7 @@
         <v>DIABEYE</v>
       </c>
       <c r="D120" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F120" t="s">
         <v>128</v>
@@ -5753,7 +5926,7 @@
         <v>DIABEDU</v>
       </c>
       <c r="D121" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F121" t="s">
         <v>129</v>
@@ -5780,7 +5953,7 @@
         <v>PAINACT2</v>
       </c>
       <c r="C122" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D122" t="s">
         <v>566</v>
@@ -5810,7 +5983,7 @@
         <v>QLMENTL2</v>
       </c>
       <c r="C123" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D123" t="s">
         <v>566</v>
@@ -5840,7 +6013,7 @@
         <v>QLSTRES2</v>
       </c>
       <c r="C124" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D124" t="s">
         <v>566</v>
@@ -5870,7 +6043,7 @@
         <v>QLHLTH2</v>
       </c>
       <c r="C125" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D125" t="s">
         <v>566</v>
@@ -5900,7 +6073,7 @@
         <v>#N/A</v>
       </c>
       <c r="D126" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F126" t="s">
         <v>134</v>
@@ -5927,7 +6100,7 @@
         <v>#N/A</v>
       </c>
       <c r="D127" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F127" t="s">
         <v>359</v>
@@ -5937,7 +6110,7 @@
         <v>#N/A</v>
       </c>
       <c r="I127" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -5949,7 +6122,7 @@
         <v>#N/A</v>
       </c>
       <c r="D128" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F128" t="s">
         <v>360</v>
@@ -5959,7 +6132,7 @@
         <v>#N/A</v>
       </c>
       <c r="I128" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5971,7 +6144,7 @@
         <v>#N/A</v>
       </c>
       <c r="D129" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F129" t="s">
         <v>361</v>
@@ -5981,7 +6154,7 @@
         <v>#N/A</v>
       </c>
       <c r="I129" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5993,7 +6166,7 @@
         <v>#N/A</v>
       </c>
       <c r="D130" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F130" t="s">
         <v>362</v>
@@ -6003,7 +6176,7 @@
         <v>#N/A</v>
       </c>
       <c r="I130" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6015,7 +6188,7 @@
         <v>#N/A</v>
       </c>
       <c r="D131" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F131" t="s">
         <v>363</v>
@@ -6025,7 +6198,7 @@
         <v>#N/A</v>
       </c>
       <c r="I131" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -6037,7 +6210,7 @@
         <v>#N/A</v>
       </c>
       <c r="D132" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F132" t="s">
         <v>364</v>
@@ -6047,7 +6220,7 @@
         <v>#N/A</v>
       </c>
       <c r="I132" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -6059,7 +6232,7 @@
         <v>#N/A</v>
       </c>
       <c r="D133" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F133" t="s">
         <v>365</v>
@@ -6069,7 +6242,7 @@
         <v>#N/A</v>
       </c>
       <c r="I133" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -6081,7 +6254,7 @@
         <v>#N/A</v>
       </c>
       <c r="D134" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F134" t="s">
         <v>366</v>
@@ -6091,7 +6264,7 @@
         <v>#N/A</v>
       </c>
       <c r="I134" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -6103,7 +6276,7 @@
         <v>#N/A</v>
       </c>
       <c r="D135" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F135" t="s">
         <v>367</v>
@@ -6113,7 +6286,7 @@
         <v>#N/A</v>
       </c>
       <c r="I135" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -6125,7 +6298,7 @@
         <v>VIREDIF3</v>
       </c>
       <c r="D136" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F136" t="s">
         <v>368</v>
@@ -6135,7 +6308,7 @@
         <v>#N/A</v>
       </c>
       <c r="I136" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -6147,7 +6320,7 @@
         <v>#N/A</v>
       </c>
       <c r="D137" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F137" t="s">
         <v>369</v>
@@ -6157,7 +6330,7 @@
         <v>#N/A</v>
       </c>
       <c r="I137" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -6169,7 +6342,7 @@
         <v>#N/A</v>
       </c>
       <c r="D138" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F138" t="s">
         <v>145</v>
@@ -6196,7 +6369,7 @@
         <v>#N/A</v>
       </c>
       <c r="D139" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F139" t="s">
         <v>370</v>
@@ -6206,7 +6379,7 @@
         <v>#N/A</v>
       </c>
       <c r="I139" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -6218,7 +6391,7 @@
         <v>#N/A</v>
       </c>
       <c r="D140" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F140" t="s">
         <v>371</v>
@@ -6228,7 +6401,7 @@
         <v>#N/A</v>
       </c>
       <c r="I140" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -6240,7 +6413,7 @@
         <v>#N/A</v>
       </c>
       <c r="D141" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F141" t="s">
         <v>372</v>
@@ -6250,7 +6423,7 @@
         <v>#N/A</v>
       </c>
       <c r="I141" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -6262,7 +6435,7 @@
         <v>#N/A</v>
       </c>
       <c r="D142" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F142" t="s">
         <v>373</v>
@@ -6272,7 +6445,7 @@
         <v>#N/A</v>
       </c>
       <c r="I142" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -6284,7 +6457,7 @@
         <v>#N/A</v>
       </c>
       <c r="D143" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F143" t="s">
         <v>374</v>
@@ -6294,7 +6467,7 @@
         <v>#N/A</v>
       </c>
       <c r="I143" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -6306,7 +6479,7 @@
         <v>CIMEMLOS</v>
       </c>
       <c r="D144" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F144" t="s">
         <v>375</v>
@@ -6316,7 +6489,7 @@
         <v>#N/A</v>
       </c>
       <c r="I144" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -6328,7 +6501,7 @@
         <v>#N/A</v>
       </c>
       <c r="D145" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F145" t="s">
         <v>376</v>
@@ -6338,7 +6511,7 @@
         <v>#N/A</v>
       </c>
       <c r="I145" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -6350,7 +6523,7 @@
         <v>#N/A</v>
       </c>
       <c r="D146" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F146" t="s">
         <v>377</v>
@@ -6360,7 +6533,7 @@
         <v>#N/A</v>
       </c>
       <c r="I146" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -6372,7 +6545,7 @@
         <v>#N/A</v>
       </c>
       <c r="D147" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F147" t="s">
         <v>378</v>
@@ -6382,7 +6555,7 @@
         <v>#N/A</v>
       </c>
       <c r="I147" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6394,7 +6567,7 @@
         <v>#N/A</v>
       </c>
       <c r="D148" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F148" t="s">
         <v>379</v>
@@ -6404,7 +6577,7 @@
         <v>#N/A</v>
       </c>
       <c r="I148" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -6416,7 +6589,7 @@
         <v>#N/A</v>
       </c>
       <c r="D149" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F149" t="s">
         <v>380</v>
@@ -6426,7 +6599,7 @@
         <v>#N/A</v>
       </c>
       <c r="I149" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -6438,7 +6611,7 @@
         <v>#N/A</v>
       </c>
       <c r="D150" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F150" t="s">
         <v>381</v>
@@ -6448,7 +6621,7 @@
         <v>#N/A</v>
       </c>
       <c r="I150" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -6460,7 +6633,7 @@
         <v>#N/A</v>
       </c>
       <c r="D151" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F151" t="s">
         <v>382</v>
@@ -6470,7 +6643,7 @@
         <v>#N/A</v>
       </c>
       <c r="I151" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -6482,7 +6655,7 @@
         <v>#N/A</v>
       </c>
       <c r="D152" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F152" t="s">
         <v>383</v>
@@ -6492,7 +6665,7 @@
         <v>#N/A</v>
       </c>
       <c r="I152" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -6504,7 +6677,7 @@
         <v>ASTHMAGE</v>
       </c>
       <c r="D153" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F153" t="s">
         <v>384</v>
@@ -6514,7 +6687,7 @@
         <v>#N/A</v>
       </c>
       <c r="I153" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -6526,7 +6699,7 @@
         <v>ASATTACK</v>
       </c>
       <c r="D154" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F154" t="s">
         <v>172</v>
@@ -6553,7 +6726,7 @@
         <v>ASERVIST</v>
       </c>
       <c r="D155" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F155" t="s">
         <v>173</v>
@@ -6580,7 +6753,7 @@
         <v>ASDRVIST</v>
       </c>
       <c r="D156" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F156" t="s">
         <v>174</v>
@@ -6607,7 +6780,7 @@
         <v>ASRCHKUP</v>
       </c>
       <c r="D157" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F157" t="s">
         <v>175</v>
@@ -6634,7 +6807,7 @@
         <v>ASACTLIM</v>
       </c>
       <c r="D158" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F158" t="s">
         <v>385</v>
@@ -6644,7 +6817,7 @@
         <v>#N/A</v>
       </c>
       <c r="I158" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -6656,7 +6829,7 @@
         <v>ASYMPTOM</v>
       </c>
       <c r="D159" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F159" t="s">
         <v>386</v>
@@ -6666,7 +6839,7 @@
         <v>#N/A</v>
       </c>
       <c r="I159" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -6678,7 +6851,7 @@
         <v>ASNOSLEP</v>
       </c>
       <c r="D160" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F160" t="s">
         <v>387</v>
@@ -6688,7 +6861,7 @@
         <v>#N/A</v>
       </c>
       <c r="I160" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -6700,7 +6873,7 @@
         <v>ASTHMED3</v>
       </c>
       <c r="D161" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F161" t="s">
         <v>388</v>
@@ -6710,7 +6883,7 @@
         <v>#N/A</v>
       </c>
       <c r="I161" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -6722,7 +6895,7 @@
         <v>ASINHALR</v>
       </c>
       <c r="D162" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F162" t="s">
         <v>389</v>
@@ -6732,7 +6905,7 @@
         <v>#N/A</v>
       </c>
       <c r="I162" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -6744,7 +6917,7 @@
         <v>HAREHAB1</v>
       </c>
       <c r="D163" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F163" t="s">
         <v>390</v>
@@ -6754,7 +6927,7 @@
         <v>#N/A</v>
       </c>
       <c r="I163" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -6766,7 +6939,7 @@
         <v>STREHAB1</v>
       </c>
       <c r="D164" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F164" t="s">
         <v>391</v>
@@ -6776,7 +6949,7 @@
         <v>#N/A</v>
       </c>
       <c r="I164" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6788,10 +6961,10 @@
         <v>CVDASPRN</v>
       </c>
       <c r="C165" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D165" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F165" t="s">
         <v>392</v>
@@ -6801,7 +6974,7 @@
         <v>#N/A</v>
       </c>
       <c r="I165" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6813,7 +6986,7 @@
         <v>ASPUNSAF</v>
       </c>
       <c r="D166" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F166" t="s">
         <v>393</v>
@@ -6823,7 +6996,7 @@
         <v>#N/A</v>
       </c>
       <c r="I166" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -6835,7 +7008,7 @@
         <v>#N/A</v>
       </c>
       <c r="D167" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F167" t="s">
         <v>394</v>
@@ -6845,7 +7018,7 @@
         <v>#N/A</v>
       </c>
       <c r="I167" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -6857,7 +7030,7 @@
         <v>#N/A</v>
       </c>
       <c r="D168" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F168" t="s">
         <v>395</v>
@@ -6867,7 +7040,7 @@
         <v>#N/A</v>
       </c>
       <c r="I168" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -6879,7 +7052,7 @@
         <v>#N/A</v>
       </c>
       <c r="D169" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F169" t="s">
         <v>396</v>
@@ -6889,7 +7062,7 @@
         <v>#N/A</v>
       </c>
       <c r="I169" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -6901,7 +7074,7 @@
         <v>ARTTODAY</v>
       </c>
       <c r="D170" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F170" t="s">
         <v>397</v>
@@ -6911,7 +7084,7 @@
         <v>#N/A</v>
       </c>
       <c r="I170" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -6923,7 +7096,7 @@
         <v>ARTHWGT</v>
       </c>
       <c r="D171" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F171" t="s">
         <v>398</v>
@@ -6933,7 +7106,7 @@
         <v>#N/A</v>
       </c>
       <c r="I171" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -6945,7 +7118,7 @@
         <v>ARTHEXER</v>
       </c>
       <c r="D172" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F172" t="s">
         <v>399</v>
@@ -6955,7 +7128,7 @@
         <v>#N/A</v>
       </c>
       <c r="I172" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -6967,7 +7140,7 @@
         <v>ARTHEDU</v>
       </c>
       <c r="D173" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F173" t="s">
         <v>400</v>
@@ -6977,7 +7150,7 @@
         <v>#N/A</v>
       </c>
       <c r="I173" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -6989,7 +7162,7 @@
         <v>#N/A</v>
       </c>
       <c r="D174" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F174" t="s">
         <v>401</v>
@@ -6999,7 +7172,7 @@
         <v>#N/A</v>
       </c>
       <c r="I174" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -7011,7 +7184,7 @@
         <v>HPVADVC2</v>
       </c>
       <c r="D175" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F175" t="s">
         <v>402</v>
@@ -7021,7 +7194,7 @@
         <v>#N/A</v>
       </c>
       <c r="I175" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -7033,7 +7206,7 @@
         <v>HPVADSHT</v>
       </c>
       <c r="D176" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F176" t="s">
         <v>403</v>
@@ -7043,7 +7216,7 @@
         <v>#N/A</v>
       </c>
       <c r="I176" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -7055,7 +7228,7 @@
         <v>#N/A</v>
       </c>
       <c r="D177" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F177" t="s">
         <v>404</v>
@@ -7065,7 +7238,7 @@
         <v>#N/A</v>
       </c>
       <c r="I177" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -7077,7 +7250,7 @@
         <v>HADMAM</v>
       </c>
       <c r="D178" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F178" t="s">
         <v>16</v>
@@ -7087,7 +7260,7 @@
         <v>#N/A</v>
       </c>
       <c r="I178" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -7099,7 +7272,7 @@
         <v>HOWLONG</v>
       </c>
       <c r="D179" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F179" t="s">
         <v>405</v>
@@ -7109,7 +7282,7 @@
         <v>#N/A</v>
       </c>
       <c r="I179" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -7121,7 +7294,7 @@
         <v>HADPAP2</v>
       </c>
       <c r="D180" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F180" t="s">
         <v>406</v>
@@ -7131,7 +7304,7 @@
         <v>#N/A</v>
       </c>
       <c r="I180" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -7143,7 +7316,7 @@
         <v>LASTPAP2</v>
       </c>
       <c r="D181" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F181" t="s">
         <v>187</v>
@@ -7170,7 +7343,7 @@
         <v>#N/A</v>
       </c>
       <c r="D182" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F182" t="s">
         <v>188</v>
@@ -7197,7 +7370,7 @@
         <v>#N/A</v>
       </c>
       <c r="D183" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F183" t="s">
         <v>194</v>
@@ -7224,7 +7397,7 @@
         <v>HADHYST2</v>
       </c>
       <c r="D184" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F184" t="s">
         <v>195</v>
@@ -7251,7 +7424,7 @@
         <v>PROFEXAM</v>
       </c>
       <c r="D185" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F185" t="s">
         <v>189</v>
@@ -7278,7 +7451,7 @@
         <v>LENGEXAM</v>
       </c>
       <c r="D186" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F186" t="s">
         <v>190</v>
@@ -7305,7 +7478,7 @@
         <v>BLDSTOOL</v>
       </c>
       <c r="D187" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F187" t="s">
         <v>193</v>
@@ -7332,7 +7505,7 @@
         <v>LSTBLDS3</v>
       </c>
       <c r="D188" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F188" t="s">
         <v>407</v>
@@ -7342,7 +7515,7 @@
         <v>#N/A</v>
       </c>
       <c r="I188" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -7354,7 +7527,7 @@
         <v>HADSIGM3</v>
       </c>
       <c r="D189" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F189" t="s">
         <v>204</v>
@@ -7381,7 +7554,7 @@
         <v>HADSGCO1</v>
       </c>
       <c r="D190" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F190" t="s">
         <v>205</v>
@@ -7408,7 +7581,7 @@
         <v>LASTSIG3</v>
       </c>
       <c r="D191" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F191" t="s">
         <v>408</v>
@@ -7418,7 +7591,7 @@
         <v>#N/A</v>
       </c>
       <c r="I191" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -7430,7 +7603,7 @@
         <v>#N/A</v>
       </c>
       <c r="D192" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F192" t="s">
         <v>409</v>
@@ -7440,7 +7613,7 @@
         <v>#N/A</v>
       </c>
       <c r="I192" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -7452,7 +7625,7 @@
         <v>#N/A</v>
       </c>
       <c r="D193" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F193" t="s">
         <v>410</v>
@@ -7462,7 +7635,7 @@
         <v>#N/A</v>
       </c>
       <c r="I193" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -7474,7 +7647,7 @@
         <v>#N/A</v>
       </c>
       <c r="D194" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F194" t="s">
         <v>411</v>
@@ -7484,7 +7657,7 @@
         <v>#N/A</v>
       </c>
       <c r="I194" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -7496,7 +7669,7 @@
         <v>PSATEST1</v>
       </c>
       <c r="D195" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F195" t="s">
         <v>412</v>
@@ -7506,7 +7679,7 @@
         <v>#N/A</v>
       </c>
       <c r="I195" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -7518,7 +7691,7 @@
         <v>PSATIME</v>
       </c>
       <c r="D196" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F196" t="s">
         <v>196</v>
@@ -7545,7 +7718,7 @@
         <v>#N/A</v>
       </c>
       <c r="D197" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F197" t="s">
         <v>197</v>
@@ -7572,7 +7745,7 @@
         <v>#N/A</v>
       </c>
       <c r="D198" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F198" t="s">
         <v>198</v>
@@ -7599,7 +7772,7 @@
         <v>#N/A</v>
       </c>
       <c r="D199" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F199" t="s">
         <v>199</v>
@@ -7625,7 +7798,7 @@
         <v>469</v>
       </c>
       <c r="C200" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D200" t="s">
         <v>566</v>
@@ -7654,7 +7827,7 @@
         <v>470</v>
       </c>
       <c r="C201" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D201" t="s">
         <v>566</v>
@@ -7667,7 +7840,7 @@
         <v>#N/A</v>
       </c>
       <c r="I201" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -7679,7 +7852,7 @@
         <v>SCNTPAID</v>
       </c>
       <c r="D202" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F202" t="s">
         <v>414</v>
@@ -7689,7 +7862,7 @@
         <v>#N/A</v>
       </c>
       <c r="I202" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -7701,7 +7874,7 @@
         <v>SCNTWRK1</v>
       </c>
       <c r="D203" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F203" t="s">
         <v>415</v>
@@ -7711,7 +7884,7 @@
         <v>#N/A</v>
       </c>
       <c r="I203" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -7723,7 +7896,7 @@
         <v>SCNTLPAD</v>
       </c>
       <c r="D204" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F204" t="s">
         <v>416</v>
@@ -7733,7 +7906,7 @@
         <v>#N/A</v>
       </c>
       <c r="I204" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -7745,7 +7918,7 @@
         <v>SCNTLWK1</v>
       </c>
       <c r="D205" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F205" t="s">
         <v>417</v>
@@ -7755,7 +7928,7 @@
         <v>#N/A</v>
       </c>
       <c r="I205" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -7767,7 +7940,7 @@
         <v>#N/A</v>
       </c>
       <c r="D206" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F206" t="s">
         <v>418</v>
@@ -7777,7 +7950,7 @@
         <v>#N/A</v>
       </c>
       <c r="I206" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -7789,7 +7962,7 @@
         <v>#N/A</v>
       </c>
       <c r="D207" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F207" t="s">
         <v>419</v>
@@ -7799,7 +7972,7 @@
         <v>#N/A</v>
       </c>
       <c r="I207" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -7811,7 +7984,7 @@
         <v>RCSGENDR</v>
       </c>
       <c r="D208" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F208" t="s">
         <v>420</v>
@@ -7821,7 +7994,7 @@
         <v>#N/A</v>
       </c>
       <c r="I208" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -7833,7 +8006,7 @@
         <v>RCSRLTN2</v>
       </c>
       <c r="D209" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F209" t="s">
         <v>421</v>
@@ -7843,7 +8016,7 @@
         <v>#N/A</v>
       </c>
       <c r="I209" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -7855,7 +8028,7 @@
         <v>CASTHDX2</v>
       </c>
       <c r="D210" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F210" t="s">
         <v>422</v>
@@ -7865,7 +8038,7 @@
         <v>#N/A</v>
       </c>
       <c r="I210" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -7877,7 +8050,7 @@
         <v>CASTHNO2</v>
       </c>
       <c r="D211" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F211" t="s">
         <v>423</v>
@@ -7887,7 +8060,7 @@
         <v>#N/A</v>
       </c>
       <c r="I211" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7899,10 +8072,10 @@
         <v>EMTSUPRT</v>
       </c>
       <c r="C212" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D212" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F212" t="s">
         <v>424</v>
@@ -7912,7 +8085,7 @@
         <v>#N/A</v>
       </c>
       <c r="I212" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -7924,10 +8097,10 @@
         <v>LSATISFY</v>
       </c>
       <c r="C213" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D213" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F213" t="s">
         <v>425</v>
@@ -7937,7 +8110,7 @@
         <v>#N/A</v>
       </c>
       <c r="I213" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -7949,7 +8122,7 @@
         <v>ADPLEASR</v>
       </c>
       <c r="C214" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D214" t="s">
         <v>566</v>
@@ -7962,7 +8135,7 @@
         <v>#N/A</v>
       </c>
       <c r="I214" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -7974,7 +8147,7 @@
         <v>ADDOWN</v>
       </c>
       <c r="C215" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D215" t="s">
         <v>566</v>
@@ -7987,7 +8160,7 @@
         <v>#N/A</v>
       </c>
       <c r="I215" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -7999,7 +8172,7 @@
         <v>ADSLEEP</v>
       </c>
       <c r="C216" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D216" t="s">
         <v>566</v>
@@ -8029,7 +8202,7 @@
         <v>ADENERGY</v>
       </c>
       <c r="C217" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D217" t="s">
         <v>566</v>
@@ -8059,7 +8232,7 @@
         <v>ADEAT1</v>
       </c>
       <c r="C218" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D218" t="s">
         <v>566</v>
@@ -8089,7 +8262,7 @@
         <v>ADFAIL</v>
       </c>
       <c r="C219" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D219" t="s">
         <v>566</v>
@@ -8119,7 +8292,7 @@
         <v>ADTHINK</v>
       </c>
       <c r="C220" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D220" t="s">
         <v>566</v>
@@ -8149,7 +8322,7 @@
         <v>ADMOVE</v>
       </c>
       <c r="C221" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D221" t="s">
         <v>566</v>
@@ -8179,7 +8352,7 @@
         <v>MISTMNT</v>
       </c>
       <c r="C222" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D222" t="s">
         <v>566</v>
@@ -8209,7 +8382,7 @@
         <v>ADANXEV</v>
       </c>
       <c r="C223" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D223" t="s">
         <v>566</v>
@@ -8239,7 +8412,7 @@
         <v>QSTVER</v>
       </c>
       <c r="D224" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F224" t="s">
         <v>170</v>
@@ -8266,7 +8439,7 @@
         <v>QSTLANG</v>
       </c>
       <c r="D225" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F225" t="s">
         <v>171</v>
@@ -8293,7 +8466,7 @@
         <v>#N/A</v>
       </c>
       <c r="D226" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F226" t="s">
         <v>179</v>
@@ -8320,7 +8493,7 @@
         <v>#N/A</v>
       </c>
       <c r="D227" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F227" t="s">
         <v>180</v>
@@ -8347,10 +8520,10 @@
         <v>MSCODE</v>
       </c>
       <c r="C228" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D228" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F228" t="s">
         <v>181</v>
@@ -8377,7 +8550,7 @@
         <v>_STSTR</v>
       </c>
       <c r="D229" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F229" t="s">
         <v>182</v>
@@ -8404,7 +8577,7 @@
         <v>_STRWT</v>
       </c>
       <c r="D230" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F230" t="s">
         <v>428</v>
@@ -8414,7 +8587,7 @@
         <v>#N/A</v>
       </c>
       <c r="I230" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -8426,7 +8599,7 @@
         <v>_RAWRAKE</v>
       </c>
       <c r="D231" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F231" t="s">
         <v>429</v>
@@ -8436,7 +8609,7 @@
         <v>#N/A</v>
       </c>
       <c r="I231" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -8448,7 +8621,7 @@
         <v>_WT2RAKE</v>
       </c>
       <c r="D232" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F232" t="s">
         <v>430</v>
@@ -8458,7 +8631,7 @@
         <v>#N/A</v>
       </c>
       <c r="I232" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -8470,7 +8643,7 @@
         <v>#N/A</v>
       </c>
       <c r="D233" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F233" t="s">
         <v>184</v>
@@ -8497,7 +8670,7 @@
         <v>#N/A</v>
       </c>
       <c r="D234" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F234" t="s">
         <v>185</v>
@@ -8524,7 +8697,7 @@
         <v>#N/A</v>
       </c>
       <c r="D235" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F235" t="s">
         <v>431</v>
@@ -8534,7 +8707,7 @@
         <v>#N/A</v>
       </c>
       <c r="I235" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -8546,7 +8719,7 @@
         <v>_CLLCPWT</v>
       </c>
       <c r="D236" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F236" t="s">
         <v>432</v>
@@ -8556,7 +8729,7 @@
         <v>#N/A</v>
       </c>
       <c r="I236" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -8568,7 +8741,7 @@
         <v>#N/A</v>
       </c>
       <c r="D237" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F237" t="s">
         <v>433</v>
@@ -8578,7 +8751,7 @@
         <v>#N/A</v>
       </c>
       <c r="I237" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -8590,7 +8763,7 @@
         <v>#N/A</v>
       </c>
       <c r="D238" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F238" t="s">
         <v>434</v>
@@ -8600,7 +8773,7 @@
         <v>#N/A</v>
       </c>
       <c r="I238" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -8612,7 +8785,7 @@
         <v>_LLCPWT</v>
       </c>
       <c r="D239" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F239" t="s">
         <v>435</v>
@@ -8622,7 +8795,7 @@
         <v>#N/A</v>
       </c>
       <c r="I239" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -8634,10 +8807,10 @@
         <v>_RFHLTH</v>
       </c>
       <c r="C240" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D240" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F240" t="s">
         <v>436</v>
@@ -8647,7 +8820,7 @@
         <v>#N/A</v>
       </c>
       <c r="I240" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -8659,10 +8832,10 @@
         <v>_HCVU651</v>
       </c>
       <c r="C241" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D241" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F241" t="s">
         <v>437</v>
@@ -8672,7 +8845,7 @@
         <v>#N/A</v>
       </c>
       <c r="I241" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -8684,7 +8857,7 @@
         <v>_RFHYPE5</v>
       </c>
       <c r="D242" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F242" t="s">
         <v>438</v>
@@ -8694,7 +8867,7 @@
         <v>#N/A</v>
       </c>
       <c r="I242" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -8706,7 +8879,7 @@
         <v>_CHOLCHK</v>
       </c>
       <c r="D243" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F243" t="s">
         <v>439</v>
@@ -8716,7 +8889,7 @@
         <v>#N/A</v>
       </c>
       <c r="I243" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -8728,7 +8901,7 @@
         <v>_RFCHOL</v>
       </c>
       <c r="D244" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F244" t="s">
         <v>440</v>
@@ -8738,7 +8911,7 @@
         <v>#N/A</v>
       </c>
       <c r="I244" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -8750,7 +8923,7 @@
         <v>#N/A</v>
       </c>
       <c r="D245" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F245" t="s">
         <v>441</v>
@@ -8760,7 +8933,7 @@
         <v>#N/A</v>
       </c>
       <c r="I245" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -8772,7 +8945,7 @@
         <v>_LTASTH1</v>
       </c>
       <c r="D246" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F246" t="s">
         <v>442</v>
@@ -8782,7 +8955,7 @@
         <v>#N/A</v>
       </c>
       <c r="I246" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -8794,7 +8967,7 @@
         <v>_CASTHM1</v>
       </c>
       <c r="D247" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F247" t="s">
         <v>443</v>
@@ -8804,7 +8977,7 @@
         <v>#N/A</v>
       </c>
       <c r="I247" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -8816,7 +8989,7 @@
         <v>_ASTHMS1</v>
       </c>
       <c r="D248" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F248" t="s">
         <v>444</v>
@@ -8826,7 +8999,7 @@
         <v>#N/A</v>
       </c>
       <c r="I248" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -8838,7 +9011,7 @@
         <v>_DRDXAR1</v>
       </c>
       <c r="D249" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F249" t="s">
         <v>445</v>
@@ -8848,7 +9021,7 @@
         <v>#N/A</v>
       </c>
       <c r="I249" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -8860,7 +9033,7 @@
         <v>#N/A</v>
       </c>
       <c r="D250" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F250" t="s">
         <v>446</v>
@@ -8870,7 +9043,7 @@
         <v>#N/A</v>
       </c>
       <c r="I250" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -8882,7 +9055,7 @@
         <v>#N/A</v>
       </c>
       <c r="D251" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F251" t="s">
         <v>447</v>
@@ -8892,7 +9065,7 @@
         <v>#N/A</v>
       </c>
       <c r="I251" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -8904,7 +9077,7 @@
         <v>#N/A</v>
       </c>
       <c r="D252" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F252" t="s">
         <v>448</v>
@@ -8914,7 +9087,7 @@
         <v>#N/A</v>
       </c>
       <c r="I252" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -8925,7 +9098,7 @@
         <v>528</v>
       </c>
       <c r="C253" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D253" t="s">
         <v>566</v>
@@ -8938,7 +9111,7 @@
         <v>#N/A</v>
       </c>
       <c r="I253" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -8950,7 +9123,7 @@
         <v>#N/A</v>
       </c>
       <c r="D254" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F254" t="s">
         <v>450</v>
@@ -8960,7 +9133,7 @@
         <v>#N/A</v>
       </c>
       <c r="I254" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -8972,7 +9145,7 @@
         <v>#N/A</v>
       </c>
       <c r="D255" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F255" t="s">
         <v>451</v>
@@ -8982,7 +9155,7 @@
         <v>#N/A</v>
       </c>
       <c r="I255" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -8994,7 +9167,7 @@
         <v>#N/A</v>
       </c>
       <c r="D256" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F256" t="s">
         <v>452</v>
@@ -9004,7 +9177,7 @@
         <v>#N/A</v>
       </c>
       <c r="I256" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -9016,7 +9189,7 @@
         <v>_AGEG5YR</v>
       </c>
       <c r="D257" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F257" t="s">
         <v>453</v>
@@ -9026,7 +9199,7 @@
         <v>#N/A</v>
       </c>
       <c r="I257" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -9038,7 +9211,7 @@
         <v>_AGE65YR</v>
       </c>
       <c r="D258" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F258" t="s">
         <v>454</v>
@@ -9048,7 +9221,7 @@
         <v>#N/A</v>
       </c>
       <c r="I258" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -9060,7 +9233,7 @@
         <v>#N/A</v>
       </c>
       <c r="D259" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F259" t="s">
         <v>455</v>
@@ -9070,7 +9243,7 @@
         <v>#N/A</v>
       </c>
       <c r="I259" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -9082,7 +9255,7 @@
         <v>_AGE_G</v>
       </c>
       <c r="C260" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D260" t="s">
         <v>566</v>
@@ -9095,7 +9268,7 @@
         <v>#N/A</v>
       </c>
       <c r="I260" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -9107,7 +9280,7 @@
         <v>HTIN4</v>
       </c>
       <c r="D261" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F261" t="s">
         <v>457</v>
@@ -9117,7 +9290,7 @@
         <v>#N/A</v>
       </c>
       <c r="I261" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -9129,7 +9302,7 @@
         <v>HTM4</v>
       </c>
       <c r="C262" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D262" t="s">
         <v>566</v>
@@ -9142,7 +9315,7 @@
         <v>#N/A</v>
       </c>
       <c r="I262" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -9154,7 +9327,7 @@
         <v>WTKG3</v>
       </c>
       <c r="C263" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D263" t="s">
         <v>566</v>
@@ -9167,7 +9340,7 @@
         <v>#N/A</v>
       </c>
       <c r="I263" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -9179,7 +9352,7 @@
         <v>_BMI5</v>
       </c>
       <c r="C264" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D264" t="s">
         <v>566</v>
@@ -9209,7 +9382,7 @@
         <v>_BMI5CAT</v>
       </c>
       <c r="D265" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F265" t="s">
         <v>224</v>
@@ -9236,7 +9409,7 @@
         <v>_RFBMI5</v>
       </c>
       <c r="D266" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F266" t="s">
         <v>225</v>
@@ -9263,7 +9436,7 @@
         <v>_CHLDCNT</v>
       </c>
       <c r="D267" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F267" t="s">
         <v>226</v>
@@ -9290,7 +9463,7 @@
         <v>_EDUCAG</v>
       </c>
       <c r="D268" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F268" t="s">
         <v>227</v>
@@ -9317,7 +9490,7 @@
         <v>_INCOMG</v>
       </c>
       <c r="D269" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F269" t="s">
         <v>228</v>
@@ -9344,7 +9517,7 @@
         <v>_SMOKER3</v>
       </c>
       <c r="D270" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F270" t="s">
         <v>229</v>
@@ -9371,7 +9544,7 @@
         <v>_RFSMOK3</v>
       </c>
       <c r="D271" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F271" t="s">
         <v>230</v>
@@ -9398,7 +9571,7 @@
         <v>DRNKANY5</v>
       </c>
       <c r="D272" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F272" t="s">
         <v>231</v>
@@ -9425,7 +9598,7 @@
         <v>DROCDY3_</v>
       </c>
       <c r="D273" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F273" t="s">
         <v>232</v>
@@ -9452,7 +9625,7 @@
         <v>_RFBING5</v>
       </c>
       <c r="D274" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F274" t="s">
         <v>153</v>
@@ -9479,7 +9652,7 @@
         <v>#N/A</v>
       </c>
       <c r="D275" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F275" t="s">
         <v>460</v>
@@ -9489,7 +9662,7 @@
         <v>#N/A</v>
       </c>
       <c r="I275" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -9501,7 +9674,7 @@
         <v>#N/A</v>
       </c>
       <c r="D276" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F276" t="s">
         <v>461</v>
@@ -9511,7 +9684,7 @@
         <v>#N/A</v>
       </c>
       <c r="I276" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -9523,7 +9696,7 @@
         <v>FTJUDA1_</v>
       </c>
       <c r="D277" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F277" t="s">
         <v>462</v>
@@ -9533,7 +9706,7 @@
         <v>#N/A</v>
       </c>
       <c r="I277" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -9545,7 +9718,7 @@
         <v>FRUTDA1_</v>
       </c>
       <c r="D278" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F278" t="s">
         <v>463</v>
@@ -9555,7 +9728,7 @@
         <v>#N/A</v>
       </c>
       <c r="I278" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -9567,7 +9740,7 @@
         <v>BEANDAY_</v>
       </c>
       <c r="D279" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F279" t="s">
         <v>464</v>
@@ -9577,7 +9750,7 @@
         <v>#N/A</v>
       </c>
       <c r="I279" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -9589,7 +9762,7 @@
         <v>GRENDAY_</v>
       </c>
       <c r="D280" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F280" t="s">
         <v>465</v>
@@ -9599,7 +9772,7 @@
         <v>#N/A</v>
       </c>
       <c r="I280" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -9611,7 +9784,7 @@
         <v>ORNGDAY_</v>
       </c>
       <c r="D281" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F281" t="s">
         <v>466</v>
@@ -9621,7 +9794,7 @@
         <v>#N/A</v>
       </c>
       <c r="I281" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -9633,7 +9806,7 @@
         <v>VEGEDA1_</v>
       </c>
       <c r="D282" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F282" t="s">
         <v>467</v>
@@ -9643,7 +9816,7 @@
         <v>#N/A</v>
       </c>
       <c r="I282" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -9655,7 +9828,7 @@
         <v>_MISFRTN</v>
       </c>
       <c r="D283" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F283" t="s">
         <v>468</v>
@@ -9665,7 +9838,7 @@
         <v>#N/A</v>
       </c>
       <c r="I283" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -9677,7 +9850,7 @@
         <v>_MISVEGN</v>
       </c>
       <c r="D284" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F284" t="s">
         <v>469</v>
@@ -9703,7 +9876,7 @@
         <v>_FRTRESP</v>
       </c>
       <c r="D285" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F285" t="s">
         <v>470</v>
@@ -9729,7 +9902,7 @@
         <v>_VEGRESP</v>
       </c>
       <c r="D286" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F286" t="s">
         <v>211</v>
@@ -9756,7 +9929,7 @@
         <v>_FRUTSUM</v>
       </c>
       <c r="C287" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D287" t="s">
         <v>566</v>
@@ -9786,7 +9959,7 @@
         <v>_VEGESUM</v>
       </c>
       <c r="C288" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D288" t="s">
         <v>566</v>
@@ -9816,7 +9989,7 @@
         <v>#N/A</v>
       </c>
       <c r="D289" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F289" t="s">
         <v>214</v>
@@ -9843,7 +10016,7 @@
         <v>#N/A</v>
       </c>
       <c r="D290" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F290" t="s">
         <v>471</v>
@@ -9853,7 +10026,7 @@
         <v>#N/A</v>
       </c>
       <c r="I290" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -9865,7 +10038,7 @@
         <v>_FRT16</v>
       </c>
       <c r="D291" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F291" t="s">
         <v>472</v>
@@ -9875,7 +10048,7 @@
         <v>#N/A</v>
       </c>
       <c r="I291" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -9887,7 +10060,7 @@
         <v>_VEG23</v>
       </c>
       <c r="D292" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F292" t="s">
         <v>221</v>
@@ -9914,7 +10087,7 @@
         <v>_FRUITEX</v>
       </c>
       <c r="D293" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F293" t="s">
         <v>222</v>
@@ -9941,7 +10114,7 @@
         <v>_VEGETEX</v>
       </c>
       <c r="D294" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F294" t="s">
         <v>473</v>
@@ -9951,7 +10124,7 @@
         <v>#N/A</v>
       </c>
       <c r="I294" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -9963,7 +10136,7 @@
         <v>_TOTINDA</v>
       </c>
       <c r="C295" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D295" t="s">
         <v>566</v>
@@ -9976,7 +10149,7 @@
         <v>#N/A</v>
       </c>
       <c r="I295" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -9988,7 +10161,7 @@
         <v>#N/A</v>
       </c>
       <c r="D296" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
         <v>475</v>
@@ -9998,7 +10171,7 @@
         <v>#N/A</v>
       </c>
       <c r="I296" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
@@ -10010,7 +10183,7 @@
         <v>#N/A</v>
       </c>
       <c r="D297" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F297" t="s">
         <v>476</v>
@@ -10020,7 +10193,7 @@
         <v>#N/A</v>
       </c>
       <c r="I297" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -10032,7 +10205,7 @@
         <v>MAXVO2_</v>
       </c>
       <c r="D298" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F298" t="s">
         <v>477</v>
@@ -10042,7 +10215,7 @@
         <v>#N/A</v>
       </c>
       <c r="I298" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -10054,7 +10227,7 @@
         <v>FC60_</v>
       </c>
       <c r="D299" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F299" t="s">
         <v>478</v>
@@ -10064,7 +10237,7 @@
         <v>#N/A</v>
       </c>
       <c r="I299" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -10076,7 +10249,7 @@
         <v>#N/A</v>
       </c>
       <c r="D300" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F300" t="s">
         <v>479</v>
@@ -10086,7 +10259,7 @@
         <v>#N/A</v>
       </c>
       <c r="I300" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -10098,7 +10271,7 @@
         <v>#N/A</v>
       </c>
       <c r="D301" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F301" t="s">
         <v>480</v>
@@ -10108,7 +10281,7 @@
         <v>#N/A</v>
       </c>
       <c r="I301" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -10120,7 +10293,7 @@
         <v>PADUR1_</v>
       </c>
       <c r="D302" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F302" t="s">
         <v>481</v>
@@ -10130,7 +10303,7 @@
         <v>#N/A</v>
       </c>
       <c r="I302" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -10142,7 +10315,7 @@
         <v>PADUR2_</v>
       </c>
       <c r="D303" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F303" t="s">
         <v>482</v>
@@ -10152,7 +10325,7 @@
         <v>#N/A</v>
       </c>
       <c r="I303" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -10164,7 +10337,7 @@
         <v>PAFREQ1_</v>
       </c>
       <c r="D304" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F304" t="s">
         <v>483</v>
@@ -10174,7 +10347,7 @@
         <v>#N/A</v>
       </c>
       <c r="I304" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -10186,7 +10359,7 @@
         <v>PAFREQ2_</v>
       </c>
       <c r="D305" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F305" t="s">
         <v>484</v>
@@ -10196,7 +10369,7 @@
         <v>#N/A</v>
       </c>
       <c r="I305" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -10208,7 +10381,7 @@
         <v>#N/A</v>
       </c>
       <c r="D306" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F306" t="s">
         <v>217</v>
@@ -10235,7 +10408,7 @@
         <v>#N/A</v>
       </c>
       <c r="D307" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F307" t="s">
         <v>485</v>
@@ -10245,7 +10418,7 @@
         <v>#N/A</v>
       </c>
       <c r="I307" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -10257,7 +10430,7 @@
         <v>STRFREQ_</v>
       </c>
       <c r="D308" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F308" t="s">
         <v>486</v>
@@ -10267,7 +10440,7 @@
         <v>#N/A</v>
       </c>
       <c r="I308" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -10279,7 +10452,7 @@
         <v>#N/A</v>
       </c>
       <c r="D309" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F309" t="s">
         <v>487</v>
@@ -10289,7 +10462,7 @@
         <v>#N/A</v>
       </c>
       <c r="I309" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -10301,7 +10474,7 @@
         <v>#N/A</v>
       </c>
       <c r="D310" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F310" t="s">
         <v>218</v>
@@ -10328,7 +10501,7 @@
         <v>#N/A</v>
       </c>
       <c r="D311" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F311" t="s">
         <v>219</v>
@@ -10355,7 +10528,7 @@
         <v>#N/A</v>
       </c>
       <c r="D312" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F312" t="s">
         <v>220</v>
@@ -10382,7 +10555,7 @@
         <v>#N/A</v>
       </c>
       <c r="D313" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F313" t="s">
         <v>488</v>
@@ -10392,7 +10565,7 @@
         <v>#N/A</v>
       </c>
       <c r="I313" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -10404,7 +10577,7 @@
         <v>#N/A</v>
       </c>
       <c r="D314" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F314" t="s">
         <v>489</v>
@@ -10414,7 +10587,7 @@
         <v>#N/A</v>
       </c>
       <c r="I314" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -10426,7 +10599,7 @@
         <v>#N/A</v>
       </c>
       <c r="D315" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F315" t="s">
         <v>490</v>
@@ -10436,7 +10609,7 @@
         <v>#N/A</v>
       </c>
       <c r="I315" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -10448,7 +10621,7 @@
         <v>#N/A</v>
       </c>
       <c r="D316" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F316" t="s">
         <v>491</v>
@@ -10458,7 +10631,7 @@
         <v>#N/A</v>
       </c>
       <c r="I316" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -10470,7 +10643,7 @@
         <v>#N/A</v>
       </c>
       <c r="D317" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F317" t="s">
         <v>492</v>
@@ -10480,7 +10653,7 @@
         <v>#N/A</v>
       </c>
       <c r="I317" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -10492,7 +10665,7 @@
         <v>#N/A</v>
       </c>
       <c r="D318" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F318" t="s">
         <v>41</v>
@@ -10519,7 +10692,7 @@
         <v>#N/A</v>
       </c>
       <c r="D319" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F319" t="s">
         <v>42</v>
@@ -10546,7 +10719,7 @@
         <v>#N/A</v>
       </c>
       <c r="D320" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F320" t="s">
         <v>43</v>
@@ -10573,7 +10746,7 @@
         <v>_PASTRNG</v>
       </c>
       <c r="D321" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F321" t="s">
         <v>44</v>
@@ -10600,7 +10773,7 @@
         <v>#N/A</v>
       </c>
       <c r="D322" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F322" t="s">
         <v>46</v>
@@ -10627,7 +10800,7 @@
         <v>#N/A</v>
       </c>
       <c r="D323" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F323" t="s">
         <v>493</v>
@@ -10637,7 +10810,7 @@
         <v>#N/A</v>
       </c>
       <c r="I323" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -10649,7 +10822,7 @@
         <v>#N/A</v>
       </c>
       <c r="D324" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F324" t="s">
         <v>47</v>
@@ -10676,7 +10849,7 @@
         <v>#N/A</v>
       </c>
       <c r="D325" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F325" t="s">
         <v>494</v>
@@ -10686,7 +10859,7 @@
         <v>#N/A</v>
       </c>
       <c r="I325" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
@@ -10698,7 +10871,7 @@
         <v>#N/A</v>
       </c>
       <c r="D326" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F326" t="s">
         <v>233</v>
@@ -10725,7 +10898,7 @@
         <v>_RFSEAT2</v>
       </c>
       <c r="D327" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F327" t="s">
         <v>234</v>
@@ -10752,7 +10925,7 @@
         <v>_RFSEAT3</v>
       </c>
       <c r="D328" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F328" t="s">
         <v>237</v>
@@ -10779,7 +10952,7 @@
         <v>#N/A</v>
       </c>
       <c r="D329" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F329" t="s">
         <v>238</v>
@@ -10806,7 +10979,7 @@
         <v>_PNEUMO2</v>
       </c>
       <c r="D330" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F330" t="s">
         <v>239</v>
@@ -10833,7 +11006,7 @@
         <v>_AIDTST3</v>
       </c>
       <c r="D331" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F331" t="s">
         <v>495</v>
@@ -10843,7 +11016,7 @@
         <v>#N/A</v>
       </c>
       <c r="I331" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
@@ -10855,7 +11028,7 @@
         <v>#N/A</v>
       </c>
       <c r="I332" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
@@ -10901,7 +11074,7 @@
         <v>#N/A</v>
       </c>
       <c r="I335" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
@@ -10913,7 +11086,7 @@
         <v>#N/A</v>
       </c>
       <c r="I336" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="337" spans="6:9" x14ac:dyDescent="0.2">
@@ -10925,7 +11098,7 @@
         <v>#N/A</v>
       </c>
       <c r="I337" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="338" spans="6:9" x14ac:dyDescent="0.2">
@@ -10937,7 +11110,7 @@
         <v>#N/A</v>
       </c>
       <c r="I338" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="339" spans="6:9" x14ac:dyDescent="0.2">
@@ -10949,7 +11122,7 @@
         <v>#N/A</v>
       </c>
       <c r="I339" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="340" spans="6:9" x14ac:dyDescent="0.2">
@@ -10961,7 +11134,7 @@
         <v>#N/A</v>
       </c>
       <c r="I340" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="341" spans="6:9" x14ac:dyDescent="0.2">
@@ -10973,7 +11146,7 @@
         <v>#N/A</v>
       </c>
       <c r="I341" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="342" spans="6:9" x14ac:dyDescent="0.2">
@@ -10985,7 +11158,7 @@
         <v>#N/A</v>
       </c>
       <c r="I342" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="343" spans="6:9" x14ac:dyDescent="0.2">
@@ -10997,7 +11170,7 @@
         <v>#N/A</v>
       </c>
       <c r="I343" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="344" spans="6:9" x14ac:dyDescent="0.2">
@@ -11009,7 +11182,7 @@
         <v>#N/A</v>
       </c>
       <c r="I344" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="345" spans="6:9" x14ac:dyDescent="0.2">
@@ -11021,7 +11194,7 @@
         <v>#N/A</v>
       </c>
       <c r="I345" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="346" spans="6:9" x14ac:dyDescent="0.2">
@@ -11033,7 +11206,7 @@
         <v>#N/A</v>
       </c>
       <c r="I346" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="347" spans="6:9" x14ac:dyDescent="0.2">
@@ -11045,7 +11218,7 @@
         <v>#N/A</v>
       </c>
       <c r="I347" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="348" spans="6:9" x14ac:dyDescent="0.2">
@@ -11057,7 +11230,7 @@
         <v>#N/A</v>
       </c>
       <c r="I348" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="349" spans="6:9" x14ac:dyDescent="0.2">
@@ -11069,7 +11242,7 @@
         <v>#N/A</v>
       </c>
       <c r="I349" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="350" spans="6:9" x14ac:dyDescent="0.2">
@@ -11098,7 +11271,7 @@
         <v>#N/A</v>
       </c>
       <c r="I351" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="352" spans="6:9" x14ac:dyDescent="0.2">
@@ -11110,7 +11283,7 @@
         <v>#N/A</v>
       </c>
       <c r="I352" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="353" spans="6:9" x14ac:dyDescent="0.2">
@@ -11122,7 +11295,7 @@
         <v>#N/A</v>
       </c>
       <c r="I353" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="354" spans="6:9" x14ac:dyDescent="0.2">
@@ -11134,7 +11307,7 @@
         <v>#N/A</v>
       </c>
       <c r="I354" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="355" spans="6:9" x14ac:dyDescent="0.2">
@@ -11146,7 +11319,7 @@
         <v>#N/A</v>
       </c>
       <c r="I355" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="356" spans="6:9" x14ac:dyDescent="0.2">
@@ -11158,7 +11331,7 @@
         <v>#N/A</v>
       </c>
       <c r="I356" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="357" spans="6:9" x14ac:dyDescent="0.2">
@@ -11170,7 +11343,7 @@
         <v>#N/A</v>
       </c>
       <c r="I357" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="358" spans="6:9" x14ac:dyDescent="0.2">
@@ -11182,7 +11355,7 @@
         <v>#N/A</v>
       </c>
       <c r="I358" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="359" spans="6:9" x14ac:dyDescent="0.2">
@@ -11194,7 +11367,7 @@
         <v>#N/A</v>
       </c>
       <c r="I359" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="360" spans="6:9" x14ac:dyDescent="0.2">
@@ -11206,7 +11379,7 @@
         <v>#N/A</v>
       </c>
       <c r="I360" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="361" spans="6:9" x14ac:dyDescent="0.2">
@@ -11218,7 +11391,7 @@
         <v>#N/A</v>
       </c>
       <c r="I361" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="362" spans="6:9" x14ac:dyDescent="0.2">
@@ -11230,7 +11403,7 @@
         <v>#N/A</v>
       </c>
       <c r="I362" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="363" spans="6:9" x14ac:dyDescent="0.2">
@@ -11446,7 +11619,7 @@
         <v>#N/A</v>
       </c>
       <c r="I375" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="376" spans="6:9" x14ac:dyDescent="0.2">
@@ -11458,7 +11631,7 @@
         <v>#N/A</v>
       </c>
       <c r="I376" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="377" spans="6:9" x14ac:dyDescent="0.2">
@@ -11470,7 +11643,7 @@
         <v>#N/A</v>
       </c>
       <c r="I377" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="378" spans="6:9" x14ac:dyDescent="0.2">
@@ -11482,7 +11655,7 @@
         <v>#N/A</v>
       </c>
       <c r="I378" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="379" spans="6:9" x14ac:dyDescent="0.2">
@@ -11494,7 +11667,7 @@
         <v>#N/A</v>
       </c>
       <c r="I379" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="380" spans="6:9" x14ac:dyDescent="0.2">
@@ -11506,7 +11679,7 @@
         <v>#N/A</v>
       </c>
       <c r="I380" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="381" spans="6:9" x14ac:dyDescent="0.2">
@@ -11518,7 +11691,7 @@
         <v>#N/A</v>
       </c>
       <c r="I381" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="382" spans="6:9" x14ac:dyDescent="0.2">
@@ -11530,7 +11703,7 @@
         <v>#N/A</v>
       </c>
       <c r="I382" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="383" spans="6:9" x14ac:dyDescent="0.2">
@@ -11542,7 +11715,7 @@
         <v>#N/A</v>
       </c>
       <c r="I383" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="384" spans="6:9" x14ac:dyDescent="0.2">
@@ -11554,7 +11727,7 @@
         <v>#N/A</v>
       </c>
       <c r="I384" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="385" spans="6:9" x14ac:dyDescent="0.2">
@@ -11570,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="str">
-        <f t="shared" ref="I385:I413" si="43">VLOOKUP(F385,A:D,4,0)</f>
+        <f t="shared" ref="I385:I412" si="43">VLOOKUP(F385,A:D,4,0)</f>
         <v>drop</v>
       </c>
     </row>
@@ -12058,7 +12231,7 @@
         <v>#N/A</v>
       </c>
       <c r="I414" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="415" spans="6:9" x14ac:dyDescent="0.2">
@@ -12070,7 +12243,7 @@
         <v>#N/A</v>
       </c>
       <c r="I415" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="416" spans="6:9" x14ac:dyDescent="0.2">
@@ -12116,7 +12289,7 @@
         <v>#N/A</v>
       </c>
       <c r="I418" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="419" spans="6:9" x14ac:dyDescent="0.2">
@@ -12128,7 +12301,7 @@
         <v>#N/A</v>
       </c>
       <c r="I419" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="420" spans="6:9" x14ac:dyDescent="0.2">
@@ -12208,7 +12381,7 @@
         <v>#N/A</v>
       </c>
       <c r="I424" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="425" spans="6:9" x14ac:dyDescent="0.2">
@@ -12220,7 +12393,7 @@
         <v>#N/A</v>
       </c>
       <c r="I425" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="426" spans="6:9" x14ac:dyDescent="0.2">
@@ -12249,7 +12422,7 @@
         <v>#N/A</v>
       </c>
       <c r="I427" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="428" spans="6:9" x14ac:dyDescent="0.2">
@@ -12261,7 +12434,7 @@
         <v>#N/A</v>
       </c>
       <c r="I428" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="429" spans="6:9" x14ac:dyDescent="0.2">
@@ -12273,7 +12446,7 @@
         <v>#N/A</v>
       </c>
       <c r="I429" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="430" spans="6:9" x14ac:dyDescent="0.2">
@@ -12285,7 +12458,7 @@
         <v>#N/A</v>
       </c>
       <c r="I430" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="431" spans="6:9" x14ac:dyDescent="0.2">
@@ -12297,7 +12470,7 @@
         <v>#N/A</v>
       </c>
       <c r="I431" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="432" spans="6:9" x14ac:dyDescent="0.2">
@@ -12309,7 +12482,7 @@
         <v>#N/A</v>
       </c>
       <c r="I432" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="433" spans="6:9" x14ac:dyDescent="0.2">
@@ -12321,7 +12494,7 @@
         <v>#N/A</v>
       </c>
       <c r="I433" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="434" spans="6:9" x14ac:dyDescent="0.2">
@@ -12333,7 +12506,7 @@
         <v>#N/A</v>
       </c>
       <c r="I434" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="435" spans="6:9" x14ac:dyDescent="0.2">
@@ -12345,7 +12518,7 @@
         <v>#N/A</v>
       </c>
       <c r="I435" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="436" spans="6:9" x14ac:dyDescent="0.2">
@@ -12357,7 +12530,7 @@
         <v>#N/A</v>
       </c>
       <c r="I436" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="437" spans="6:9" x14ac:dyDescent="0.2">
@@ -12369,7 +12542,7 @@
         <v>#N/A</v>
       </c>
       <c r="I437" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="438" spans="6:9" x14ac:dyDescent="0.2">
@@ -12381,7 +12554,7 @@
         <v>#N/A</v>
       </c>
       <c r="I438" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="439" spans="6:9" x14ac:dyDescent="0.2">
@@ -12410,7 +12583,7 @@
         <v>#N/A</v>
       </c>
       <c r="I440" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="441" spans="6:9" x14ac:dyDescent="0.2">
@@ -12422,7 +12595,7 @@
         <v>#N/A</v>
       </c>
       <c r="I441" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="442" spans="6:9" x14ac:dyDescent="0.2">
@@ -12468,7 +12641,7 @@
         <v>#N/A</v>
       </c>
       <c r="I444" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="445" spans="6:9" x14ac:dyDescent="0.2">
@@ -12548,7 +12721,7 @@
         <v>#N/A</v>
       </c>
       <c r="I449" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="450" spans="6:9" x14ac:dyDescent="0.2">
@@ -12560,7 +12733,7 @@
         <v>#N/A</v>
       </c>
       <c r="I450" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="451" spans="6:9" x14ac:dyDescent="0.2">
@@ -12572,7 +12745,7 @@
         <v>#N/A</v>
       </c>
       <c r="I451" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="452" spans="6:9" x14ac:dyDescent="0.2">
@@ -12584,7 +12757,7 @@
         <v>#N/A</v>
       </c>
       <c r="I452" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="453" spans="6:9" x14ac:dyDescent="0.2">
@@ -12596,7 +12769,7 @@
         <v>#N/A</v>
       </c>
       <c r="I453" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="454" spans="6:9" x14ac:dyDescent="0.2">
@@ -12625,7 +12798,7 @@
         <v>#N/A</v>
       </c>
       <c r="I455" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -12636,845 +12809,1005 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F8025D-A42D-A644-ABEF-0A6D4C91F8C3}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>674</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>676</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>675</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>677</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>678</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>679</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>680</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>588</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" t="s">
+        <v>681</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>682</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>683</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>684</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>685</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>686</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>687</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>688</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>689</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" t="s">
+        <v>690</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>691</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>692</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>693</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>694</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>695</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>696</v>
+      </c>
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>697</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>698</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>699</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B39" t="s">
+        <v>700</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B40" t="s">
+        <v>701</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" t="s">
+        <v>702</v>
+      </c>
+      <c r="C41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>704</v>
+      </c>
+      <c r="C42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" t="s">
+        <v>703</v>
+      </c>
+      <c r="C43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>705</v>
+      </c>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" t="s">
+        <v>706</v>
+      </c>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>707</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>709</v>
+      </c>
+      <c r="C47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" t="s">
+        <v>708</v>
+      </c>
+      <c r="C48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>710</v>
+      </c>
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>711</v>
+      </c>
+      <c r="C50" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B51" t="s">
+        <v>712</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" t="s">
+        <v>713</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" t="s">
+        <v>656</v>
+      </c>
+      <c r="C53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" t="s">
+        <v>657</v>
+      </c>
+      <c r="C54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>660</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" t="s">
+        <v>714</v>
+      </c>
+      <c r="C56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" t="s">
+        <v>715</v>
+      </c>
+      <c r="C57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" t="s">
+        <v>716</v>
+      </c>
+      <c r="C58" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>576</v>
-      </c>
-      <c r="D7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>577</v>
-      </c>
-      <c r="D8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>579</v>
-      </c>
-      <c r="D10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D11" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>580</v>
-      </c>
-      <c r="D12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>581</v>
-      </c>
-      <c r="D13" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>585</v>
-      </c>
-      <c r="D14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>586</v>
-      </c>
-      <c r="D15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>587</v>
-      </c>
-      <c r="D16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>588</v>
-      </c>
-      <c r="D17" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>589</v>
-      </c>
-      <c r="D18" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>590</v>
-      </c>
-      <c r="D19" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C20" t="s">
-        <v>593</v>
-      </c>
-      <c r="D20" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>594</v>
-      </c>
-      <c r="D21" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>595</v>
-      </c>
-      <c r="D22" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>596</v>
-      </c>
-      <c r="D23" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>597</v>
-      </c>
-      <c r="D24" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>599</v>
-      </c>
-      <c r="D25" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>600</v>
-      </c>
-      <c r="D26" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>601</v>
-      </c>
-      <c r="D27" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>602</v>
-      </c>
-      <c r="D28" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C29" t="s">
-        <v>604</v>
-      </c>
-      <c r="D29" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>610</v>
-      </c>
-      <c r="D30" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>611</v>
-      </c>
-      <c r="D31" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>614</v>
-      </c>
-      <c r="D32" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>616</v>
-      </c>
-      <c r="D33" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>625</v>
-      </c>
-      <c r="D34" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>629</v>
-      </c>
-      <c r="D35" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" t="s">
-        <v>630</v>
-      </c>
-      <c r="D36" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
-        <v>631</v>
-      </c>
-      <c r="D37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" t="s">
-        <v>632</v>
-      </c>
-      <c r="D38" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C39" t="s">
-        <v>634</v>
-      </c>
-      <c r="D39" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C40" t="s">
-        <v>635</v>
-      </c>
-      <c r="D40" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" t="s">
-        <v>638</v>
-      </c>
-      <c r="D41" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B42" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" t="s">
-        <v>639</v>
-      </c>
-      <c r="D42" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" t="s">
-        <v>640</v>
-      </c>
-      <c r="D43" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" t="s">
-        <v>641</v>
-      </c>
-      <c r="D44" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B45" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" t="s">
-        <v>642</v>
-      </c>
-      <c r="D45" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" t="s">
-        <v>643</v>
-      </c>
-      <c r="D46" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" t="s">
-        <v>644</v>
-      </c>
-      <c r="D47" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B48" t="s">
-        <v>230</v>
-      </c>
-      <c r="C48" t="s">
-        <v>645</v>
-      </c>
-      <c r="D48" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D49" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" t="s">
-        <v>647</v>
-      </c>
-      <c r="D50" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C51" t="s">
-        <v>657</v>
-      </c>
-      <c r="D51" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" t="s">
-        <v>658</v>
-      </c>
-      <c r="D52" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" t="s">
-        <v>270</v>
-      </c>
-      <c r="C53" t="s">
-        <v>659</v>
-      </c>
-      <c r="D53" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B54" t="s">
-        <v>271</v>
-      </c>
-      <c r="C54" t="s">
-        <v>660</v>
-      </c>
-      <c r="D54" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>663</v>
-      </c>
-      <c r="D55" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B56" t="s">
-        <v>291</v>
-      </c>
-      <c r="C56" t="s">
-        <v>661</v>
-      </c>
-      <c r="D56" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B57" t="s">
-        <v>292</v>
-      </c>
-      <c r="C57" t="s">
-        <v>662</v>
-      </c>
-      <c r="D57" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C58" t="s">
-        <v>669</v>
-      </c>
-      <c r="D58" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -13483,6 +13816,563 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912F8BE6-BD89-594E-848C-9BBECFF8EDE1}">
+  <dimension ref="B2:L25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J4">
+        <v>36</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>667</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>683</v>
+      </c>
+      <c r="J5">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>668</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>684</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>685</v>
+      </c>
+      <c r="J7">
+        <v>39</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>670</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>686</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>671</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>687</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>672</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J10">
+        <v>42</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>673</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>689</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L11" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>674</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" t="s">
+        <v>690</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>676</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>691</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="L13" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>675</v>
+      </c>
+      <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>692</v>
+      </c>
+      <c r="J14">
+        <v>46</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>677</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>693</v>
+      </c>
+      <c r="J15">
+        <v>47</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L15" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>678</v>
+      </c>
+      <c r="F16">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>694</v>
+      </c>
+      <c r="J16">
+        <v>48</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>679</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>695</v>
+      </c>
+      <c r="J17">
+        <v>49</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>680</v>
+      </c>
+      <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="H18" t="s">
+        <v>717</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="L18" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>588</v>
+      </c>
+      <c r="F19">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="H19" t="s">
+        <v>718</v>
+      </c>
+      <c r="J19">
+        <v>51</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="L19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K25" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94704AEA-6428-7B40-8F55-D2F87D9FE7EC}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -13494,22 +14384,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
